--- a/Futuro/results/Silvestres_Presente_avg_RF.xlsx
+++ b/Futuro/results/Silvestres_Presente_avg_RF.xlsx
@@ -399,7 +399,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>34.23318171045888</v>
+        <v>34.11499962972022</v>
       </c>
       <c r="B2">
         <v>38.523891</v>
@@ -410,7 +410,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>43.74656405916455</v>
+        <v>43.73435915049685</v>
       </c>
       <c r="B3">
         <v>44.65</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>44.90082901830004</v>
+        <v>44.90087439181328</v>
       </c>
       <c r="B4">
         <v>44.483333</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>37.03759708109862</v>
+        <v>36.77552474144818</v>
       </c>
       <c r="B5">
         <v>41.72472</v>
@@ -443,7 +443,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>34.71349854732613</v>
+        <v>34.59574712908767</v>
       </c>
       <c r="B6">
         <v>37.1</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>35.97164023569013</v>
+        <v>36.36425622003951</v>
       </c>
       <c r="B7">
         <v>37.483333</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>31.93432216800752</v>
+        <v>32.413223996925</v>
       </c>
       <c r="B8">
         <v>37.266667</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>43.32614279403294</v>
+        <v>42.39865030898945</v>
       </c>
       <c r="B9">
         <v>39.8239</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>29.13646344555921</v>
+        <v>28.46024217518409</v>
       </c>
       <c r="B10">
         <v>38.5</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>31.05283445661178</v>
+        <v>30.33543224243581</v>
       </c>
       <c r="B11">
         <v>38.90583</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>31.41636268249814</v>
+        <v>30.94302026386194</v>
       </c>
       <c r="B12">
         <v>38.61417</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>30.45023587739538</v>
+        <v>29.91275316734007</v>
       </c>
       <c r="B13">
         <v>38.59444</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>29.40334891367053</v>
+        <v>28.95792887821079</v>
       </c>
       <c r="B14">
         <v>38.984718</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>30.51504106501461</v>
+        <v>30.03242767696752</v>
       </c>
       <c r="B15">
         <v>38.595001</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>31.63372719540621</v>
+        <v>31.10942002873661</v>
       </c>
       <c r="B16">
         <v>38.840279</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>30.83847980419559</v>
+        <v>30.40911177084013</v>
       </c>
       <c r="B17">
         <v>38.686668</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>31.92329199693267</v>
+        <v>31.83194518706397</v>
       </c>
       <c r="B18">
         <v>38.9</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>30.35971470300496</v>
+        <v>29.71597509756418</v>
       </c>
       <c r="B19">
         <v>38.4333</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>33.94570520604828</v>
+        <v>33.38051751985122</v>
       </c>
       <c r="B20">
         <v>38.424999</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>34.53007716989742</v>
+        <v>34.19947756823702</v>
       </c>
       <c r="B21">
         <v>37.866667</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>32.71408652629262</v>
+        <v>32.705070241673</v>
       </c>
       <c r="B22">
         <v>38.423889</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>33.23243121765172</v>
+        <v>32.84937058553436</v>
       </c>
       <c r="B23">
         <v>38.005562</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>31.06830883148723</v>
+        <v>30.19656195658968</v>
       </c>
       <c r="B24">
         <v>38.91917</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>29.13501919046409</v>
+        <v>28.6829266342375</v>
       </c>
       <c r="B25">
         <v>40.19611</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>32.94952389222252</v>
+        <v>32.95561253837154</v>
       </c>
       <c r="B26">
         <v>38.633333</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>33.45728883261113</v>
+        <v>32.73119574936725</v>
       </c>
       <c r="B27">
         <v>38.508888</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>27.49373024871969</v>
+        <v>26.96346956047547</v>
       </c>
       <c r="B28">
         <v>38.873611</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>30.91031354429406</v>
+        <v>30.33752496365764</v>
       </c>
       <c r="B29">
         <v>38.3333</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>31.55593906915539</v>
+        <v>30.56437778430638</v>
       </c>
       <c r="B30">
         <v>37.65</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>28.15172880992681</v>
+        <v>27.81212726851681</v>
       </c>
       <c r="B31">
         <v>37.666667</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>30.27452754901839</v>
+        <v>29.99487038529535</v>
       </c>
       <c r="B32">
         <v>38.85722</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>30.84339287438374</v>
+        <v>30.57201303535926</v>
       </c>
       <c r="B33">
         <v>38.996109</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>42.44282991110783</v>
+        <v>41.72071570570485</v>
       </c>
       <c r="B34">
         <v>38.752499</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>34.01745279957286</v>
+        <v>32.92239463034049</v>
       </c>
       <c r="B35">
         <v>40.95</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>35.21458380264269</v>
+        <v>34.23274578395282</v>
       </c>
       <c r="B36">
         <v>41.355831</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>35.74116977904229</v>
+        <v>34.60699186455792</v>
       </c>
       <c r="B37">
         <v>41.145828</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>43.81961093257918</v>
+        <v>43.66557507453025</v>
       </c>
       <c r="B38">
         <v>37.083333</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>40.6168012529766</v>
+        <v>40.73554219731954</v>
       </c>
       <c r="B39">
         <v>36.916667</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>30.18484678740178</v>
+        <v>29.52816981377941</v>
       </c>
       <c r="B40">
         <v>38.45</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>34.99164066985301</v>
+        <v>34.64357190382918</v>
       </c>
       <c r="B41">
         <v>37.766667</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>30.25381142608502</v>
+        <v>29.80037181825143</v>
       </c>
       <c r="B42">
         <v>35.55</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>29.24661683559858</v>
+        <v>28.4844132165324</v>
       </c>
       <c r="B43">
         <v>36.2</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>29.24661683559858</v>
+        <v>28.4844132165324</v>
       </c>
       <c r="B44">
         <v>36.216667</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>30.9248992974269</v>
+        <v>30.23124821012648</v>
       </c>
       <c r="B45">
         <v>38.35</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>36.96601597912422</v>
+        <v>36.49038104255334</v>
       </c>
       <c r="B46">
         <v>37.016667</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>27.93644904381185</v>
+        <v>27.43856292205314</v>
       </c>
       <c r="B47">
         <v>34.886389</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>44.27322330463594</v>
+        <v>44.1584748242341</v>
       </c>
       <c r="B48">
         <v>44.4</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>43.70680974227426</v>
+        <v>43.9892040746833</v>
       </c>
       <c r="B49">
         <v>44.416667</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>41.31342906069248</v>
+        <v>41.03669290310391</v>
       </c>
       <c r="B50">
         <v>44.583333</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>42.92356860360433</v>
+        <v>42.09954649982748</v>
       </c>
       <c r="B51">
         <v>44.857451</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>30.92128970738597</v>
+        <v>30.2703063154185</v>
       </c>
       <c r="B52">
         <v>38.3833</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>32.37317167833184</v>
+        <v>32.29098006109415</v>
       </c>
       <c r="B53">
         <v>36.9</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>36.16285802381057</v>
+        <v>36.21914076222205</v>
       </c>
       <c r="B54">
         <v>36.866667</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>39.18443011902108</v>
+        <v>39.93441865806429</v>
       </c>
       <c r="B55">
         <v>37.75</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>34.52977593226645</v>
+        <v>34.25115086985083</v>
       </c>
       <c r="B56">
         <v>36.9</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>32.94660580865083</v>
+        <v>32.78389996328973</v>
       </c>
       <c r="B57">
         <v>42.31878</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>40.27060216140679</v>
+        <v>39.4103126965496</v>
       </c>
       <c r="B58">
         <v>41.41623</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>33.41700238569283</v>
+        <v>33.11641942519</v>
       </c>
       <c r="B59">
         <v>38.3167</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>32.92836555441174</v>
+        <v>32.84320149577438</v>
       </c>
       <c r="B60">
         <v>42.23333</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>45.15495702205304</v>
+        <v>44.49340113485249</v>
       </c>
       <c r="B61">
         <v>41.41667</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>36.57304077142268</v>
+        <v>36.27850677550196</v>
       </c>
       <c r="B62">
         <v>42.31667</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>35.98808752048127</v>
+        <v>35.62073970375137</v>
       </c>
       <c r="B63">
         <v>42.38333</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>36.57304077142268</v>
+        <v>36.3118434668766</v>
       </c>
       <c r="B64">
         <v>42.31176</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>35.98808752048127</v>
+        <v>35.62073970375137</v>
       </c>
       <c r="B65">
         <v>42.38333</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>35.39049961053982</v>
+        <v>35.09394462158831</v>
       </c>
       <c r="B66">
         <v>42.40135</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>36.58940221876324</v>
+        <v>36.20265852298564</v>
       </c>
       <c r="B67">
         <v>41.76724</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>38.41357083610447</v>
+        <v>37.98208872097278</v>
       </c>
       <c r="B68">
         <v>41.71667</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>36.2457242447035</v>
+        <v>35.33687841158647</v>
       </c>
       <c r="B69">
         <v>41.71667</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>33.9144935955856</v>
+        <v>33.99602040234923</v>
       </c>
       <c r="B70">
         <v>38.4167</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>36.28270831069913</v>
+        <v>35.47460020949593</v>
       </c>
       <c r="B71">
         <v>41.83333</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>31.64655851921497</v>
+        <v>31.70946777228752</v>
       </c>
       <c r="B72">
         <v>38.0833</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>36.1437357747696</v>
+        <v>36.05395229050011</v>
       </c>
       <c r="B73">
         <v>37.55</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>25.90329269461142</v>
+        <v>26.09130724120968</v>
       </c>
       <c r="B74">
         <v>36.75</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>22.83607408081353</v>
+        <v>22.38199958006332</v>
       </c>
       <c r="B75">
         <v>36.45</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>26.23941593349183</v>
+        <v>26.26000976497614</v>
       </c>
       <c r="B76">
         <v>36.25</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>26.88497666421631</v>
+        <v>26.27174635072677</v>
       </c>
       <c r="B77">
         <v>36.2833</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>23.94964536436677</v>
+        <v>23.24675614727363</v>
       </c>
       <c r="B78">
         <v>36.3</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>31.81393372816149</v>
+        <v>31.5350699018783</v>
       </c>
       <c r="B79">
         <v>36.45</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>44.65166088118792</v>
+        <v>44.68069662428358</v>
       </c>
       <c r="B80">
         <v>37.71666667</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>30.11278084632002</v>
+        <v>30.38117576704381</v>
       </c>
       <c r="B81">
         <v>37.05</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>27.53501586695469</v>
+        <v>27.53881510037932</v>
       </c>
       <c r="B82">
         <v>36.85</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>36.25945975796822</v>
+        <v>36.08083878181125</v>
       </c>
       <c r="B83">
         <v>45.9167</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>31.11314662392238</v>
+        <v>30.698875770738</v>
       </c>
       <c r="B84">
         <v>34.9018</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>29.05776134409829</v>
+        <v>28.7606315934851</v>
       </c>
       <c r="B85">
         <v>34.9056</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>30.83074091774716</v>
+        <v>30.93269215684687</v>
       </c>
       <c r="B86">
         <v>35.01944</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>29.12895322328298</v>
+        <v>29.144477395031</v>
       </c>
       <c r="B87">
         <v>36.1</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>31.6477010283119</v>
+        <v>31.52873814027556</v>
       </c>
       <c r="B88">
         <v>34.96417</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>29.12895322328298</v>
+        <v>29.144477395031</v>
       </c>
       <c r="B89">
         <v>36.1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>28.49146108609728</v>
+        <v>28.49366505513366</v>
       </c>
       <c r="B90">
         <v>34.90528</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>32.95470594521926</v>
+        <v>32.46706172493646</v>
       </c>
       <c r="B91">
         <v>45.5</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>29.81576387693608</v>
+        <v>29.6556884562857</v>
       </c>
       <c r="B92">
         <v>34.8925</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>30.25666690186343</v>
+        <v>30.12439077853089</v>
       </c>
       <c r="B93">
         <v>34.87556</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>28.44416364058279</v>
+        <v>27.866027082696</v>
       </c>
       <c r="B94">
         <v>36.3</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>44.81758864734007</v>
+        <v>44.82784790403825</v>
       </c>
       <c r="B95">
         <v>44.40416667</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>32.46126038683983</v>
+        <v>32.76414416150557</v>
       </c>
       <c r="B96">
         <v>37.5833</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>36.83080489911729</v>
+        <v>36.55468375648449</v>
       </c>
       <c r="B97">
         <v>37.7</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>38.84361343604306</v>
+        <v>39.04476701844179</v>
       </c>
       <c r="B98">
         <v>37.9333</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>36.4741035755453</v>
+        <v>36.71985713273727</v>
       </c>
       <c r="B99">
         <v>36.1</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>33.34600964988073</v>
+        <v>33.19543466713402</v>
       </c>
       <c r="B100">
         <v>36.1333</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>29.41199131365082</v>
+        <v>28.49846029241605</v>
       </c>
       <c r="B101">
         <v>40.6</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>33.63295248869414</v>
+        <v>33.17558874374517</v>
       </c>
       <c r="B102">
         <v>37.4333</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>28.53132246861703</v>
+        <v>27.96868203760634</v>
       </c>
       <c r="B103">
         <v>36.9167</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>30.40604572830008</v>
+        <v>29.94688910491598</v>
       </c>
       <c r="B104">
         <v>37.0667</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>30.40604572830008</v>
+        <v>30.06541053120285</v>
       </c>
       <c r="B105">
         <v>37.0833</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>34.92865400856054</v>
+        <v>34.45313732834059</v>
       </c>
       <c r="B106">
         <v>37.6</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>36.66621686672232</v>
+        <v>36.8050449721384</v>
       </c>
       <c r="B107">
         <v>37.6</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>44.08352997837092</v>
+        <v>43.84518774599506</v>
       </c>
       <c r="B108">
         <v>36.85</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>47.99602934490511</v>
+        <v>47.8982739386887</v>
       </c>
       <c r="B109">
         <v>37.5</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>37.71401157906581</v>
+        <v>37.9265069516936</v>
       </c>
       <c r="B110">
         <v>37.1667</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>47.8265949116559</v>
+        <v>47.37248431600931</v>
       </c>
       <c r="B111">
         <v>37.0444</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>28.6156390676984</v>
+        <v>28.38019801458973</v>
       </c>
       <c r="B112">
         <v>43.3333</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>57.8977679525498</v>
+        <v>58.19968004428806</v>
       </c>
       <c r="B113">
         <v>36.823</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>25.50494173836184</v>
+        <v>25.00015500961675</v>
       </c>
       <c r="B114">
         <v>43.44861</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>36.32478943956212</v>
+        <v>35.08158199778886</v>
       </c>
       <c r="B115">
         <v>40.850177</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>31.77202118182183</v>
+        <v>31.23996552931946</v>
       </c>
       <c r="B116">
         <v>43.392945</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>30.02849706096919</v>
+        <v>29.52818907215047</v>
       </c>
       <c r="B117">
         <v>43.758997</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>30.29216503225651</v>
+        <v>29.89104054142303</v>
       </c>
       <c r="B118">
         <v>43.433342</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>24.48320566195236</v>
+        <v>24.4747841757086</v>
       </c>
       <c r="B119">
         <v>43.323891</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>30.97435985909004</v>
+        <v>30.53468362974007</v>
       </c>
       <c r="B120">
         <v>43.164774</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>34.64335023543783</v>
+        <v>34.09632319307723</v>
       </c>
       <c r="B121">
         <v>42.514999</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>35.73544360395316</v>
+        <v>35.38018482805924</v>
       </c>
       <c r="B122">
         <v>42.514999</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>29.53845604860182</v>
+        <v>29.95977114338903</v>
       </c>
       <c r="B123">
         <v>42.5833</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>22.15125096988831</v>
+        <v>22.3457311026954</v>
       </c>
       <c r="B124">
         <v>39.53056</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>27.6077397166807</v>
+        <v>26.93561847935005</v>
       </c>
       <c r="B125">
         <v>38.701672</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>38.99000572752945</v>
+        <v>38.41111145691238</v>
       </c>
       <c r="B126">
         <v>37.82258</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>26.57901448213752</v>
+        <v>26.28406729385848</v>
       </c>
       <c r="B127">
         <v>38.779442</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>22.79974782746568</v>
+        <v>23.04740590696979</v>
       </c>
       <c r="B128">
         <v>39.15</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>39.12646416158898</v>
+        <v>38.73313114888576</v>
       </c>
       <c r="B129">
         <v>38.32688</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>28.86090482851116</v>
+        <v>27.75234469578992</v>
       </c>
       <c r="B130">
         <v>39.640282</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>26.5436090211444</v>
+        <v>25.80624729261636</v>
       </c>
       <c r="B131">
         <v>39.256672</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>41.39208206736042</v>
+        <v>40.9526520944929</v>
       </c>
       <c r="B132">
         <v>40.063611</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>31.53527373396483</v>
+        <v>31.34415480767622</v>
       </c>
       <c r="B133">
         <v>39.758888</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>27.14622224158676</v>
+        <v>27.17619006284426</v>
       </c>
       <c r="B134">
         <v>39.339722</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>29.02166573048674</v>
+        <v>28.50797516252767</v>
       </c>
       <c r="B135">
         <v>39.35944</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>26.86219920608668</v>
+        <v>25.63616800616132</v>
       </c>
       <c r="B136">
         <v>39.10083</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>27.86167534501905</v>
+        <v>27.60046885727439</v>
       </c>
       <c r="B137">
         <v>39.301941</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>29.15786635927963</v>
+        <v>28.60957792164473</v>
       </c>
       <c r="B138">
         <v>39.212502</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>28.95956718225318</v>
+        <v>28.42220456381585</v>
       </c>
       <c r="B139">
         <v>39.312778</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>28.11836591785035</v>
+        <v>27.88877733467381</v>
       </c>
       <c r="B140">
         <v>39.321941</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>28.11836591785035</v>
+        <v>27.88877733467381</v>
       </c>
       <c r="B141">
         <v>39.326111</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>34.44893746413237</v>
+        <v>34.18676442408626</v>
       </c>
       <c r="B142">
         <v>42.5147</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>29.03664015959953</v>
+        <v>28.43948830374666</v>
       </c>
       <c r="B143">
         <v>39.294998</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>31.84327598824705</v>
+        <v>31.0185001118538</v>
       </c>
       <c r="B144">
         <v>39.372219</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>30.05591204650633</v>
+        <v>29.15649152816722</v>
       </c>
       <c r="B145">
         <v>39.331108</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>28.81976118285645</v>
+        <v>28.10301956853821</v>
       </c>
       <c r="B146">
         <v>38.808331</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>29.06042648282589</v>
+        <v>28.05121451142776</v>
       </c>
       <c r="B147">
         <v>38.786942</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>28.40199481814534</v>
+        <v>27.89232398645417</v>
       </c>
       <c r="B148">
         <v>38.665001</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>28.94306936214842</v>
+        <v>28.44787209079854</v>
       </c>
       <c r="B149">
         <v>38.728329</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>36.77300531963482</v>
+        <v>36.43208178152436</v>
       </c>
       <c r="B150">
         <v>39.362221</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>33.33166196114692</v>
+        <v>32.71835299927252</v>
       </c>
       <c r="B151">
         <v>40.283333</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>31.12242604862519</v>
+        <v>30.17513453485475</v>
       </c>
       <c r="B152">
         <v>38.965832</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>59.73892586015806</v>
+        <v>59.50270857148112</v>
       </c>
       <c r="B153">
         <v>38.7775</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>44.81770938970258</v>
+        <v>44.92957435083864</v>
       </c>
       <c r="B154">
         <v>36.74167</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>53.28471277246625</v>
+        <v>53.37825336452475</v>
       </c>
       <c r="B155">
         <v>37.4744</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>46.33079770074021</v>
+        <v>46.18016354837128</v>
       </c>
       <c r="B156">
         <v>37.1167</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>39.49592230979827</v>
+        <v>39.3815694894216</v>
       </c>
       <c r="B157">
         <v>36.75</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>39.29635340331728</v>
+        <v>39.03058335722814</v>
       </c>
       <c r="B158">
         <v>36.70222</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>43.36737213191878</v>
+        <v>43.36306988367645</v>
       </c>
       <c r="B159">
         <v>37.083333</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>30.97688786382223</v>
+        <v>30.26964797959607</v>
       </c>
       <c r="B160">
         <v>39.15</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>55.78880757785185</v>
+        <v>54.90700885947155</v>
       </c>
       <c r="B161">
         <v>38.8</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>55.9616256971392</v>
+        <v>54.80267684161902</v>
       </c>
       <c r="B162">
         <v>38.77</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>55.9616256971392</v>
+        <v>54.80267684161902</v>
       </c>
       <c r="B163">
         <v>38.776</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>58.13825318030712</v>
+        <v>57.41574101930586</v>
       </c>
       <c r="B164">
         <v>38.78</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>44.81770938970258</v>
+        <v>44.92957435083864</v>
       </c>
       <c r="B165">
         <v>36.746</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>39.04334879739089</v>
+        <v>38.81249597992206</v>
       </c>
       <c r="B166">
         <v>36.625</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>57.91957876822049</v>
+        <v>57.44674666402013</v>
       </c>
       <c r="B167">
         <v>38.74</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>58.09230951025179</v>
+        <v>57.66053051865985</v>
       </c>
       <c r="B168">
         <v>38.75583</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>43.90848893684098</v>
+        <v>43.33102635469636</v>
       </c>
       <c r="B169">
         <v>42.76369</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>45.78084138699634</v>
+        <v>44.69182988799488</v>
       </c>
       <c r="B170">
         <v>42.85431</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>45.76108688380091</v>
+        <v>44.78771833710897</v>
       </c>
       <c r="B171">
         <v>42.94437</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>45.95219887946993</v>
+        <v>44.88003526657259</v>
       </c>
       <c r="B172">
         <v>42.85445</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>47.99860919808232</v>
+        <v>47.03639508855992</v>
       </c>
       <c r="B173">
         <v>42.89858</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>44.57791266964442</v>
+        <v>43.97942963899169</v>
       </c>
       <c r="B174">
         <v>42.96808</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>34.99182302547207</v>
+        <v>33.81966576762196</v>
       </c>
       <c r="B175">
         <v>43.46493</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>35.10618741765114</v>
+        <v>34.02005598962782</v>
       </c>
       <c r="B176">
         <v>43.17554</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>36.11177787425657</v>
+        <v>35.18666986810453</v>
       </c>
       <c r="B177">
         <v>43.17218</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>58.049020884184</v>
+        <v>57.31721502648371</v>
       </c>
       <c r="B178">
         <v>38.74028</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>58.39917211077096</v>
+        <v>57.87853826041664</v>
       </c>
       <c r="B179">
         <v>38.7333</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>60.55312093959694</v>
+        <v>59.76718685404156</v>
       </c>
       <c r="B180">
         <v>38.983333</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>55.83314181285638</v>
+        <v>55.86816358329498</v>
       </c>
       <c r="B181">
         <v>37.4167</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>49.04922414057111</v>
+        <v>48.42098923713009</v>
       </c>
       <c r="B182">
         <v>40.8767</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>57.25137809509976</v>
+        <v>56.45662640032086</v>
       </c>
       <c r="B183">
         <v>38.51</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>58.13532921084908</v>
+        <v>57.64889148407417</v>
       </c>
       <c r="B184">
         <v>39.95</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>59.42938399793454</v>
+        <v>58.6014039236214</v>
       </c>
       <c r="B185">
         <v>38.78</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>57.90745681867077</v>
+        <v>56.93571890156973</v>
       </c>
       <c r="B186">
         <v>39.95</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>57.91080780441276</v>
+        <v>56.89920587330529</v>
       </c>
       <c r="B187">
         <v>39.96</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>57.91080780441276</v>
+        <v>56.89920587330529</v>
       </c>
       <c r="B188">
         <v>39.96</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>47.68710921427794</v>
+        <v>47.16001812834755</v>
       </c>
       <c r="B189">
         <v>39.95</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>47.67272964971747</v>
+        <v>47.13361682290856</v>
       </c>
       <c r="B190">
         <v>39.96</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>57.97437511720786</v>
+        <v>56.96737963350978</v>
       </c>
       <c r="B191">
         <v>39.924</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>56.54274933574892</v>
+        <v>56.4577847455208</v>
       </c>
       <c r="B192">
         <v>41.0386</v>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>50.36339839924692</v>
+        <v>50.2276009464743</v>
       </c>
       <c r="B193">
         <v>40.05</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>59.51881396209719</v>
+        <v>59.06962267599066</v>
       </c>
       <c r="B194">
         <v>41.04</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>54.53037721147303</v>
+        <v>54.56841875379877</v>
       </c>
       <c r="B195">
         <v>40.9936</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>48.81813401935194</v>
+        <v>48.9688940061024</v>
       </c>
       <c r="B196">
         <v>40.06</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>58.31725755516955</v>
+        <v>57.59106224576774</v>
       </c>
       <c r="B197">
         <v>40.05</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>60.7885575957271</v>
+        <v>60.35939825219619</v>
       </c>
       <c r="B198">
         <v>40.05</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>49.06851860571216</v>
+        <v>49.05794544313155</v>
       </c>
       <c r="B199">
         <v>40.431</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>49.27358459575048</v>
+        <v>49.13691720671689</v>
       </c>
       <c r="B200">
         <v>40.404</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>60.85246158054974</v>
+        <v>60.47395204894779</v>
       </c>
       <c r="B201">
         <v>38.3333</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>51.80390940466232</v>
+        <v>51.69092641555905</v>
       </c>
       <c r="B202">
         <v>41.7148</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>49.92345215023374</v>
+        <v>50.04452306830447</v>
       </c>
       <c r="B203">
         <v>40.5264</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>47.25666291117912</v>
+        <v>47.35152876649434</v>
       </c>
       <c r="B204">
         <v>42.61</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>47.25481013322599</v>
+        <v>47.31467532833719</v>
       </c>
       <c r="B205">
         <v>42.616005</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>45.09253440064698</v>
+        <v>45.42982230080933</v>
       </c>
       <c r="B206">
         <v>37.249</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>61.11301618684425</v>
+        <v>60.84633135604062</v>
       </c>
       <c r="B207">
         <v>39.9786</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>51.60659792600833</v>
+        <v>51.7191298581552</v>
       </c>
       <c r="B208">
         <v>38.2337</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>56.96447791096729</v>
+        <v>57.32958316541982</v>
       </c>
       <c r="B209">
         <v>36.861</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>56.96447791096729</v>
+        <v>57.32958316541982</v>
       </c>
       <c r="B210">
         <v>36.87</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>42.33692654098614</v>
+        <v>42.69155355455301</v>
       </c>
       <c r="B211">
         <v>37.24</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>39.45733492363053</v>
+        <v>39.68889525860313</v>
       </c>
       <c r="B212">
         <v>36.88</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>56.50267323679948</v>
+        <v>56.44199699885853</v>
       </c>
       <c r="B213">
         <v>37.9007</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>56.5821795025867</v>
+        <v>56.54310043754217</v>
       </c>
       <c r="B214">
         <v>37.9007</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>57.94038850495142</v>
+        <v>57.84275770679847</v>
       </c>
       <c r="B215">
         <v>36.807657</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>51.23336062603823</v>
+        <v>51.30480092666553</v>
       </c>
       <c r="B216">
         <v>37.68</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>47.60271099238391</v>
+        <v>47.84758589282673</v>
       </c>
       <c r="B217">
         <v>37.26659</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>58.77651959591805</v>
+        <v>58.37653865319604</v>
       </c>
       <c r="B218">
         <v>41.1144</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>53.59076288283867</v>
+        <v>53.53243321566995</v>
       </c>
       <c r="B219">
         <v>37.751</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>50.20699052082249</v>
+        <v>50.09148960198571</v>
       </c>
       <c r="B220">
         <v>37.2667</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>41.80331267909896</v>
+        <v>42.07417227253831</v>
       </c>
       <c r="B221">
         <v>36.894</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>43.63232965980458</v>
+        <v>43.74375328794082</v>
       </c>
       <c r="B222">
         <v>36.876</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>62.42893067317608</v>
+        <v>62.71724464330776</v>
       </c>
       <c r="B223">
         <v>41.0222</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>62.45426955265044</v>
+        <v>62.71724464330776</v>
       </c>
       <c r="B224">
         <v>41.0313</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>53.762156759459</v>
+        <v>53.42770273589469</v>
       </c>
       <c r="B225">
         <v>37.72</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>51.77323768055549</v>
+        <v>51.69747121403203</v>
       </c>
       <c r="B226">
         <v>37.53</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>62.62972028473098</v>
+        <v>62.33372800396997</v>
       </c>
       <c r="B227">
         <v>37.3333</v>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>53.24327986359923</v>
+        <v>53.15028999061533</v>
       </c>
       <c r="B228">
         <v>37.44</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>48.67085559140858</v>
+        <v>48.82629530870138</v>
       </c>
       <c r="B229">
         <v>36.9674</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>67.36274546450986</v>
+        <v>67.15677995453538</v>
       </c>
       <c r="B230">
         <v>40.2551</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>49.66569958123058</v>
+        <v>49.99089432871607</v>
       </c>
       <c r="B231">
         <v>42.808</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>40.35234421584592</v>
+        <v>40.37920657100206</v>
       </c>
       <c r="B232">
         <v>36.663</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>52.37457073190209</v>
+        <v>52.68579236598369</v>
       </c>
       <c r="B233">
         <v>42.825</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>41.19522872393231</v>
+        <v>41.08218519533396</v>
       </c>
       <c r="B234">
         <v>36.741</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>39.05297786775568</v>
+        <v>38.81249597992206</v>
       </c>
       <c r="B235">
         <v>36.632</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>49.29831493575382</v>
+        <v>49.02782201950298</v>
       </c>
       <c r="B236">
         <v>37.19472</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>39.15578346707016</v>
+        <v>39.14052040212086</v>
       </c>
       <c r="B237">
         <v>36.705</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>49.82576600982152</v>
+        <v>49.85292754885188</v>
       </c>
       <c r="B238">
         <v>41.306</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>47.56189635083339</v>
+        <v>48.07974743843954</v>
       </c>
       <c r="B239">
         <v>41.53</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>46.21509315969094</v>
+        <v>46.16177640978173</v>
       </c>
       <c r="B240">
         <v>41.5336</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>48.16953219376698</v>
+        <v>47.9039912183222</v>
       </c>
       <c r="B241">
         <v>41.84289</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>48.5885751481192</v>
+        <v>48.43907158832387</v>
       </c>
       <c r="B242">
         <v>41.8167</v>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>49.44186312651038</v>
+        <v>49.43231321870029</v>
       </c>
       <c r="B243">
         <v>41.759909</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>45.39521239411069</v>
+        <v>45.76544378530297</v>
       </c>
       <c r="B244">
         <v>40.4112</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>42.6830316065805</v>
+        <v>42.83770188842841</v>
       </c>
       <c r="B245">
         <v>39.3167</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>43.20914364992191</v>
+        <v>43.19859407773509</v>
       </c>
       <c r="B246">
         <v>37.15</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>48.65710599093241</v>
+        <v>47.89295583385979</v>
       </c>
       <c r="B247">
         <v>40.61</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>49.05335396288831</v>
+        <v>48.34951882306324</v>
       </c>
       <c r="B248">
         <v>40.85</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>52.42401475233841</v>
+        <v>52.33650202191829</v>
       </c>
       <c r="B249">
         <v>40.94</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>50.3251050176439</v>
+        <v>49.93446401732845</v>
       </c>
       <c r="B250">
         <v>42.58</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>47.13486197472952</v>
+        <v>46.77123860512786</v>
       </c>
       <c r="B251">
         <v>47.4894</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>48.04785050366876</v>
+        <v>48.08149803567116</v>
       </c>
       <c r="B252">
         <v>41.31</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>46.60125061981212</v>
+        <v>46.36991014488156</v>
       </c>
       <c r="B253">
         <v>41.31</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>53.72472954594809</v>
+        <v>53.30028761502339</v>
       </c>
       <c r="B254">
         <v>37.9667</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>44.84262151703571</v>
+        <v>43.95761427011603</v>
       </c>
       <c r="B255">
         <v>44.5576</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>45.82354783194336</v>
+        <v>45.31583790075564</v>
       </c>
       <c r="B256">
         <v>45.72929</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>39.1056639896301</v>
+        <v>38.69512745463859</v>
       </c>
       <c r="B257">
         <v>42.411119</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>35.42515749081347</v>
+        <v>34.779955722061</v>
       </c>
       <c r="B258">
         <v>43.148646</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>34.69462683646787</v>
+        <v>33.88258678233457</v>
       </c>
       <c r="B259">
         <v>43.120632</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>36.08825943763619</v>
+        <v>34.9587446843025</v>
       </c>
       <c r="B260">
         <v>42.9473</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>39.86346731195214</v>
+        <v>39.06495515917447</v>
       </c>
       <c r="B261">
         <v>36.771932</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>42.31270405869822</v>
+        <v>40.96605500317197</v>
       </c>
       <c r="B262">
         <v>38.106939</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>48.0997835800631</v>
+        <v>47.78767197630771</v>
       </c>
       <c r="B263">
         <v>42.5261</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>51.60659792600833</v>
+        <v>51.7191298581552</v>
       </c>
       <c r="B264">
         <v>38.2461</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>29.00514084519805</v>
+        <v>27.12705232947898</v>
       </c>
       <c r="B265">
         <v>43.957236</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>36.22893884628812</v>
+        <v>35.64705923068961</v>
       </c>
       <c r="B266">
         <v>40.666577</v>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>34.00899673268007</v>
+        <v>33.36306070821831</v>
       </c>
       <c r="B267">
         <v>40.783333</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>45.92902704901584</v>
+        <v>45.59289694741938</v>
       </c>
       <c r="B268">
         <v>45.73047</v>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>47.36587107273031</v>
+        <v>47.28161015180117</v>
       </c>
       <c r="B269">
         <v>47.4275</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>45.27869490377</v>
+        <v>45.2429260979365</v>
       </c>
       <c r="B270">
         <v>46.7911</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>46.35116635555119</v>
+        <v>46.23875182143125</v>
       </c>
       <c r="B271">
         <v>46.6307</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>46.4828610632791</v>
+        <v>46.30107346804082</v>
       </c>
       <c r="B272">
         <v>47.3929</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>56.56275779691732</v>
+        <v>56.54310043754217</v>
       </c>
       <c r="B273">
         <v>37.9083</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>47.30748227186547</v>
+        <v>46.47389255453997</v>
       </c>
       <c r="B274">
         <v>42.58263</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>43.5423062915489</v>
+        <v>43.24553890824717</v>
       </c>
       <c r="B275">
         <v>42.651132</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>48.14177392317314</v>
+        <v>48.12595643221572</v>
       </c>
       <c r="B276">
         <v>46.6907</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277">
-        <v>47.13248911103601</v>
+        <v>46.82452871580179</v>
       </c>
       <c r="B277">
         <v>42.65</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>48.65359439093049</v>
+        <v>48.53849566683441</v>
       </c>
       <c r="B278">
         <v>42.6742</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>47.94071461186411</v>
+        <v>47.33610945867524</v>
       </c>
       <c r="B279">
         <v>47.4353</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280">
-        <v>47.86585513986131</v>
+        <v>47.20761061110059</v>
       </c>
       <c r="B280">
         <v>47.3976</v>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>44.36980593362625</v>
+        <v>43.17844067306511</v>
       </c>
       <c r="B281">
         <v>42.94423</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>48.80705122625263</v>
+        <v>48.62687275368489</v>
       </c>
       <c r="B282">
         <v>47.1748</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283">
-        <v>28.26596966123289</v>
+        <v>27.46790637858321</v>
       </c>
       <c r="B283">
         <v>38.33713</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>28.69219187369691</v>
+        <v>27.64859071775856</v>
       </c>
       <c r="B284">
         <v>39.5</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>33.40117872481007</v>
+        <v>33.14768721983815</v>
       </c>
       <c r="B285">
         <v>40.233333</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
-        <v>28.496101746379</v>
+        <v>27.25795633556151</v>
       </c>
       <c r="B286">
         <v>39.707218</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>28.99596535721121</v>
+        <v>28.59685166704872</v>
       </c>
       <c r="B287">
         <v>39.165829</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>34.46709539535473</v>
+        <v>33.59945117651083</v>
       </c>
       <c r="B288">
         <v>40.114719</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289">
-        <v>32.35108649493243</v>
+        <v>31.78316780675595</v>
       </c>
       <c r="B289">
         <v>40.299999</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
-        <v>32.05930354331653</v>
+        <v>31.71292035574199</v>
       </c>
       <c r="B290">
         <v>40.103889</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>31.62639792033184</v>
+        <v>30.95021544402022</v>
       </c>
       <c r="B291">
         <v>40.193329</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>33.31558328083445</v>
+        <v>32.6077171912448</v>
       </c>
       <c r="B292">
         <v>39.852219</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>51.46151069115065</v>
+        <v>50.83187698735503</v>
       </c>
       <c r="B293">
         <v>37.3</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>31.34609940954877</v>
+        <v>30.50163367183309</v>
       </c>
       <c r="B294">
         <v>40.28611</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295">
-        <v>31.68471616015836</v>
+        <v>30.80163329547099</v>
       </c>
       <c r="B295">
         <v>40.177502</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>44.01018376629902</v>
+        <v>43.74805929373909</v>
       </c>
       <c r="B296">
         <v>40.07917</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>30.66820843259533</v>
+        <v>30.18845236891404</v>
       </c>
       <c r="B297">
         <v>40.130001</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
-        <v>45.94818606552128</v>
+        <v>44.88505896056289</v>
       </c>
       <c r="B298">
         <v>40.283329</v>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>46.32521755549622</v>
+        <v>45.36551444910052</v>
       </c>
       <c r="B299">
         <v>40.291111</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>44.05351738806299</v>
+        <v>43.33651545283213</v>
       </c>
       <c r="B300">
         <v>40.18417</v>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>34.75799344719584</v>
+        <v>33.8461704969828</v>
       </c>
       <c r="B301">
         <v>40.442219</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>29.2797465724443</v>
+        <v>28.60475222489804</v>
       </c>
       <c r="B302">
         <v>38.625</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>31.1375854273514</v>
+        <v>30.59145427402318</v>
       </c>
       <c r="B303">
         <v>40.223888</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>57.4120781857369</v>
+        <v>57.23524825224595</v>
       </c>
       <c r="B304">
         <v>36.9833</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>33.33166196114692</v>
+        <v>32.71835299927252</v>
       </c>
       <c r="B305">
         <v>40.29361</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>48.51615023252536</v>
+        <v>47.48311674449101</v>
       </c>
       <c r="B306">
         <v>40.483891</v>
@@ -3754,7 +3754,7 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307">
-        <v>41.87522758601258</v>
+        <v>41.32259621886897</v>
       </c>
       <c r="B307">
         <v>39.708611</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>34.9183199187737</v>
+        <v>33.82963587915625</v>
       </c>
       <c r="B308">
         <v>40.298328</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>36.01868037437698</v>
+        <v>34.79132847089247</v>
       </c>
       <c r="B309">
         <v>40.633333</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310">
-        <v>33.96577561988987</v>
+        <v>33.21836995355621</v>
       </c>
       <c r="B310">
         <v>38.944439</v>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311">
-        <v>33.20729842910619</v>
+        <v>32.52146486314962</v>
       </c>
       <c r="B311">
         <v>38.85194</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312">
-        <v>42.71436777457144</v>
+        <v>42.42997900963694</v>
       </c>
       <c r="B312">
         <v>40.735001</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313">
-        <v>40.70978621634556</v>
+        <v>40.62667179505451</v>
       </c>
       <c r="B313">
         <v>36.95</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314">
-        <v>32.94038970879505</v>
+        <v>32.0793151407627</v>
       </c>
       <c r="B314">
         <v>38.919441</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315">
-        <v>32.94038970879505</v>
+        <v>32.05764519354058</v>
       </c>
       <c r="B315">
         <v>38.923061</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316">
-        <v>33.14701728659517</v>
+        <v>32.29911602181467</v>
       </c>
       <c r="B316">
         <v>40.816667</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317">
-        <v>33.26093363952712</v>
+        <v>32.63871183260164</v>
       </c>
       <c r="B317">
         <v>39.665562</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
-        <v>35.54992290568497</v>
+        <v>34.68713056039271</v>
       </c>
       <c r="B318">
         <v>40.60194</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319">
-        <v>32.70268865456652</v>
+        <v>32.24662654152869</v>
       </c>
       <c r="B319">
         <v>38.9</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320">
-        <v>34.78187221376837</v>
+        <v>33.95442640070631</v>
       </c>
       <c r="B320">
         <v>40.493889</v>
@@ -3908,7 +3908,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>49.4433038801204</v>
+        <v>48.95505734540848</v>
       </c>
       <c r="B321">
         <v>37.2333</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
-        <v>31.61831421019418</v>
+        <v>31.54075500721947</v>
       </c>
       <c r="B322">
         <v>38.728062</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
-        <v>33.08126121254379</v>
+        <v>32.63003998913192</v>
       </c>
       <c r="B323">
         <v>38.56694</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
-        <v>37.30995862467009</v>
+        <v>36.72854792003213</v>
       </c>
       <c r="B324">
         <v>40.083333</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325">
-        <v>31.64681582059516</v>
+        <v>30.62013474558523</v>
       </c>
       <c r="B325">
         <v>39.798889</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326">
-        <v>30.87603152766413</v>
+        <v>30.02807755732388</v>
       </c>
       <c r="B326">
         <v>38.50528</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327">
-        <v>33.14997556736314</v>
+        <v>31.49866111339568</v>
       </c>
       <c r="B327">
         <v>39.900002</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
-        <v>34.0588405899313</v>
+        <v>33.02969060910739</v>
       </c>
       <c r="B328">
         <v>39.71944</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329">
-        <v>30.39466523442795</v>
+        <v>29.17642037227976</v>
       </c>
       <c r="B329">
         <v>38.419998</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>30.3928486560599</v>
+        <v>29.33061893404868</v>
       </c>
       <c r="B330">
         <v>37.96944</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
-        <v>32.39904587960407</v>
+        <v>30.86394463421217</v>
       </c>
       <c r="B331">
         <v>39.92889</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332">
-        <v>27.54758972360045</v>
+        <v>26.75855499590986</v>
       </c>
       <c r="B332">
         <v>40.03083</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333">
-        <v>31.75220411772672</v>
+        <v>31.68288700491408</v>
       </c>
       <c r="B333">
         <v>38.683333</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334">
-        <v>34.00706050980797</v>
+        <v>33.15839536063909</v>
       </c>
       <c r="B334">
         <v>40.093609</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335">
-        <v>36.9826244970556</v>
+        <v>36.03077084137579</v>
       </c>
       <c r="B335">
         <v>39.910278</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336">
-        <v>33.36081390695576</v>
+        <v>32.99124057467624</v>
       </c>
       <c r="B336">
         <v>38.059441</v>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>33.77352843916014</v>
+        <v>33.18319104875391</v>
       </c>
       <c r="B337">
         <v>38.03611</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>36.56115733233742</v>
+        <v>36.04818647097855</v>
       </c>
       <c r="B338">
         <v>39.98056</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>33.66716988773864</v>
+        <v>33.1029054459186</v>
       </c>
       <c r="B339">
         <v>37.980831</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>35.80317176791458</v>
+        <v>35.42646494196948</v>
       </c>
       <c r="B340">
         <v>39.92944</v>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>47.23296075105025</v>
+        <v>47.18379332198523</v>
       </c>
       <c r="B341">
         <v>37.25917</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>32.20153165693186</v>
+        <v>30.65957164464549</v>
       </c>
       <c r="B342">
         <v>39.895561</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
-        <v>41.70141256606385</v>
+        <v>42.03126825181698</v>
       </c>
       <c r="B343">
         <v>38.484169</v>
@@ -4161,7 +4161,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>31.59699715776531</v>
+        <v>31.35036607760908</v>
       </c>
       <c r="B344">
         <v>37.281391</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>34.2842658378334</v>
+        <v>33.51321029352184</v>
       </c>
       <c r="B345">
         <v>37.235561</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346">
-        <v>34.65834896416824</v>
+        <v>34.26635667191701</v>
       </c>
       <c r="B346">
         <v>38.95528</v>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>31.97732489078323</v>
+        <v>30.34041108854587</v>
       </c>
       <c r="B347">
         <v>39.762779</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>32.24923883087463</v>
+        <v>31.83326355675064</v>
       </c>
       <c r="B348">
         <v>37.288609</v>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349">
-        <v>35.93440337391468</v>
+        <v>35.42963180578625</v>
       </c>
       <c r="B349">
         <v>37.155281</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350">
-        <v>30.25070099749957</v>
+        <v>29.86121535493671</v>
       </c>
       <c r="B350">
         <v>38.478611</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
-        <v>44.31122550867032</v>
+        <v>43.59484960202039</v>
       </c>
       <c r="B351">
         <v>39.567501</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
-        <v>33.83500782516278</v>
+        <v>33.07922474902988</v>
       </c>
       <c r="B352">
         <v>38.3825</v>
@@ -4260,7 +4260,7 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>26.54638907590928</v>
+        <v>25.054647016583</v>
       </c>
       <c r="B353">
         <v>41.22361</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354">
-        <v>30.57689440315175</v>
+        <v>29.97481798284624</v>
       </c>
       <c r="B354">
         <v>40.733333</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>41.14159911913463</v>
+        <v>40.21851965565259</v>
       </c>
       <c r="B355">
         <v>41.285561</v>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>48.55756555874022</v>
+        <v>48.33196697893646</v>
       </c>
       <c r="B356">
         <v>38.512218</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>26.62743290293379</v>
+        <v>25.73615137293594</v>
       </c>
       <c r="B357">
         <v>40.51556</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>27.45185984835548</v>
+        <v>25.75798272202967</v>
       </c>
       <c r="B358">
         <v>40.983333</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>48.42168104307903</v>
+        <v>48.07652833885879</v>
       </c>
       <c r="B359">
         <v>42.3358</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>46.24196821059481</v>
+        <v>46.35605312081309</v>
       </c>
       <c r="B360">
         <v>37.26472</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>28.1905906011116</v>
+        <v>26.75528759227005</v>
       </c>
       <c r="B361">
         <v>41.037498</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>37.0534912989063</v>
+        <v>36.19409192807325</v>
       </c>
       <c r="B362">
         <v>38.208328</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>42.1371408473595</v>
+        <v>41.24223703417057</v>
       </c>
       <c r="B363">
         <v>41.282219</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>30.70084796938199</v>
+        <v>28.93821145183152</v>
       </c>
       <c r="B364">
         <v>41.341389</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>44.32302492053905</v>
+        <v>43.65038068307545</v>
       </c>
       <c r="B365">
         <v>41.1875</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>29.76378261241861</v>
+        <v>28.77186594040079</v>
       </c>
       <c r="B366">
         <v>41.38306</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367">
-        <v>29.58857303676562</v>
+        <v>28.31009765760091</v>
       </c>
       <c r="B367">
         <v>41.259171</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368">
-        <v>29.4947646168789</v>
+        <v>28.30525294166746</v>
       </c>
       <c r="B368">
         <v>41.150002</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369">
-        <v>32.69050651440358</v>
+        <v>31.59310196658356</v>
       </c>
       <c r="B369">
         <v>41.306938</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370">
-        <v>29.79655744895424</v>
+        <v>29.31230760987974</v>
       </c>
       <c r="B370">
         <v>41.109718</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371">
-        <v>41.54226273860663</v>
+        <v>40.68172213426135</v>
       </c>
       <c r="B371">
         <v>41.073059</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372">
-        <v>30.54122135857602</v>
+        <v>29.46066499574138</v>
       </c>
       <c r="B372">
         <v>41.100559</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373">
-        <v>46.12863555951209</v>
+        <v>45.84371563483739</v>
       </c>
       <c r="B373">
         <v>37.2231</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374">
-        <v>34.74193764943061</v>
+        <v>34.51808744333982</v>
       </c>
       <c r="B374">
         <v>38.654171</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375">
-        <v>32.59740426759481</v>
+        <v>31.18736032750805</v>
       </c>
       <c r="B375">
         <v>37.933333</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376">
-        <v>34.26074815623257</v>
+        <v>33.60789863776696</v>
       </c>
       <c r="B376">
         <v>38.63333</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377">
-        <v>33.2826202604419</v>
+        <v>33.40033837486851</v>
       </c>
       <c r="B377">
         <v>35.35</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378">
-        <v>30.49435226023127</v>
+        <v>29.78306758693691</v>
       </c>
       <c r="B378">
         <v>40.876389</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379">
-        <v>38.78658683520388</v>
+        <v>37.63585775761624</v>
       </c>
       <c r="B379">
         <v>41.362782</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380">
-        <v>30.62186977421454</v>
+        <v>29.79587027789066</v>
       </c>
       <c r="B380">
         <v>41.160278</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381">
-        <v>32.49255380412078</v>
+        <v>31.37890084213842</v>
       </c>
       <c r="B381">
         <v>41.118889</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382">
-        <v>36.28131357592623</v>
+        <v>35.60340471228355</v>
       </c>
       <c r="B382">
         <v>41.116669</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383">
-        <v>58.77651959591805</v>
+        <v>58.37653865319604</v>
       </c>
       <c r="B383">
         <v>41.1253</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384">
-        <v>33.25196650597515</v>
+        <v>32.10685311767095</v>
       </c>
       <c r="B384">
         <v>41.33083</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385">
-        <v>40.44477081156747</v>
+        <v>39.67504034173992</v>
       </c>
       <c r="B385">
         <v>37.133333</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386">
-        <v>31.90735837983062</v>
+        <v>30.81272645675521</v>
       </c>
       <c r="B386">
         <v>41.28833</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387">
-        <v>33.57911066851351</v>
+        <v>32.7861516500289</v>
       </c>
       <c r="B387">
         <v>41.058331</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388">
-        <v>34.17091450675095</v>
+        <v>33.28585102567156</v>
       </c>
       <c r="B388">
         <v>41.133888</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389">
-        <v>45.68139555739211</v>
+        <v>44.78969027447884</v>
       </c>
       <c r="B389">
         <v>40.967136</v>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390">
-        <v>34.9409494419596</v>
+        <v>34.04573997847631</v>
       </c>
       <c r="B390">
         <v>41.107498</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391">
-        <v>34.72635259498655</v>
+        <v>33.8154654423913</v>
       </c>
       <c r="B391">
         <v>41.14444</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392">
-        <v>33.22568731999809</v>
+        <v>32.1187023758204</v>
       </c>
       <c r="B392">
         <v>37.4</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393">
-        <v>44.43700791488604</v>
+        <v>43.71636627570405</v>
       </c>
       <c r="B393">
         <v>40.969719</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394">
-        <v>53.57627213333339</v>
+        <v>53.53243321566995</v>
       </c>
       <c r="B394">
         <v>37.7433</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395">
-        <v>32.01882986140826</v>
+        <v>30.94563551475734</v>
       </c>
       <c r="B395">
         <v>37.45</v>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396">
-        <v>33.36244170039768</v>
+        <v>32.46501267237826</v>
       </c>
       <c r="B396">
         <v>37.116667</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397">
-        <v>48.09870839271499</v>
+        <v>47.2789508741626</v>
       </c>
       <c r="B397">
         <v>41.17083</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398">
-        <v>37.95276165886878</v>
+        <v>37.28845389383894</v>
       </c>
       <c r="B398">
         <v>41.133333</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399">
-        <v>27.24259264104947</v>
+        <v>26.81945147079455</v>
       </c>
       <c r="B399">
         <v>35.15</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400">
-        <v>44.31206132542874</v>
+        <v>44.37732567108338</v>
       </c>
       <c r="B400">
         <v>41.016667</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401">
-        <v>35.69097632788851</v>
+        <v>34.79255907306701</v>
       </c>
       <c r="B401">
         <v>41.1</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402">
-        <v>40.96163067528333</v>
+        <v>40.31391237228146</v>
       </c>
       <c r="B402">
         <v>42.04556</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403">
-        <v>34.33156355801773</v>
+        <v>33.44165734497994</v>
       </c>
       <c r="B403">
         <v>42.66972</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404">
-        <v>31.06347863817606</v>
+        <v>30.46535592033412</v>
       </c>
       <c r="B404">
         <v>38.35</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405">
-        <v>37.95542915619652</v>
+        <v>37.05548643035572</v>
       </c>
       <c r="B405">
         <v>44.02356</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406">
-        <v>38.82321394448221</v>
+        <v>38.23427218909362</v>
       </c>
       <c r="B406">
         <v>44.11356</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407">
-        <v>40.17528276834639</v>
+        <v>39.55404904866069</v>
       </c>
       <c r="B407">
         <v>44.38359</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408">
-        <v>38.81875923823758</v>
+        <v>38.14224466224657</v>
       </c>
       <c r="B408">
         <v>44.29258</v>
@@ -4876,7 +4876,7 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409">
-        <v>41.75979866355671</v>
+        <v>41.46836680058441</v>
       </c>
       <c r="B409">
         <v>44.74008</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410">
-        <v>42.56377863103151</v>
+        <v>42.50815824739346</v>
       </c>
       <c r="B410">
         <v>44.566667</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411">
-        <v>48.57712313906659</v>
+        <v>48.54302878904011</v>
       </c>
       <c r="B411">
         <v>37.311944</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412">
-        <v>42.73833124267818</v>
+        <v>42.22916058368241</v>
       </c>
       <c r="B412">
         <v>44.466667</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413">
-        <v>43.94745243124054</v>
+        <v>43.98023149712275</v>
       </c>
       <c r="B413">
         <v>44.433333</v>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414">
-        <v>45.84584995486593</v>
+        <v>45.43186926163283</v>
       </c>
       <c r="B414">
         <v>44.75</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415">
-        <v>42.45846193062232</v>
+        <v>41.88450005573246</v>
       </c>
       <c r="B415">
         <v>44.820921</v>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416">
-        <v>42.46240898036747</v>
+        <v>41.95791968227083</v>
       </c>
       <c r="B416">
         <v>44.823856</v>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417">
-        <v>42.46240898036747</v>
+        <v>41.95791968227083</v>
       </c>
       <c r="B417">
         <v>44.844858</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418">
-        <v>44.60889435813142</v>
+        <v>44.67277524945286</v>
       </c>
       <c r="B418">
         <v>44.8494</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419">
-        <v>44.60889435813142</v>
+        <v>44.67277524945286</v>
       </c>
       <c r="B419">
         <v>44.854971</v>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420">
-        <v>42.42626676093034</v>
+        <v>42.0095609817697</v>
       </c>
       <c r="B420">
         <v>44.927407</v>
@@ -5008,7 +5008,7 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421">
-        <v>67.9084348435682</v>
+        <v>67.55429722422556</v>
       </c>
       <c r="B421">
         <v>41.4333</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422">
-        <v>42.36835038950866</v>
+        <v>41.74147256923994</v>
       </c>
       <c r="B422">
         <v>44.857177</v>
@@ -5030,7 +5030,7 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423">
-        <v>42.36835038950866</v>
+        <v>41.74147256923994</v>
       </c>
       <c r="B423">
         <v>44.866667</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424">
-        <v>41.85423274565977</v>
+        <v>41.3293211852868</v>
       </c>
       <c r="B424">
         <v>44.950282</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425">
-        <v>43.84152900967569</v>
+        <v>43.7690698340851</v>
       </c>
       <c r="B425">
         <v>44.903794</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426">
-        <v>43.84152900967569</v>
+        <v>43.7690698340851</v>
       </c>
       <c r="B426">
         <v>44.916667</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427">
-        <v>43.79681976331049</v>
+        <v>43.3693528381288</v>
       </c>
       <c r="B427">
         <v>44.926883</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428">
-        <v>41.75046243114468</v>
+        <v>41.57636565479442</v>
       </c>
       <c r="B428">
         <v>44.924946</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429">
-        <v>43.30298869167243</v>
+        <v>43.09175437397282</v>
       </c>
       <c r="B429">
         <v>44.932841</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430">
-        <v>62.45426955265044</v>
+        <v>62.73478943408865</v>
       </c>
       <c r="B430">
         <v>41.0328</v>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431">
-        <v>45.87496096941411</v>
+        <v>45.64297354218562</v>
       </c>
       <c r="B431">
         <v>44.75888</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432">
-        <v>44.6196377006904</v>
+        <v>44.30741764960061</v>
       </c>
       <c r="B432">
         <v>44.703669</v>
@@ -5140,7 +5140,7 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433">
-        <v>39.34329376273446</v>
+        <v>40.18826179247573</v>
       </c>
       <c r="B433">
         <v>37.4</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434">
-        <v>48.52868417473184</v>
+        <v>48.16869148295993</v>
       </c>
       <c r="B434">
         <v>37.05</v>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435">
-        <v>48.52868417473184</v>
+        <v>48.13630172917733</v>
       </c>
       <c r="B435">
         <v>37.016667</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436">
-        <v>33.07158821067843</v>
+        <v>32.69529205455561</v>
       </c>
       <c r="B436">
         <v>44.37758</v>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437">
-        <v>31.41252441308993</v>
+        <v>30.62542336212817</v>
       </c>
       <c r="B437">
         <v>44.46759</v>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438">
-        <v>30.49412237659136</v>
+        <v>29.65118876352458</v>
       </c>
       <c r="B438">
         <v>44.10616</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439">
-        <v>24.93876723807892</v>
+        <v>24.25005724002298</v>
       </c>
       <c r="B439">
         <v>44.37615</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440">
-        <v>67.57741776857362</v>
+        <v>66.87364647480068</v>
       </c>
       <c r="B440">
         <v>40.3167</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441">
-        <v>31.14121502368303</v>
+        <v>30.27592164347286</v>
       </c>
       <c r="B441">
         <v>44.46616</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442">
-        <v>33.00913464051595</v>
+        <v>32.28100912338016</v>
       </c>
       <c r="B442">
         <v>44.55617</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443">
-        <v>31.5868694254299</v>
+        <v>30.99266634941242</v>
       </c>
       <c r="B443">
         <v>44.53347</v>
@@ -5261,7 +5261,7 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444">
-        <v>30.68419195124292</v>
+        <v>29.77134236828501</v>
       </c>
       <c r="B444">
         <v>44.19458</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445">
-        <v>24.19707074059502</v>
+        <v>23.35339703633694</v>
       </c>
       <c r="B445">
         <v>44.28458</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446">
-        <v>30.91974315736608</v>
+        <v>30.24728527185992</v>
       </c>
       <c r="B446">
         <v>44.37458</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447">
-        <v>32.02158277752417</v>
+        <v>31.54116521001119</v>
       </c>
       <c r="B447">
         <v>44.46458</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448">
-        <v>31.84746444422607</v>
+        <v>31.33896191330291</v>
       </c>
       <c r="B448">
         <v>44.55459</v>
@@ -5316,7 +5316,7 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449">
-        <v>31.79869403239351</v>
+        <v>31.24124711028305</v>
       </c>
       <c r="B449">
         <v>44.51728</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450">
-        <v>31.09972936261638</v>
+        <v>30.14652777836519</v>
       </c>
       <c r="B450">
         <v>44.37286</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451">
-        <v>23.36298232285715</v>
+        <v>22.23778981747744</v>
       </c>
       <c r="B451">
         <v>43.916667</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452">
-        <v>30.63307230535756</v>
+        <v>29.73199700259579</v>
       </c>
       <c r="B452">
         <v>44.46286</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453">
-        <v>24.81602284520021</v>
+        <v>23.63433505345292</v>
       </c>
       <c r="B453">
         <v>44.369</v>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454">
-        <v>29.30098141543786</v>
+        <v>28.05504309034703</v>
       </c>
       <c r="B454">
         <v>44.45899</v>
@@ -5382,7 +5382,7 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455">
-        <v>27.62064359491942</v>
+        <v>26.69528992063347</v>
       </c>
       <c r="B455">
         <v>44.63899</v>
@@ -5393,7 +5393,7 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456">
-        <v>24.31766304758683</v>
+        <v>23.42696783086743</v>
       </c>
       <c r="B456">
         <v>44.45684</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457">
-        <v>40.85731421872656</v>
+        <v>40.66548055691415</v>
       </c>
       <c r="B457">
         <v>43.82472</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458">
-        <v>42.41443160633355</v>
+        <v>42.25048770033415</v>
       </c>
       <c r="B458">
         <v>44.00465</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459">
-        <v>30.17086655980933</v>
+        <v>29.22579586195593</v>
       </c>
       <c r="B459">
         <v>44.17912</v>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460">
-        <v>30.17086655980933</v>
+        <v>29.22579586195593</v>
       </c>
       <c r="B460">
         <v>44.1846</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461">
-        <v>66.58417599584402</v>
+        <v>66.19507761724518</v>
       </c>
       <c r="B461">
         <v>40.2756</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462">
-        <v>28.0113277918273</v>
+        <v>27.11515778523189</v>
       </c>
       <c r="B462">
         <v>44.36456</v>
@@ -5470,7 +5470,7 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463">
-        <v>26.55161805594759</v>
+        <v>25.8146939283943</v>
       </c>
       <c r="B463">
         <v>44.45455</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464">
-        <v>34.43251592620734</v>
+        <v>33.84467300123278</v>
       </c>
       <c r="B464">
         <v>43.70359</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465">
-        <v>31.27500718867537</v>
+        <v>30.83825786141875</v>
       </c>
       <c r="B465">
         <v>43.82232</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="466" spans="1:3">
       <c r="A466">
-        <v>25.1163557057078</v>
+        <v>23.60160270050655</v>
       </c>
       <c r="B466">
         <v>43.91227</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467">
-        <v>25.67161401771222</v>
+        <v>24.51977181749582</v>
       </c>
       <c r="B467">
         <v>44.00224</v>
@@ -5525,7 +5525,7 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468">
-        <v>23.96549991142783</v>
+        <v>23.06247666858422</v>
       </c>
       <c r="B468">
         <v>44.18218</v>
@@ -5536,7 +5536,7 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469">
-        <v>25.62322827167125</v>
+        <v>24.67430437085626</v>
       </c>
       <c r="B469">
         <v>44.27215</v>
@@ -5547,7 +5547,7 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470">
-        <v>24.36313465507326</v>
+        <v>23.55788062967895</v>
       </c>
       <c r="B470">
         <v>44.36213</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471">
-        <v>31.40631006758922</v>
+        <v>31.20928566048548</v>
       </c>
       <c r="B471">
         <v>44.72208</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472">
-        <v>37.97645185490143</v>
+        <v>36.80953536197751</v>
       </c>
       <c r="B472">
         <v>43.46</v>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473">
-        <v>30.22128491421523</v>
+        <v>29.18860948238382</v>
       </c>
       <c r="B473">
         <v>43.63988</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474">
-        <v>20.5557784591887</v>
+        <v>19.70010458329428</v>
       </c>
       <c r="B474">
         <v>43.81977</v>
@@ -5602,7 +5602,7 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475">
-        <v>22.04893622911063</v>
+        <v>21.42897116367106</v>
       </c>
       <c r="B475">
         <v>43.99968</v>
@@ -5613,7 +5613,7 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476">
-        <v>27.24869460794829</v>
+        <v>26.10907407149902</v>
       </c>
       <c r="B476">
         <v>44.08964</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477">
-        <v>26.21213589108324</v>
+        <v>26.10966277389176</v>
       </c>
       <c r="B477">
         <v>44.26958</v>
@@ -5635,7 +5635,7 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478">
-        <v>25.82670727947272</v>
+        <v>25.20303791984059</v>
       </c>
       <c r="B478">
         <v>44.35956</v>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479">
-        <v>25.6367216712509</v>
+        <v>25.80327871714612</v>
       </c>
       <c r="B479">
         <v>44.44953</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480">
-        <v>22.43817269874042</v>
+        <v>21.51240918400691</v>
       </c>
       <c r="B480">
         <v>43.82001</v>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481">
-        <v>32.33862577986477</v>
+        <v>31.75855866078985</v>
       </c>
       <c r="B481">
         <v>43.81708</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482">
-        <v>40.35234421584592</v>
+        <v>40.36891752896241</v>
       </c>
       <c r="B482">
         <v>36.644722</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483">
-        <v>28.78256709269906</v>
+        <v>27.62588908544536</v>
       </c>
       <c r="B483">
         <v>43.76632</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484">
-        <v>24.38543954373969</v>
+        <v>23.45902351960579</v>
       </c>
       <c r="B484">
         <v>43.99698</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485">
-        <v>27.90361282045458</v>
+        <v>27.23372370361245</v>
       </c>
       <c r="B485">
         <v>44.1769</v>
@@ -5723,7 +5723,7 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486">
-        <v>29.13021361131635</v>
+        <v>28.02935606559046</v>
       </c>
       <c r="B486">
         <v>44.26687</v>
@@ -5734,7 +5734,7 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487">
-        <v>22.21289534306995</v>
+        <v>21.1615175721665</v>
       </c>
       <c r="B487">
         <v>43.90419</v>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488">
-        <v>22.81795889328505</v>
+        <v>21.7436577758951</v>
       </c>
       <c r="B488">
         <v>43.99414</v>
@@ -5756,7 +5756,7 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489">
-        <v>29.35412662458635</v>
+        <v>28.080289188207</v>
       </c>
       <c r="B489">
         <v>44.08409</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490">
-        <v>27.54009279551295</v>
+        <v>27.11830362031883</v>
       </c>
       <c r="B490">
         <v>44.17405</v>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491">
-        <v>25.61186059003973</v>
+        <v>24.66163122822056</v>
       </c>
       <c r="B491">
         <v>44.00367</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492">
-        <v>23.64367487210798</v>
+        <v>22.59303694389789</v>
       </c>
       <c r="B492">
         <v>43.93059</v>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493">
-        <v>44.68707658148966</v>
+        <v>44.23345736366078</v>
       </c>
       <c r="B493">
         <v>36.9667</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494">
-        <v>31.78038158479312</v>
+        <v>31.24739032032298</v>
       </c>
       <c r="B494">
         <v>43.80678</v>
@@ -5822,7 +5822,7 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495">
-        <v>27.85759977664289</v>
+        <v>26.91625278752872</v>
       </c>
       <c r="B495">
         <v>44.09836</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496">
-        <v>34.46793642808685</v>
+        <v>33.42457528192125</v>
       </c>
       <c r="B496">
         <v>43.36165</v>
@@ -5844,7 +5844,7 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497">
-        <v>33.36823161338589</v>
+        <v>32.47839478579229</v>
       </c>
       <c r="B497">
         <v>43.54148</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498">
-        <v>28.96055564956017</v>
+        <v>27.6414609862388</v>
       </c>
       <c r="B498">
         <v>43.6314</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499">
-        <v>32.01593771167828</v>
+        <v>31.45971298582344</v>
       </c>
       <c r="B499">
         <v>43.72133</v>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500">
-        <v>23.86026114657562</v>
+        <v>23.0405555929105</v>
       </c>
       <c r="B500">
         <v>43.90121</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501">
-        <v>24.75327971061824</v>
+        <v>23.49761612840855</v>
       </c>
       <c r="B501">
         <v>43.99115</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502">
-        <v>29.83065989082337</v>
+        <v>28.90450405348948</v>
       </c>
       <c r="B502">
         <v>44.0811</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503">
-        <v>26.1611812269876</v>
+        <v>26.42925035925239</v>
       </c>
       <c r="B503">
         <v>44.17106</v>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504">
-        <v>27.39456186440387</v>
+        <v>26.82880466469499</v>
       </c>
       <c r="B504">
         <v>44.26101</v>
@@ -5932,7 +5932,7 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505">
-        <v>27.9820094098632</v>
+        <v>27.15531032500186</v>
       </c>
       <c r="B505">
         <v>44.35097</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506">
-        <v>29.37378766286903</v>
+        <v>28.05047153493525</v>
       </c>
       <c r="B506">
         <v>44.44094</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="507" spans="1:3">
       <c r="A507">
-        <v>32.90361511997006</v>
+        <v>31.65354989163858</v>
       </c>
       <c r="B507">
         <v>43.26866</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508">
-        <v>33.21964335331064</v>
+        <v>32.70091002758804</v>
       </c>
       <c r="B508">
         <v>43.35856</v>
@@ -5976,7 +5976,7 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509">
-        <v>33.57582121943543</v>
+        <v>33.07178630149119</v>
       </c>
       <c r="B509">
         <v>43.53838</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510">
-        <v>29.24570271758064</v>
+        <v>27.69102191969782</v>
       </c>
       <c r="B510">
         <v>43.6283</v>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511">
-        <v>36.6264405899381</v>
+        <v>35.9522885750643</v>
       </c>
       <c r="B511">
         <v>43.71822</v>
@@ -6009,7 +6009,7 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512">
-        <v>31.72701783543812</v>
+        <v>31.31993687969543</v>
       </c>
       <c r="B512">
         <v>43.80815</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="513" spans="1:3">
       <c r="A513">
-        <v>29.44518322826833</v>
+        <v>28.5336721949557</v>
       </c>
       <c r="B513">
         <v>43.89809</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514">
-        <v>43.36737213191878</v>
+        <v>43.36306988367645</v>
       </c>
       <c r="B514">
         <v>37.0833</v>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="515" spans="1:3">
       <c r="A515">
-        <v>25.81160023173969</v>
+        <v>24.79581090516518</v>
       </c>
       <c r="B515">
         <v>43.98803</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516">
-        <v>25.99294078292194</v>
+        <v>25.4058450548402</v>
       </c>
       <c r="B516">
         <v>44.16792</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517">
-        <v>25.38945808202165</v>
+        <v>24.51860359251072</v>
       </c>
       <c r="B517">
         <v>44.25787</v>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="518" spans="1:3">
       <c r="A518">
-        <v>25.27945994713356</v>
+        <v>24.86562529306891</v>
       </c>
       <c r="B518">
         <v>44.34783</v>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519">
-        <v>29.7471233301893</v>
+        <v>28.62459307449718</v>
       </c>
       <c r="B519">
         <v>44.43779</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520">
-        <v>32.08016747216156</v>
+        <v>31.15273080894944</v>
       </c>
       <c r="B520">
         <v>46.4</v>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521">
-        <v>31.9858968829595</v>
+        <v>31.49620209235084</v>
       </c>
       <c r="B521">
         <v>43.26543</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522">
-        <v>33.47557988399549</v>
+        <v>33.08580196314845</v>
       </c>
       <c r="B522">
         <v>43.35533</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="523" spans="1:3">
       <c r="A523">
-        <v>33.8535689356762</v>
+        <v>32.29072233151018</v>
       </c>
       <c r="B523">
         <v>43.149998</v>
@@ -6141,7 +6141,7 @@
     </row>
     <row r="524" spans="1:3">
       <c r="A524">
-        <v>34.27244731887669</v>
+        <v>33.54362484964317</v>
       </c>
       <c r="B524">
         <v>43.8049</v>
@@ -6152,7 +6152,7 @@
     </row>
     <row r="525" spans="1:3">
       <c r="A525">
-        <v>40.37014246889426</v>
+        <v>39.63842320909583</v>
       </c>
       <c r="B525">
         <v>43.98476</v>
@@ -6163,7 +6163,7 @@
     </row>
     <row r="526" spans="1:3">
       <c r="A526">
-        <v>27.79545992507647</v>
+        <v>27.06686045286918</v>
       </c>
       <c r="B526">
         <v>44.0747</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="527" spans="1:3">
       <c r="A527">
-        <v>24.9202683384659</v>
+        <v>24.26776618622144</v>
       </c>
       <c r="B527">
         <v>44.16464</v>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="528" spans="1:3">
       <c r="A528">
-        <v>38.49159417961788</v>
+        <v>37.27657325740171</v>
       </c>
       <c r="B528">
         <v>44.61441</v>
@@ -6196,7 +6196,7 @@
     </row>
     <row r="529" spans="1:3">
       <c r="A529">
-        <v>26.78669451462745</v>
+        <v>26.03549264805598</v>
       </c>
       <c r="B529">
         <v>43.44185</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="530" spans="1:3">
       <c r="A530">
-        <v>35.39342037918298</v>
+        <v>34.95051651155674</v>
       </c>
       <c r="B530">
         <v>43.71158</v>
@@ -6218,7 +6218,7 @@
     </row>
     <row r="531" spans="1:3">
       <c r="A531">
-        <v>26.20149899953686</v>
+        <v>26.10079330524112</v>
       </c>
       <c r="B531">
         <v>44.25116</v>
@@ -6229,7 +6229,7 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532">
-        <v>31.44113857936748</v>
+        <v>30.07090518428738</v>
       </c>
       <c r="B532">
         <v>43.70805</v>
@@ -6240,7 +6240,7 @@
     </row>
     <row r="533" spans="1:3">
       <c r="A533">
-        <v>30.80367309687045</v>
+        <v>30.34965535891618</v>
       </c>
       <c r="B533">
         <v>44.19649</v>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="534" spans="1:3">
       <c r="A534">
-        <v>31.54065249835588</v>
+        <v>30.52535569101342</v>
       </c>
       <c r="B534">
         <v>44.06773</v>
@@ -6262,7 +6262,7 @@
     </row>
     <row r="535" spans="1:3">
       <c r="A535">
-        <v>33.43607246692888</v>
+        <v>32.82451581896861</v>
       </c>
       <c r="B535">
         <v>44.15766</v>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="536" spans="1:3">
       <c r="A536">
-        <v>30.77354478292434</v>
+        <v>29.76269002775532</v>
       </c>
       <c r="B536">
         <v>44.24759</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="537" spans="1:3">
       <c r="A537">
-        <v>28.86158046760708</v>
+        <v>28.18048018251177</v>
       </c>
       <c r="B537">
         <v>44.19206</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="538" spans="1:3">
       <c r="A538">
-        <v>28.4419612356712</v>
+        <v>27.55339863076041</v>
       </c>
       <c r="B538">
         <v>43.61447</v>
@@ -6306,7 +6306,7 @@
     </row>
     <row r="539" spans="1:3">
       <c r="A539">
-        <v>32.23237558726186</v>
+        <v>31.57920656524576</v>
       </c>
       <c r="B539">
         <v>43.70437</v>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="540" spans="1:3">
       <c r="A540">
-        <v>25.04281008373541</v>
+        <v>25.11973567104398</v>
       </c>
       <c r="B540">
         <v>43.97411</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="541" spans="1:3">
       <c r="A541">
-        <v>32.17559787209613</v>
+        <v>31.76506507468313</v>
       </c>
       <c r="B541">
         <v>44.24388</v>
@@ -6339,7 +6339,7 @@
     </row>
     <row r="542" spans="1:3">
       <c r="A542">
-        <v>28.67712744930984</v>
+        <v>28.26729593921078</v>
       </c>
       <c r="B542">
         <v>43.61066</v>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="543" spans="1:3">
       <c r="A543">
-        <v>29.86371724790849</v>
+        <v>29.41059877794063</v>
       </c>
       <c r="B543">
         <v>43.70055</v>
@@ -6361,7 +6361,7 @@
     </row>
     <row r="544" spans="1:3">
       <c r="A544">
-        <v>30.44505734919092</v>
+        <v>29.86274105315593</v>
       </c>
       <c r="B544">
         <v>43.79046</v>
@@ -6372,7 +6372,7 @@
     </row>
     <row r="545" spans="1:3">
       <c r="A545">
-        <v>33.33166196114692</v>
+        <v>32.71835299927252</v>
       </c>
       <c r="B545">
         <v>40.2658</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="546" spans="1:3">
       <c r="A546">
-        <v>32.6312275120553</v>
+        <v>32.01569595532654</v>
       </c>
       <c r="B546">
         <v>43.87639</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="547" spans="1:3">
       <c r="A547">
-        <v>23.23202555409604</v>
+        <v>22.67752094250201</v>
       </c>
       <c r="B547">
         <v>43.60262</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="548" spans="1:3">
       <c r="A548">
-        <v>29.82535609693565</v>
+        <v>28.63494442706802</v>
       </c>
       <c r="B548">
         <v>43.6925</v>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="549" spans="1:3">
       <c r="A549">
-        <v>29.932409149754</v>
+        <v>29.24905054761581</v>
       </c>
       <c r="B549">
         <v>43.78239</v>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="550" spans="1:3">
       <c r="A550">
-        <v>28.46211176346122</v>
+        <v>27.7556582802795</v>
       </c>
       <c r="B550">
         <v>43.87228</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="551" spans="1:3">
       <c r="A551">
-        <v>28.58646816762873</v>
+        <v>27.56009738284232</v>
       </c>
       <c r="B551">
         <v>43.68826</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="552" spans="1:3">
       <c r="A552">
-        <v>27.88841025446379</v>
+        <v>27.42351515961925</v>
       </c>
       <c r="B552">
         <v>43.77814</v>
@@ -6460,7 +6460,7 @@
     </row>
     <row r="553" spans="1:3">
       <c r="A553">
-        <v>26.26774903671271</v>
+        <v>25.9099181249617</v>
       </c>
       <c r="B553">
         <v>43.86803</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="554" spans="1:3">
       <c r="A554">
-        <v>28.85025976169596</v>
+        <v>28.49956761907073</v>
       </c>
       <c r="B554">
         <v>43.86363</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="555" spans="1:3">
       <c r="A555">
-        <v>28.266369841269</v>
+        <v>27.34725472225266</v>
       </c>
       <c r="B555">
         <v>43.95351</v>
@@ -6493,7 +6493,7 @@
     </row>
     <row r="556" spans="1:3">
       <c r="A556">
-        <v>58.11316255379964</v>
+        <v>57.37552516301821</v>
       </c>
       <c r="B556">
         <v>38.7667</v>
@@ -6504,7 +6504,7 @@
     </row>
     <row r="557" spans="1:3">
       <c r="A557">
-        <v>26.77387366204943</v>
+        <v>26.29195162259726</v>
       </c>
       <c r="B557">
         <v>39.7533</v>
@@ -6515,7 +6515,7 @@
     </row>
     <row r="558" spans="1:3">
       <c r="A558">
-        <v>39.71363593970329</v>
+        <v>38.85441326511439</v>
       </c>
       <c r="B558">
         <v>45.13333</v>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="559" spans="1:3">
       <c r="A559">
-        <v>37.15981447968726</v>
+        <v>36.66811589019429</v>
       </c>
       <c r="B559">
         <v>44.21862</v>
@@ -6537,7 +6537,7 @@
     </row>
     <row r="560" spans="1:3">
       <c r="A560">
-        <v>27.55881416376468</v>
+        <v>26.94449246645834</v>
       </c>
       <c r="B560">
         <v>44.01923</v>
@@ -6548,7 +6548,7 @@
     </row>
     <row r="561" spans="1:3">
       <c r="A561">
-        <v>32.52729581093566</v>
+        <v>31.84195694501541</v>
       </c>
       <c r="B561">
         <v>44.10908</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="562" spans="1:3">
       <c r="A562">
-        <v>31.30202959841949</v>
+        <v>30.73631613765914</v>
       </c>
       <c r="B562">
         <v>44.083333</v>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="563" spans="1:3">
       <c r="A563">
-        <v>32.93954606534583</v>
+        <v>32.80347839064744</v>
       </c>
       <c r="B563">
         <v>42.59456</v>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="564" spans="1:3">
       <c r="A564">
-        <v>32.93954606534583</v>
+        <v>32.81933782510538</v>
       </c>
       <c r="B564">
         <v>42.58333</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="565" spans="1:3">
       <c r="A565">
-        <v>35.65332183916067</v>
+        <v>35.37033458868349</v>
       </c>
       <c r="B565">
         <v>42.26667</v>
@@ -6603,7 +6603,7 @@
     </row>
     <row r="566" spans="1:3">
       <c r="A566">
-        <v>29.02558891423685</v>
+        <v>28.63037013887337</v>
       </c>
       <c r="B566">
         <v>38.5833</v>
@@ -6614,7 +6614,7 @@
     </row>
     <row r="567" spans="1:3">
       <c r="A567">
-        <v>30.9248992974269</v>
+        <v>30.2703063154185</v>
       </c>
       <c r="B567">
         <v>38.3667</v>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="568" spans="1:3">
       <c r="A568">
-        <v>31.64266346237768</v>
+        <v>31.31951241867633</v>
       </c>
       <c r="B568">
         <v>38.3333</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="569" spans="1:3">
       <c r="A569">
-        <v>36.21964349758106</v>
+        <v>35.64198295513103</v>
       </c>
       <c r="B569">
         <v>38.3667</v>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="570" spans="1:3">
       <c r="A570">
-        <v>30.72200460313987</v>
+        <v>30.74127705280767</v>
       </c>
       <c r="B570">
         <v>38.25</v>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="571" spans="1:3">
       <c r="A571">
-        <v>35.04697788843737</v>
+        <v>34.32241066578502</v>
       </c>
       <c r="B571">
         <v>38.3833</v>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="572" spans="1:3">
       <c r="A572">
-        <v>32.28544800278118</v>
+        <v>32.29403011709812</v>
       </c>
       <c r="B572">
         <v>38.4</v>
@@ -6680,7 +6680,7 @@
     </row>
     <row r="573" spans="1:3">
       <c r="A573">
-        <v>34.57664595529199</v>
+        <v>33.92421891522096</v>
       </c>
       <c r="B573">
         <v>37.6333</v>
@@ -6691,7 +6691,7 @@
     </row>
     <row r="574" spans="1:3">
       <c r="A574">
-        <v>56.40844775522415</v>
+        <v>55.5242339864887</v>
       </c>
       <c r="B574">
         <v>40.03</v>
@@ -6702,7 +6702,7 @@
     </row>
     <row r="575" spans="1:3">
       <c r="A575">
-        <v>44.16961937833779</v>
+        <v>43.44514274396856</v>
       </c>
       <c r="B575">
         <v>39.5</v>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="576" spans="1:3">
       <c r="A576">
-        <v>42.92533894056545</v>
+        <v>42.30738635719012</v>
       </c>
       <c r="B576">
         <v>39.4833</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="577" spans="1:3">
       <c r="A577">
-        <v>43.68539398279469</v>
+        <v>43.34572562340828</v>
       </c>
       <c r="B577">
         <v>38.25</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="578" spans="1:3">
       <c r="A578">
-        <v>42.4499905563225</v>
+        <v>42.2591764336622</v>
       </c>
       <c r="B578">
         <v>38.2</v>
@@ -6746,7 +6746,7 @@
     </row>
     <row r="579" spans="1:3">
       <c r="A579">
-        <v>44.6403177313767</v>
+        <v>44.20768505124177</v>
       </c>
       <c r="B579">
         <v>38.1833</v>
@@ -6757,7 +6757,7 @@
     </row>
     <row r="580" spans="1:3">
       <c r="A580">
-        <v>37.94467173693103</v>
+        <v>37.61490300946033</v>
       </c>
       <c r="B580">
         <v>38.2</v>
@@ -6768,7 +6768,7 @@
     </row>
     <row r="581" spans="1:3">
       <c r="A581">
-        <v>37.94467173693103</v>
+        <v>37.61490300946033</v>
       </c>
       <c r="B581">
         <v>38.18</v>
@@ -6779,7 +6779,7 @@
     </row>
     <row r="582" spans="1:3">
       <c r="A582">
-        <v>34.96795742562631</v>
+        <v>34.3098648489552</v>
       </c>
       <c r="B582">
         <v>37.6667</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="583" spans="1:3">
       <c r="A583">
-        <v>45.80381375705872</v>
+        <v>44.9219301528079</v>
       </c>
       <c r="B583">
         <v>37.9167</v>
@@ -6801,7 +6801,7 @@
     </row>
     <row r="584" spans="1:3">
       <c r="A584">
-        <v>46.27439365745127</v>
+        <v>45.73499368121246</v>
       </c>
       <c r="B584">
         <v>37.8167</v>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="585" spans="1:3">
       <c r="A585">
-        <v>56.40844775522415</v>
+        <v>55.5242339864887</v>
       </c>
       <c r="B585">
         <v>40.02889</v>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="586" spans="1:3">
       <c r="A586">
-        <v>43.24184285605247</v>
+        <v>42.62546281742969</v>
       </c>
       <c r="B586">
         <v>37.5</v>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="587" spans="1:3">
       <c r="A587">
-        <v>30.98142532426733</v>
+        <v>30.7925532739519</v>
       </c>
       <c r="B587">
         <v>36.95</v>
@@ -6845,7 +6845,7 @@
     </row>
     <row r="588" spans="1:3">
       <c r="A588">
-        <v>31.6477010283119</v>
+        <v>31.52873814027556</v>
       </c>
       <c r="B588">
         <v>34.9643</v>
@@ -6856,7 +6856,7 @@
     </row>
     <row r="589" spans="1:3">
       <c r="A589">
-        <v>29.60770341907786</v>
+        <v>29.09396139792575</v>
       </c>
       <c r="B589">
         <v>34.99333</v>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="590" spans="1:3">
       <c r="A590">
-        <v>30.18630426173165</v>
+        <v>30.02719123466545</v>
       </c>
       <c r="B590">
         <v>35.01306</v>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="591" spans="1:3">
       <c r="A591">
-        <v>29.81576387693608</v>
+        <v>29.76503504755134</v>
       </c>
       <c r="B591">
         <v>34.9194</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="592" spans="1:3">
       <c r="A592">
-        <v>30.25666690186343</v>
+        <v>30.12439077853089</v>
       </c>
       <c r="B592">
         <v>34.8755</v>
@@ -6900,7 +6900,7 @@
     </row>
     <row r="593" spans="1:3">
       <c r="A593">
-        <v>34.5296699375368</v>
+        <v>34.60095249428008</v>
       </c>
       <c r="B593">
         <v>37.8667</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="594" spans="1:3">
       <c r="A594">
-        <v>32.80494572131985</v>
+        <v>32.6740518416851</v>
       </c>
       <c r="B594">
         <v>37.8833</v>
@@ -6922,7 +6922,7 @@
     </row>
     <row r="595" spans="1:3">
       <c r="A595">
-        <v>57.51444464676054</v>
+        <v>56.74554818646064</v>
       </c>
       <c r="B595">
         <v>38.7833</v>
@@ -6933,7 +6933,7 @@
     </row>
     <row r="596" spans="1:3">
       <c r="A596">
-        <v>27.71886130844066</v>
+        <v>26.45719375984091</v>
       </c>
       <c r="B596">
         <v>34.91028</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="597" spans="1:3">
       <c r="A597">
-        <v>28.99027053170229</v>
+        <v>28.80678870589662</v>
       </c>
       <c r="B597">
         <v>38.9</v>
@@ -6955,7 +6955,7 @@
     </row>
     <row r="598" spans="1:3">
       <c r="A598">
-        <v>55.93064476324501</v>
+        <v>55.31793241880313</v>
       </c>
       <c r="B598">
         <v>38.66</v>
@@ -6966,7 +6966,7 @@
     </row>
     <row r="599" spans="1:3">
       <c r="A599">
-        <v>56.85831473687345</v>
+        <v>56.37035040622577</v>
       </c>
       <c r="B599">
         <v>38.77</v>
@@ -6977,7 +6977,7 @@
     </row>
     <row r="600" spans="1:3">
       <c r="A600">
-        <v>55.78880757785185</v>
+        <v>54.87894435983741</v>
       </c>
       <c r="B600">
         <v>38.77</v>
@@ -6988,7 +6988,7 @@
     </row>
     <row r="601" spans="1:3">
       <c r="A601">
-        <v>57.63067462245783</v>
+        <v>57.05636196134277</v>
       </c>
       <c r="B601">
         <v>38.7243</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="602" spans="1:3">
       <c r="A602">
-        <v>56.36957490610941</v>
+        <v>55.543893291329</v>
       </c>
       <c r="B602">
         <v>40.58</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="603" spans="1:3">
       <c r="A603">
-        <v>57.63067462245783</v>
+        <v>57.05636196134277</v>
       </c>
       <c r="B603">
         <v>38.74</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="604" spans="1:3">
       <c r="A604">
-        <v>56.22800237034107</v>
+        <v>54.89233500756684</v>
       </c>
       <c r="B604">
         <v>38.77</v>
@@ -7032,7 +7032,7 @@
     </row>
     <row r="605" spans="1:3">
       <c r="A605">
-        <v>57.72248680140283</v>
+        <v>57.18136433935243</v>
       </c>
       <c r="B605">
         <v>38.61</v>
@@ -7043,7 +7043,7 @@
     </row>
     <row r="606" spans="1:3">
       <c r="A606">
-        <v>56.25716286743715</v>
+        <v>55.20154718710275</v>
       </c>
       <c r="B606">
         <v>39.91556</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="607" spans="1:3">
       <c r="A607">
-        <v>60.55312093959694</v>
+        <v>59.76718685404156</v>
       </c>
       <c r="B607">
         <v>38.983337</v>
@@ -7065,7 +7065,7 @@
     </row>
     <row r="608" spans="1:3">
       <c r="A608">
-        <v>58.09004502381935</v>
+        <v>57.41735063857389</v>
       </c>
       <c r="B608">
         <v>38.78</v>
@@ -7076,7 +7076,7 @@
     </row>
     <row r="609" spans="1:3">
       <c r="A609">
-        <v>55.50557360581072</v>
+        <v>54.99694782937515</v>
       </c>
       <c r="B609">
         <v>40.02</v>
@@ -7087,7 +7087,7 @@
     </row>
     <row r="610" spans="1:3">
       <c r="A610">
-        <v>55.49469784416475</v>
+        <v>54.99694782937515</v>
       </c>
       <c r="B610">
         <v>40.03</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="611" spans="1:3">
       <c r="A611">
-        <v>55.47307977767547</v>
+        <v>54.96588707863543</v>
       </c>
       <c r="B611">
         <v>40.04</v>
@@ -7109,7 +7109,7 @@
     </row>
     <row r="612" spans="1:3">
       <c r="A612">
-        <v>56.40844775522415</v>
+        <v>55.5242339864887</v>
       </c>
       <c r="B612">
         <v>40.02</v>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="613" spans="1:3">
       <c r="A613">
-        <v>56.40844775522415</v>
+        <v>55.5242339864887</v>
       </c>
       <c r="B613">
         <v>40.03</v>
@@ -7131,7 +7131,7 @@
     </row>
     <row r="614" spans="1:3">
       <c r="A614">
-        <v>56.36872720106106</v>
+        <v>55.5242339864887</v>
       </c>
       <c r="B614">
         <v>40.037</v>

--- a/Futuro/results/Silvestres_Presente_avg_RF.xlsx
+++ b/Futuro/results/Silvestres_Presente_avg_RF.xlsx
@@ -399,7 +399,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>34.11499962972022</v>
+        <v>34.14934972896776</v>
       </c>
       <c r="B2">
         <v>38.523891</v>
@@ -410,7 +410,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>43.73435915049685</v>
+        <v>43.59291544798613</v>
       </c>
       <c r="B3">
         <v>44.65</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>44.90087439181328</v>
+        <v>44.4466667963275</v>
       </c>
       <c r="B4">
         <v>44.483333</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>36.77552474144818</v>
+        <v>36.84670779063659</v>
       </c>
       <c r="B5">
         <v>41.72472</v>
@@ -443,7 +443,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>34.59574712908767</v>
+        <v>34.75575328595747</v>
       </c>
       <c r="B6">
         <v>37.1</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>36.36425622003951</v>
+        <v>35.31863542198219</v>
       </c>
       <c r="B7">
         <v>37.483333</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>32.413223996925</v>
+        <v>31.86792380906148</v>
       </c>
       <c r="B8">
         <v>37.266667</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>42.39865030898945</v>
+        <v>43.30566012780761</v>
       </c>
       <c r="B9">
         <v>39.8239</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>28.46024217518409</v>
+        <v>28.62941508062559</v>
       </c>
       <c r="B10">
         <v>38.5</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>30.33543224243581</v>
+        <v>30.76897873319127</v>
       </c>
       <c r="B11">
         <v>38.90583</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>30.94302026386194</v>
+        <v>31.53239302487134</v>
       </c>
       <c r="B12">
         <v>38.61417</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>29.91275316734007</v>
+        <v>30.36867444183773</v>
       </c>
       <c r="B13">
         <v>38.59444</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>28.95792887821079</v>
+        <v>29.00500771335781</v>
       </c>
       <c r="B14">
         <v>38.984718</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>30.03242767696752</v>
+        <v>30.11570742926193</v>
       </c>
       <c r="B15">
         <v>38.595001</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>31.10942002873661</v>
+        <v>31.49571173732316</v>
       </c>
       <c r="B16">
         <v>38.840279</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>30.40911177084013</v>
+        <v>30.44567963788807</v>
       </c>
       <c r="B17">
         <v>38.686668</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>31.83194518706397</v>
+        <v>31.45788295907408</v>
       </c>
       <c r="B18">
         <v>38.9</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>29.71597509756418</v>
+        <v>29.79362120393738</v>
       </c>
       <c r="B19">
         <v>38.4333</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>33.38051751985122</v>
+        <v>33.03288919739239</v>
       </c>
       <c r="B20">
         <v>38.424999</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>34.19947756823702</v>
+        <v>34.06663566575511</v>
       </c>
       <c r="B21">
         <v>37.866667</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>32.705070241673</v>
+        <v>31.77508075103055</v>
       </c>
       <c r="B22">
         <v>38.423889</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>32.84937058553436</v>
+        <v>33.17596312898828</v>
       </c>
       <c r="B23">
         <v>38.005562</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>30.19656195658968</v>
+        <v>30.71510715085003</v>
       </c>
       <c r="B24">
         <v>38.91917</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>28.6829266342375</v>
+        <v>28.86077517502494</v>
       </c>
       <c r="B25">
         <v>40.19611</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>32.95561253837154</v>
+        <v>32.9590714589263</v>
       </c>
       <c r="B26">
         <v>38.633333</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>32.73119574936725</v>
+        <v>33.06523035260145</v>
       </c>
       <c r="B27">
         <v>38.508888</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>26.96346956047547</v>
+        <v>26.94384196605218</v>
       </c>
       <c r="B28">
         <v>38.873611</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>30.33752496365764</v>
+        <v>29.91711669966324</v>
       </c>
       <c r="B29">
         <v>38.3333</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>30.56437778430638</v>
+        <v>31.09708552005077</v>
       </c>
       <c r="B30">
         <v>37.65</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>27.81212726851681</v>
+        <v>27.81216674208557</v>
       </c>
       <c r="B31">
         <v>37.666667</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>29.99487038529535</v>
+        <v>30.47003902847884</v>
       </c>
       <c r="B32">
         <v>38.85722</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>30.57201303535926</v>
+        <v>30.36575515032159</v>
       </c>
       <c r="B33">
         <v>38.996109</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>41.72071570570485</v>
+        <v>42.33877308100786</v>
       </c>
       <c r="B34">
         <v>38.752499</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>32.92239463034049</v>
+        <v>32.4351764567101</v>
       </c>
       <c r="B35">
         <v>40.95</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>34.23274578395282</v>
+        <v>33.96290670689102</v>
       </c>
       <c r="B36">
         <v>41.355831</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>34.60699186455792</v>
+        <v>35.24028796710373</v>
       </c>
       <c r="B37">
         <v>41.145828</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>43.66557507453025</v>
+        <v>43.39380955806016</v>
       </c>
       <c r="B38">
         <v>37.083333</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>40.73554219731954</v>
+        <v>40.28809131268086</v>
       </c>
       <c r="B39">
         <v>36.916667</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>29.52816981377941</v>
+        <v>29.55571507987586</v>
       </c>
       <c r="B40">
         <v>38.45</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>34.64357190382918</v>
+        <v>33.63755015858106</v>
       </c>
       <c r="B41">
         <v>37.766667</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>29.80037181825143</v>
+        <v>29.94013193849774</v>
       </c>
       <c r="B42">
         <v>35.55</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>28.4844132165324</v>
+        <v>28.40674291302523</v>
       </c>
       <c r="B43">
         <v>36.2</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>28.4844132165324</v>
+        <v>28.40674291302523</v>
       </c>
       <c r="B44">
         <v>36.216667</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>30.23124821012648</v>
+        <v>29.95698072276979</v>
       </c>
       <c r="B45">
         <v>38.35</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>36.49038104255334</v>
+        <v>36.8854652488906</v>
       </c>
       <c r="B46">
         <v>37.016667</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>27.43856292205314</v>
+        <v>26.80886229496868</v>
       </c>
       <c r="B47">
         <v>34.886389</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>44.1584748242341</v>
+        <v>43.62841702636565</v>
       </c>
       <c r="B48">
         <v>44.4</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>43.9892040746833</v>
+        <v>43.59348210149838</v>
       </c>
       <c r="B49">
         <v>44.416667</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>41.03669290310391</v>
+        <v>40.74410968626309</v>
       </c>
       <c r="B50">
         <v>44.583333</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>42.09954649982748</v>
+        <v>42.64945992669918</v>
       </c>
       <c r="B51">
         <v>44.857451</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>30.2703063154185</v>
+        <v>29.97955012346338</v>
       </c>
       <c r="B52">
         <v>38.3833</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>32.29098006109415</v>
+        <v>32.09321699782672</v>
       </c>
       <c r="B53">
         <v>36.9</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>36.21914076222205</v>
+        <v>36.39502876774019</v>
       </c>
       <c r="B54">
         <v>36.866667</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>39.93441865806429</v>
+        <v>39.11839531901342</v>
       </c>
       <c r="B55">
         <v>37.75</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>34.25115086985083</v>
+        <v>34.23207000858453</v>
       </c>
       <c r="B56">
         <v>36.9</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>32.78389996328973</v>
+        <v>32.12324062491493</v>
       </c>
       <c r="B57">
         <v>42.31878</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>39.4103126965496</v>
+        <v>38.97401554413655</v>
       </c>
       <c r="B58">
         <v>41.41623</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>33.11641942519</v>
+        <v>32.77784900945659</v>
       </c>
       <c r="B59">
         <v>38.3167</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>32.84320149577438</v>
+        <v>31.82130883763186</v>
       </c>
       <c r="B60">
         <v>42.23333</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>44.49340113485249</v>
+        <v>43.81585324629486</v>
       </c>
       <c r="B61">
         <v>41.41667</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>36.27850677550196</v>
+        <v>35.43636462373583</v>
       </c>
       <c r="B62">
         <v>42.31667</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>35.62073970375137</v>
+        <v>35.11667631910193</v>
       </c>
       <c r="B63">
         <v>42.38333</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>36.3118434668766</v>
+        <v>35.43636462373583</v>
       </c>
       <c r="B64">
         <v>42.31176</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>35.62073970375137</v>
+        <v>35.11667631910193</v>
       </c>
       <c r="B65">
         <v>42.38333</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>35.09394462158831</v>
+        <v>34.20425627713308</v>
       </c>
       <c r="B66">
         <v>42.40135</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>36.20265852298564</v>
+        <v>35.45591860577427</v>
       </c>
       <c r="B67">
         <v>41.76724</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>37.98208872097278</v>
+        <v>37.44895715907641</v>
       </c>
       <c r="B68">
         <v>41.71667</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>35.33687841158647</v>
+        <v>35.04738855558196</v>
       </c>
       <c r="B69">
         <v>41.71667</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>33.99602040234923</v>
+        <v>33.02141315138158</v>
       </c>
       <c r="B70">
         <v>38.4167</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>35.47460020949593</v>
+        <v>34.00634392641852</v>
       </c>
       <c r="B71">
         <v>41.83333</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>31.70946777228752</v>
+        <v>31.13228504438756</v>
       </c>
       <c r="B72">
         <v>38.0833</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>36.05395229050011</v>
+        <v>35.824253851655</v>
       </c>
       <c r="B73">
         <v>37.55</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>26.09130724120968</v>
+        <v>26.0397759020753</v>
       </c>
       <c r="B74">
         <v>36.75</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>22.38199958006332</v>
+        <v>22.24607006801261</v>
       </c>
       <c r="B75">
         <v>36.45</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>26.26000976497614</v>
+        <v>25.78755859639834</v>
       </c>
       <c r="B76">
         <v>36.25</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>26.27174635072677</v>
+        <v>26.25066068537526</v>
       </c>
       <c r="B77">
         <v>36.2833</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>23.24675614727363</v>
+        <v>23.14496429533401</v>
       </c>
       <c r="B78">
         <v>36.3</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>31.5350699018783</v>
+        <v>31.08656118444981</v>
       </c>
       <c r="B79">
         <v>36.45</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>44.68069662428358</v>
+        <v>44.55871224264035</v>
       </c>
       <c r="B80">
         <v>37.71666667</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>30.38117576704381</v>
+        <v>30.41943867232663</v>
       </c>
       <c r="B81">
         <v>37.05</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>27.53881510037932</v>
+        <v>27.40927015823877</v>
       </c>
       <c r="B82">
         <v>36.85</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>36.08083878181125</v>
+        <v>35.36027115679387</v>
       </c>
       <c r="B83">
         <v>45.9167</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>30.698875770738</v>
+        <v>30.25364192574084</v>
       </c>
       <c r="B84">
         <v>34.9018</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>28.7606315934851</v>
+        <v>28.2655019755338</v>
       </c>
       <c r="B85">
         <v>34.9056</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>30.93269215684687</v>
+        <v>30.37259302645546</v>
       </c>
       <c r="B86">
         <v>35.01944</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>29.144477395031</v>
+        <v>28.29285916456787</v>
       </c>
       <c r="B87">
         <v>36.1</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>31.52873814027556</v>
+        <v>31.51461935379731</v>
       </c>
       <c r="B88">
         <v>34.96417</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>29.144477395031</v>
+        <v>28.29285916456787</v>
       </c>
       <c r="B89">
         <v>36.1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>28.49366505513366</v>
+        <v>28.07700956174016</v>
       </c>
       <c r="B90">
         <v>34.90528</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>32.46706172493646</v>
+        <v>32.54213563355977</v>
       </c>
       <c r="B91">
         <v>45.5</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>29.6556884562857</v>
+        <v>29.48780967730118</v>
       </c>
       <c r="B92">
         <v>34.8925</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>30.12439077853089</v>
+        <v>29.67025732177017</v>
       </c>
       <c r="B93">
         <v>34.87556</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>27.866027082696</v>
+        <v>27.42335244504758</v>
       </c>
       <c r="B94">
         <v>36.3</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>44.82784790403825</v>
+        <v>44.46991746228441</v>
       </c>
       <c r="B95">
         <v>44.40416667</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>32.76414416150557</v>
+        <v>32.59515053333892</v>
       </c>
       <c r="B96">
         <v>37.5833</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>36.55468375648449</v>
+        <v>35.97327632275544</v>
       </c>
       <c r="B97">
         <v>37.7</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>39.04476701844179</v>
+        <v>38.28095861837865</v>
       </c>
       <c r="B98">
         <v>37.9333</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>36.71985713273727</v>
+        <v>36.61423095611575</v>
       </c>
       <c r="B99">
         <v>36.1</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>33.19543466713402</v>
+        <v>33.24280372550586</v>
       </c>
       <c r="B100">
         <v>36.1333</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>28.49846029241605</v>
+        <v>28.41555163664329</v>
       </c>
       <c r="B101">
         <v>40.6</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>33.17558874374517</v>
+        <v>32.98879415904526</v>
       </c>
       <c r="B102">
         <v>37.4333</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>27.96868203760634</v>
+        <v>28.54658515334415</v>
       </c>
       <c r="B103">
         <v>36.9167</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>29.94688910491598</v>
+        <v>30.30283565755205</v>
       </c>
       <c r="B104">
         <v>37.0667</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>30.06541053120285</v>
+        <v>30.30283565755205</v>
       </c>
       <c r="B105">
         <v>37.0833</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>34.45313732834059</v>
+        <v>33.99945407154743</v>
       </c>
       <c r="B106">
         <v>37.6</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>36.8050449721384</v>
+        <v>36.37271383527725</v>
       </c>
       <c r="B107">
         <v>37.6</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>43.84518774599506</v>
+        <v>43.88965711017308</v>
       </c>
       <c r="B108">
         <v>36.85</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>47.8982739386887</v>
+        <v>47.69607892431814</v>
       </c>
       <c r="B109">
         <v>37.5</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>37.9265069516936</v>
+        <v>37.81130501738336</v>
       </c>
       <c r="B110">
         <v>37.1667</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>47.37248431600931</v>
+        <v>47.88542628227813</v>
       </c>
       <c r="B111">
         <v>37.0444</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>28.38019801458973</v>
+        <v>28.45424503734859</v>
       </c>
       <c r="B112">
         <v>43.3333</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>58.19968004428806</v>
+        <v>57.81000511914608</v>
       </c>
       <c r="B113">
         <v>36.823</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>25.00015500961675</v>
+        <v>24.75207186434218</v>
       </c>
       <c r="B114">
         <v>43.44861</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>35.08158199778886</v>
+        <v>34.91652905518517</v>
       </c>
       <c r="B115">
         <v>40.850177</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>31.23996552931946</v>
+        <v>31.62239227620315</v>
       </c>
       <c r="B116">
         <v>43.392945</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>29.52818907215047</v>
+        <v>29.72545594480986</v>
       </c>
       <c r="B117">
         <v>43.758997</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>29.89104054142303</v>
+        <v>30.11606135996193</v>
       </c>
       <c r="B118">
         <v>43.433342</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>24.4747841757086</v>
+        <v>25.22923484256984</v>
       </c>
       <c r="B119">
         <v>43.323891</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>30.53468362974007</v>
+        <v>30.77575998851958</v>
       </c>
       <c r="B120">
         <v>43.164774</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>34.09632319307723</v>
+        <v>34.59460017592227</v>
       </c>
       <c r="B121">
         <v>42.514999</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>35.38018482805924</v>
+        <v>35.70085210695117</v>
       </c>
       <c r="B122">
         <v>42.514999</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>29.95977114338903</v>
+        <v>30.45936631739774</v>
       </c>
       <c r="B123">
         <v>42.5833</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>22.3457311026954</v>
+        <v>22.50558707623093</v>
       </c>
       <c r="B124">
         <v>39.53056</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>26.93561847935005</v>
+        <v>27.78850600716671</v>
       </c>
       <c r="B125">
         <v>38.701672</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>38.41111145691238</v>
+        <v>38.40217333728869</v>
       </c>
       <c r="B126">
         <v>37.82258</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>26.28406729385848</v>
+        <v>26.20941292646848</v>
       </c>
       <c r="B127">
         <v>38.779442</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>23.04740590696979</v>
+        <v>23.11897341726836</v>
       </c>
       <c r="B128">
         <v>39.15</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>38.73313114888576</v>
+        <v>38.44407070074547</v>
       </c>
       <c r="B129">
         <v>38.32688</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>27.75234469578992</v>
+        <v>28.62818511333385</v>
       </c>
       <c r="B130">
         <v>39.640282</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>25.80624729261636</v>
+        <v>26.64636617129668</v>
       </c>
       <c r="B131">
         <v>39.256672</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>40.9526520944929</v>
+        <v>40.81021484331801</v>
       </c>
       <c r="B132">
         <v>40.063611</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>31.34415480767622</v>
+        <v>31.176162261244</v>
       </c>
       <c r="B133">
         <v>39.758888</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>27.17619006284426</v>
+        <v>26.96913317115849</v>
       </c>
       <c r="B134">
         <v>39.339722</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>28.50797516252767</v>
+        <v>29.03892421289985</v>
       </c>
       <c r="B135">
         <v>39.35944</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>25.63616800616132</v>
+        <v>26.93465081906902</v>
       </c>
       <c r="B136">
         <v>39.10083</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>27.60046885727439</v>
+        <v>27.38075332026549</v>
       </c>
       <c r="B137">
         <v>39.301941</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>28.60957792164473</v>
+        <v>29.22171611091631</v>
       </c>
       <c r="B138">
         <v>39.212502</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>28.42220456381585</v>
+        <v>28.86398561154823</v>
       </c>
       <c r="B139">
         <v>39.312778</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>27.88877733467381</v>
+        <v>27.94118084827697</v>
       </c>
       <c r="B140">
         <v>39.321941</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>27.88877733467381</v>
+        <v>27.94118084827697</v>
       </c>
       <c r="B141">
         <v>39.326111</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>34.18676442408626</v>
+        <v>34.5137999666</v>
       </c>
       <c r="B142">
         <v>42.5147</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>28.43948830374666</v>
+        <v>28.81626324862455</v>
       </c>
       <c r="B143">
         <v>39.294998</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>31.0185001118538</v>
+        <v>31.29700810899902</v>
       </c>
       <c r="B144">
         <v>39.372219</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>29.15649152816722</v>
+        <v>29.6777838515126</v>
       </c>
       <c r="B145">
         <v>39.331108</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>28.10301956853821</v>
+        <v>28.00052546740965</v>
       </c>
       <c r="B146">
         <v>38.808331</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>28.05121451142776</v>
+        <v>28.38996152646212</v>
       </c>
       <c r="B147">
         <v>38.786942</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>27.89232398645417</v>
+        <v>27.63875706329099</v>
       </c>
       <c r="B148">
         <v>38.665001</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>28.44787209079854</v>
+        <v>28.70733665160859</v>
       </c>
       <c r="B149">
         <v>38.728329</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>36.43208178152436</v>
+        <v>35.85021042075387</v>
       </c>
       <c r="B150">
         <v>39.362221</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>32.71835299927252</v>
+        <v>32.55349245698829</v>
       </c>
       <c r="B151">
         <v>40.283333</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>30.17513453485475</v>
+        <v>30.59824726533861</v>
       </c>
       <c r="B152">
         <v>38.965832</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>59.50270857148112</v>
+        <v>59.63863971723016</v>
       </c>
       <c r="B153">
         <v>38.7775</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>44.92957435083864</v>
+        <v>45.22078486841045</v>
       </c>
       <c r="B154">
         <v>36.74167</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>53.37825336452475</v>
+        <v>53.45686313670804</v>
       </c>
       <c r="B155">
         <v>37.4744</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>46.18016354837128</v>
+        <v>46.54411690931273</v>
       </c>
       <c r="B156">
         <v>37.1167</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>39.3815694894216</v>
+        <v>39.89882238010429</v>
       </c>
       <c r="B157">
         <v>36.75</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>39.03058335722814</v>
+        <v>39.4280352607072</v>
       </c>
       <c r="B158">
         <v>36.70222</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>43.36306988367645</v>
+        <v>43.55591013027951</v>
       </c>
       <c r="B159">
         <v>37.083333</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>30.26964797959607</v>
+        <v>30.28434912626682</v>
       </c>
       <c r="B160">
         <v>39.15</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>54.90700885947155</v>
+        <v>55.53038636494122</v>
       </c>
       <c r="B161">
         <v>38.8</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>54.80267684161902</v>
+        <v>55.7264347018131</v>
       </c>
       <c r="B162">
         <v>38.77</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>54.80267684161902</v>
+        <v>55.7264347018131</v>
       </c>
       <c r="B163">
         <v>38.776</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>57.41574101930586</v>
+        <v>57.99394895086419</v>
       </c>
       <c r="B164">
         <v>38.78</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>44.92957435083864</v>
+        <v>45.22078486841045</v>
       </c>
       <c r="B165">
         <v>36.746</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>38.81249597992206</v>
+        <v>39.1124257308155</v>
       </c>
       <c r="B166">
         <v>36.625</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>57.44674666402013</v>
+        <v>57.76896934504678</v>
       </c>
       <c r="B167">
         <v>38.74</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>57.66053051865985</v>
+        <v>57.92787451922482</v>
       </c>
       <c r="B168">
         <v>38.75583</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>43.33102635469636</v>
+        <v>43.53762129842125</v>
       </c>
       <c r="B169">
         <v>42.76369</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>44.69182988799488</v>
+        <v>45.45664234629287</v>
       </c>
       <c r="B170">
         <v>42.85431</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>44.78771833710897</v>
+        <v>45.51991277525617</v>
       </c>
       <c r="B171">
         <v>42.94437</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>44.88003526657259</v>
+        <v>45.45565849697519</v>
       </c>
       <c r="B172">
         <v>42.85445</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>47.03639508855992</v>
+        <v>47.91290057596386</v>
       </c>
       <c r="B173">
         <v>42.89858</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>43.97942963899169</v>
+        <v>44.5103358567895</v>
       </c>
       <c r="B174">
         <v>42.96808</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>33.81966576762196</v>
+        <v>33.86891430008941</v>
       </c>
       <c r="B175">
         <v>43.46493</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>34.02005598962782</v>
+        <v>33.65508805117989</v>
       </c>
       <c r="B176">
         <v>43.17554</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>35.18666986810453</v>
+        <v>34.87856634470387</v>
       </c>
       <c r="B177">
         <v>43.17218</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>57.31721502648371</v>
+        <v>57.63014191068866</v>
       </c>
       <c r="B178">
         <v>38.74028</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>57.87853826041664</v>
+        <v>58.4559848324559</v>
       </c>
       <c r="B179">
         <v>38.7333</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>59.76718685404156</v>
+        <v>60.35200619449769</v>
       </c>
       <c r="B180">
         <v>38.983333</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>55.86816358329498</v>
+        <v>55.91824994784997</v>
       </c>
       <c r="B181">
         <v>37.4167</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>48.42098923713009</v>
+        <v>49.34013885518128</v>
       </c>
       <c r="B182">
         <v>40.8767</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>56.45662640032086</v>
+        <v>57.05729126170171</v>
       </c>
       <c r="B183">
         <v>38.51</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>57.64889148407417</v>
+        <v>58.20565877181455</v>
       </c>
       <c r="B184">
         <v>39.95</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>58.6014039236214</v>
+        <v>58.92119055664744</v>
       </c>
       <c r="B185">
         <v>38.78</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>56.93571890156973</v>
+        <v>57.81321582797726</v>
       </c>
       <c r="B186">
         <v>39.95</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>56.89920587330529</v>
+        <v>57.78699661471078</v>
       </c>
       <c r="B187">
         <v>39.96</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>56.89920587330529</v>
+        <v>57.78699661471078</v>
       </c>
       <c r="B188">
         <v>39.96</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>47.16001812834755</v>
+        <v>47.75849578899701</v>
       </c>
       <c r="B189">
         <v>39.95</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>47.13361682290856</v>
+        <v>47.74227426529369</v>
       </c>
       <c r="B190">
         <v>39.96</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>56.96737963350978</v>
+        <v>57.99578452573949</v>
       </c>
       <c r="B191">
         <v>39.924</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>56.4577847455208</v>
+        <v>57.10788414357171</v>
       </c>
       <c r="B192">
         <v>41.0386</v>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>50.2276009464743</v>
+        <v>51.27985145035178</v>
       </c>
       <c r="B193">
         <v>40.05</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>59.06962267599066</v>
+        <v>59.99400944749753</v>
       </c>
       <c r="B194">
         <v>41.04</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>54.56841875379877</v>
+        <v>55.15198091769592</v>
       </c>
       <c r="B195">
         <v>40.9936</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>48.9688940061024</v>
+        <v>48.88021407567382</v>
       </c>
       <c r="B196">
         <v>40.06</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>57.59106224576774</v>
+        <v>58.39952375595396</v>
       </c>
       <c r="B197">
         <v>40.05</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>60.35939825219619</v>
+        <v>60.63627985640053</v>
       </c>
       <c r="B198">
         <v>40.05</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>49.05794544313155</v>
+        <v>48.74023839707399</v>
       </c>
       <c r="B199">
         <v>40.431</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>49.13691720671689</v>
+        <v>48.77060455246583</v>
       </c>
       <c r="B200">
         <v>40.404</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>60.47395204894779</v>
+        <v>60.50949684257537</v>
       </c>
       <c r="B201">
         <v>38.3333</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>51.69092641555905</v>
+        <v>51.64450864903952</v>
       </c>
       <c r="B202">
         <v>41.7148</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>50.04452306830447</v>
+        <v>49.87447750079266</v>
       </c>
       <c r="B203">
         <v>40.5264</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>47.35152876649434</v>
+        <v>47.45820378886887</v>
       </c>
       <c r="B204">
         <v>42.61</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>47.31467532833719</v>
+        <v>47.45820378886887</v>
       </c>
       <c r="B205">
         <v>42.616005</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>45.42982230080933</v>
+        <v>45.36366555428326</v>
       </c>
       <c r="B206">
         <v>37.249</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>60.84633135604062</v>
+        <v>61.4525238315466</v>
       </c>
       <c r="B207">
         <v>39.9786</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>51.7191298581552</v>
+        <v>51.66413000597153</v>
       </c>
       <c r="B208">
         <v>38.2337</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>57.32958316541982</v>
+        <v>56.7632463571736</v>
       </c>
       <c r="B209">
         <v>36.861</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>57.32958316541982</v>
+        <v>56.7632463571736</v>
       </c>
       <c r="B210">
         <v>36.87</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>42.69155355455301</v>
+        <v>42.5083000330567</v>
       </c>
       <c r="B211">
         <v>37.24</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>39.68889525860313</v>
+        <v>40.43696825741272</v>
       </c>
       <c r="B212">
         <v>36.88</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>56.44199699885853</v>
+        <v>56.76334275213894</v>
       </c>
       <c r="B213">
         <v>37.9007</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>56.54310043754217</v>
+        <v>56.8319435612271</v>
       </c>
       <c r="B214">
         <v>37.9007</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>57.84275770679847</v>
+        <v>57.69446009454503</v>
       </c>
       <c r="B215">
         <v>36.807657</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>51.30480092666553</v>
+        <v>51.4188464927344</v>
       </c>
       <c r="B216">
         <v>37.68</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>47.84758589282673</v>
+        <v>47.65517613802632</v>
       </c>
       <c r="B217">
         <v>37.26659</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>58.37653865319604</v>
+        <v>59.25157397523544</v>
       </c>
       <c r="B218">
         <v>41.1144</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>53.53243321566995</v>
+        <v>53.52871744661593</v>
       </c>
       <c r="B219">
         <v>37.751</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>50.09148960198571</v>
+        <v>50.48557538844738</v>
       </c>
       <c r="B220">
         <v>37.2667</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>42.07417227253831</v>
+        <v>42.52101870588793</v>
       </c>
       <c r="B221">
         <v>36.894</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>43.74375328794082</v>
+        <v>44.17387299600918</v>
       </c>
       <c r="B222">
         <v>36.876</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>62.71724464330776</v>
+        <v>62.79831540092452</v>
       </c>
       <c r="B223">
         <v>41.0222</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>62.71724464330776</v>
+        <v>62.79831540092452</v>
       </c>
       <c r="B224">
         <v>41.0313</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>53.42770273589469</v>
+        <v>53.76954000340257</v>
       </c>
       <c r="B225">
         <v>37.72</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>51.69747121403203</v>
+        <v>51.71136582816195</v>
       </c>
       <c r="B226">
         <v>37.53</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>62.33372800396997</v>
+        <v>62.40533584152055</v>
       </c>
       <c r="B227">
         <v>37.3333</v>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>53.15028999061533</v>
+        <v>53.31282234963428</v>
       </c>
       <c r="B228">
         <v>37.44</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>48.82629530870138</v>
+        <v>48.82009352704932</v>
       </c>
       <c r="B229">
         <v>36.9674</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>67.15677995453538</v>
+        <v>67.19748636654889</v>
       </c>
       <c r="B230">
         <v>40.2551</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>49.99089432871607</v>
+        <v>49.53429141095127</v>
       </c>
       <c r="B231">
         <v>42.808</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>40.37920657100206</v>
+        <v>40.74303576876639</v>
       </c>
       <c r="B232">
         <v>36.663</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>52.68579236598369</v>
+        <v>52.52253782593785</v>
       </c>
       <c r="B233">
         <v>42.825</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>41.08218519533396</v>
+        <v>41.7999689403069</v>
       </c>
       <c r="B234">
         <v>36.741</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>38.81249597992206</v>
+        <v>39.13616835965563</v>
       </c>
       <c r="B235">
         <v>36.632</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>49.02782201950298</v>
+        <v>49.33594796367843</v>
       </c>
       <c r="B236">
         <v>37.19472</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>39.14052040212086</v>
+        <v>39.4556334569025</v>
       </c>
       <c r="B237">
         <v>36.705</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>49.85292754885188</v>
+        <v>49.80593881450662</v>
       </c>
       <c r="B238">
         <v>41.306</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>48.07974743843954</v>
+        <v>47.80780170669122</v>
       </c>
       <c r="B239">
         <v>41.53</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>46.16177640978173</v>
+        <v>46.01467447709848</v>
       </c>
       <c r="B240">
         <v>41.5336</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>47.9039912183222</v>
+        <v>48.12479428495986</v>
       </c>
       <c r="B241">
         <v>41.84289</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>48.43907158832387</v>
+        <v>48.52783585872702</v>
       </c>
       <c r="B242">
         <v>41.8167</v>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>49.43231321870029</v>
+        <v>49.31491107213166</v>
       </c>
       <c r="B243">
         <v>41.759909</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>45.76544378530297</v>
+        <v>45.61098580940468</v>
       </c>
       <c r="B244">
         <v>40.4112</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>42.83770188842841</v>
+        <v>42.59950139804433</v>
       </c>
       <c r="B245">
         <v>39.3167</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>43.19859407773509</v>
+        <v>43.02726238750603</v>
       </c>
       <c r="B246">
         <v>37.15</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>47.89295583385979</v>
+        <v>48.89215888161327</v>
       </c>
       <c r="B247">
         <v>40.61</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>48.34951882306324</v>
+        <v>49.28463779793672</v>
       </c>
       <c r="B248">
         <v>40.85</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>52.33650202191829</v>
+        <v>52.28638436796754</v>
       </c>
       <c r="B249">
         <v>40.94</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>49.93446401732845</v>
+        <v>50.59902651916343</v>
       </c>
       <c r="B250">
         <v>42.58</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>46.77123860512786</v>
+        <v>46.61155097316184</v>
       </c>
       <c r="B251">
         <v>47.4894</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>48.08149803567116</v>
+        <v>47.83455773741807</v>
       </c>
       <c r="B252">
         <v>41.31</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>46.36991014488156</v>
+        <v>46.66822644668297</v>
       </c>
       <c r="B253">
         <v>41.31</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>53.30028761502339</v>
+        <v>53.63982575419689</v>
       </c>
       <c r="B254">
         <v>37.9667</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>43.95761427011603</v>
+        <v>44.66772838343422</v>
       </c>
       <c r="B255">
         <v>44.5576</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>45.31583790075564</v>
+        <v>45.41656574217731</v>
       </c>
       <c r="B256">
         <v>45.72929</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>38.69512745463859</v>
+        <v>38.32522030852594</v>
       </c>
       <c r="B257">
         <v>42.411119</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>34.779955722061</v>
+        <v>34.86525407372529</v>
       </c>
       <c r="B258">
         <v>43.148646</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>33.88258678233457</v>
+        <v>34.25214374585705</v>
       </c>
       <c r="B259">
         <v>43.120632</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>34.9587446843025</v>
+        <v>34.55839600145039</v>
       </c>
       <c r="B260">
         <v>42.9473</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>39.06495515917447</v>
+        <v>39.23486113753631</v>
       </c>
       <c r="B261">
         <v>36.771932</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>40.96605500317197</v>
+        <v>41.53998409377658</v>
       </c>
       <c r="B262">
         <v>38.106939</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>47.78767197630771</v>
+        <v>47.99606212292398</v>
       </c>
       <c r="B263">
         <v>42.5261</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>51.7191298581552</v>
+        <v>51.66413000597153</v>
       </c>
       <c r="B264">
         <v>38.2461</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>27.12705232947898</v>
+        <v>27.86824670229825</v>
       </c>
       <c r="B265">
         <v>43.957236</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>35.64705923068961</v>
+        <v>35.2840230144144</v>
       </c>
       <c r="B266">
         <v>40.666577</v>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>33.36306070821831</v>
+        <v>32.88599378708194</v>
       </c>
       <c r="B267">
         <v>40.783333</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>45.59289694741938</v>
+        <v>45.64070611320574</v>
       </c>
       <c r="B268">
         <v>45.73047</v>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>47.28161015180117</v>
+        <v>47.21095930534233</v>
       </c>
       <c r="B269">
         <v>47.4275</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>45.2429260979365</v>
+        <v>45.39583939439457</v>
       </c>
       <c r="B270">
         <v>46.7911</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>46.23875182143125</v>
+        <v>45.88025741056038</v>
       </c>
       <c r="B271">
         <v>46.6307</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>46.30107346804082</v>
+        <v>46.45028918409705</v>
       </c>
       <c r="B272">
         <v>47.3929</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>56.54310043754217</v>
+        <v>56.8319435612271</v>
       </c>
       <c r="B273">
         <v>37.9083</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>46.47389255453997</v>
+        <v>47.36484433476488</v>
       </c>
       <c r="B274">
         <v>42.58263</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>43.24553890824717</v>
+        <v>43.59055916026944</v>
       </c>
       <c r="B275">
         <v>42.651132</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>48.12595643221572</v>
+        <v>47.68462677426662</v>
       </c>
       <c r="B276">
         <v>46.6907</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277">
-        <v>46.82452871580179</v>
+        <v>47.34057703937702</v>
       </c>
       <c r="B277">
         <v>42.65</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>48.53849566683441</v>
+        <v>47.89566140595052</v>
       </c>
       <c r="B278">
         <v>42.6742</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>47.33610945867524</v>
+        <v>47.33950613194247</v>
       </c>
       <c r="B279">
         <v>47.4353</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280">
-        <v>47.20761061110059</v>
+        <v>47.38452197795344</v>
       </c>
       <c r="B280">
         <v>47.3976</v>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>43.17844067306511</v>
+        <v>43.75865012276427</v>
       </c>
       <c r="B281">
         <v>42.94423</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>48.62687275368489</v>
+        <v>48.21169476217366</v>
       </c>
       <c r="B282">
         <v>47.1748</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283">
-        <v>27.46790637858321</v>
+        <v>28.30031852365319</v>
       </c>
       <c r="B283">
         <v>38.33713</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>27.64859071775856</v>
+        <v>28.43896655117014</v>
       </c>
       <c r="B284">
         <v>39.5</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>33.14768721983815</v>
+        <v>32.76187228431852</v>
       </c>
       <c r="B285">
         <v>40.233333</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
-        <v>27.25795633556151</v>
+        <v>28.0066306644638</v>
       </c>
       <c r="B286">
         <v>39.707218</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>28.59685166704872</v>
+        <v>29.06033719138076</v>
       </c>
       <c r="B287">
         <v>39.165829</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>33.59945117651083</v>
+        <v>33.59003856131822</v>
       </c>
       <c r="B288">
         <v>40.114719</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289">
-        <v>31.78316780675595</v>
+        <v>32.01715929002409</v>
       </c>
       <c r="B289">
         <v>40.299999</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
-        <v>31.71292035574199</v>
+        <v>31.50533464048731</v>
       </c>
       <c r="B290">
         <v>40.103889</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>30.95021544402022</v>
+        <v>31.18809760209041</v>
       </c>
       <c r="B291">
         <v>40.193329</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>32.6077171912448</v>
+        <v>32.60257928531733</v>
       </c>
       <c r="B292">
         <v>39.852219</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>50.83187698735503</v>
+        <v>51.77436921209798</v>
       </c>
       <c r="B293">
         <v>37.3</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>30.50163367183309</v>
+        <v>31.01844980829704</v>
       </c>
       <c r="B294">
         <v>40.28611</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295">
-        <v>30.80163329547099</v>
+        <v>31.08823954213139</v>
       </c>
       <c r="B295">
         <v>40.177502</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>43.74805929373909</v>
+        <v>43.52423452667696</v>
       </c>
       <c r="B296">
         <v>40.07917</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>30.18845236891404</v>
+        <v>30.58088245395727</v>
       </c>
       <c r="B297">
         <v>40.130001</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
-        <v>44.88505896056289</v>
+        <v>45.11055980231335</v>
       </c>
       <c r="B298">
         <v>40.283329</v>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>45.36551444910052</v>
+        <v>45.65880757652856</v>
       </c>
       <c r="B299">
         <v>40.291111</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>43.33651545283213</v>
+        <v>43.43893647381124</v>
       </c>
       <c r="B300">
         <v>40.18417</v>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>33.8461704969828</v>
+        <v>33.75935755839053</v>
       </c>
       <c r="B301">
         <v>40.442219</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>28.60475222489804</v>
+        <v>28.27654771713697</v>
       </c>
       <c r="B302">
         <v>38.625</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>30.59145427402318</v>
+        <v>31.15066201583706</v>
       </c>
       <c r="B303">
         <v>40.223888</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>57.23524825224595</v>
+        <v>57.2093652509451</v>
       </c>
       <c r="B304">
         <v>36.9833</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>32.71835299927252</v>
+        <v>32.55349245698829</v>
       </c>
       <c r="B305">
         <v>40.29361</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>47.48311674449101</v>
+        <v>47.94880764254624</v>
       </c>
       <c r="B306">
         <v>40.483891</v>
@@ -3754,7 +3754,7 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307">
-        <v>41.32259621886897</v>
+        <v>41.12594790554321</v>
       </c>
       <c r="B307">
         <v>39.708611</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>33.82963587915625</v>
+        <v>34.28744739280245</v>
       </c>
       <c r="B308">
         <v>40.298328</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>34.79132847089247</v>
+        <v>34.93284497093115</v>
       </c>
       <c r="B309">
         <v>40.633333</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310">
-        <v>33.21836995355621</v>
+        <v>33.49102640135501</v>
       </c>
       <c r="B310">
         <v>38.944439</v>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311">
-        <v>32.52146486314962</v>
+        <v>32.71208483585845</v>
       </c>
       <c r="B311">
         <v>38.85194</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312">
-        <v>42.42997900963694</v>
+        <v>42.16035101356786</v>
       </c>
       <c r="B312">
         <v>40.735001</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313">
-        <v>40.62667179505451</v>
+        <v>41.23378782335936</v>
       </c>
       <c r="B313">
         <v>36.95</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314">
-        <v>32.0793151407627</v>
+        <v>32.48315890954304</v>
       </c>
       <c r="B314">
         <v>38.919441</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315">
-        <v>32.05764519354058</v>
+        <v>32.47864883174759</v>
       </c>
       <c r="B315">
         <v>38.923061</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316">
-        <v>32.29911602181467</v>
+        <v>32.38733707842437</v>
       </c>
       <c r="B316">
         <v>40.816667</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317">
-        <v>32.63871183260164</v>
+        <v>32.47960934598957</v>
       </c>
       <c r="B317">
         <v>39.665562</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
-        <v>34.68713056039271</v>
+        <v>34.71854024971054</v>
       </c>
       <c r="B318">
         <v>40.60194</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319">
-        <v>32.24662654152869</v>
+        <v>32.27488518429573</v>
       </c>
       <c r="B319">
         <v>38.9</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320">
-        <v>33.95442640070631</v>
+        <v>33.76034914858762</v>
       </c>
       <c r="B320">
         <v>40.493889</v>
@@ -3908,7 +3908,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>48.95505734540848</v>
+        <v>49.79328275097532</v>
       </c>
       <c r="B321">
         <v>37.2333</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
-        <v>31.54075500721947</v>
+        <v>31.37414469883288</v>
       </c>
       <c r="B322">
         <v>38.728062</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
-        <v>32.63003998913192</v>
+        <v>32.91331799005692</v>
       </c>
       <c r="B323">
         <v>38.56694</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
-        <v>36.72854792003213</v>
+        <v>36.59677421342381</v>
       </c>
       <c r="B324">
         <v>40.083333</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325">
-        <v>30.62013474558523</v>
+        <v>31.48479160641999</v>
       </c>
       <c r="B325">
         <v>39.798889</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326">
-        <v>30.02807755732388</v>
+        <v>29.95422631922778</v>
       </c>
       <c r="B326">
         <v>38.50528</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327">
-        <v>31.49866111339568</v>
+        <v>32.37558203289838</v>
       </c>
       <c r="B327">
         <v>39.900002</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
-        <v>33.02969060910739</v>
+        <v>33.42378165035917</v>
       </c>
       <c r="B328">
         <v>39.71944</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329">
-        <v>29.17642037227976</v>
+        <v>29.85230727184765</v>
       </c>
       <c r="B329">
         <v>38.419998</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>29.33061893404868</v>
+        <v>29.58487777630482</v>
       </c>
       <c r="B330">
         <v>37.96944</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
-        <v>30.86394463421217</v>
+        <v>31.27673104385282</v>
       </c>
       <c r="B331">
         <v>39.92889</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332">
-        <v>26.75855499590986</v>
+        <v>27.07853302762069</v>
       </c>
       <c r="B332">
         <v>40.03083</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333">
-        <v>31.68288700491408</v>
+        <v>31.15294464164893</v>
       </c>
       <c r="B333">
         <v>38.683333</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334">
-        <v>33.15839536063909</v>
+        <v>33.44355993654635</v>
       </c>
       <c r="B334">
         <v>40.093609</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335">
-        <v>36.03077084137579</v>
+        <v>36.13313717543919</v>
       </c>
       <c r="B335">
         <v>39.910278</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336">
-        <v>32.99124057467624</v>
+        <v>32.63664313655264</v>
       </c>
       <c r="B336">
         <v>38.059441</v>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>33.18319104875391</v>
+        <v>32.92351354593433</v>
       </c>
       <c r="B337">
         <v>38.03611</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>36.04818647097855</v>
+        <v>35.886019389073</v>
       </c>
       <c r="B338">
         <v>39.98056</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>33.1029054459186</v>
+        <v>33.09522075742584</v>
       </c>
       <c r="B339">
         <v>37.980831</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>35.42646494196948</v>
+        <v>35.03406974590261</v>
       </c>
       <c r="B340">
         <v>39.92944</v>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>47.18379332198523</v>
+        <v>47.06483689188235</v>
       </c>
       <c r="B341">
         <v>37.25917</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>30.65957164464549</v>
+        <v>31.19864150024109</v>
       </c>
       <c r="B342">
         <v>39.895561</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
-        <v>42.03126825181698</v>
+        <v>41.85313736069047</v>
       </c>
       <c r="B343">
         <v>38.484169</v>
@@ -4161,7 +4161,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>31.35036607760908</v>
+        <v>30.64222810638956</v>
       </c>
       <c r="B344">
         <v>37.281391</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>33.51321029352184</v>
+        <v>33.5759114327379</v>
       </c>
       <c r="B345">
         <v>37.235561</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346">
-        <v>34.26635667191701</v>
+        <v>33.91704414934974</v>
       </c>
       <c r="B346">
         <v>38.95528</v>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>30.34041108854587</v>
+        <v>30.99482808957143</v>
       </c>
       <c r="B347">
         <v>39.762779</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>31.83326355675064</v>
+        <v>31.09321809222305</v>
       </c>
       <c r="B348">
         <v>37.288609</v>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349">
-        <v>35.42963180578625</v>
+        <v>35.41483143283249</v>
       </c>
       <c r="B349">
         <v>37.155281</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350">
-        <v>29.86121535493671</v>
+        <v>29.43934246897076</v>
       </c>
       <c r="B350">
         <v>38.478611</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
-        <v>43.59484960202039</v>
+        <v>43.80335009952744</v>
       </c>
       <c r="B351">
         <v>39.567501</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
-        <v>33.07922474902988</v>
+        <v>33.37780267473423</v>
       </c>
       <c r="B352">
         <v>38.3825</v>
@@ -4260,7 +4260,7 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>25.054647016583</v>
+        <v>26.07935858438359</v>
       </c>
       <c r="B353">
         <v>41.22361</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354">
-        <v>29.97481798284624</v>
+        <v>29.95136729402972</v>
       </c>
       <c r="B354">
         <v>40.733333</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>40.21851965565259</v>
+        <v>41.10340330857369</v>
       </c>
       <c r="B355">
         <v>41.285561</v>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>48.33196697893646</v>
+        <v>48.39511508155486</v>
       </c>
       <c r="B356">
         <v>38.512218</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>25.73615137293594</v>
+        <v>25.85129642160798</v>
       </c>
       <c r="B357">
         <v>40.51556</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>25.75798272202967</v>
+        <v>27.03215301181329</v>
       </c>
       <c r="B358">
         <v>40.983333</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>48.07652833885879</v>
+        <v>48.34631353917247</v>
       </c>
       <c r="B359">
         <v>42.3358</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>46.35605312081309</v>
+        <v>46.26727176270597</v>
       </c>
       <c r="B360">
         <v>37.26472</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>26.75528759227005</v>
+        <v>27.50958641425949</v>
       </c>
       <c r="B361">
         <v>41.037498</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>36.19409192807325</v>
+        <v>36.65655423580175</v>
       </c>
       <c r="B362">
         <v>38.208328</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>41.24223703417057</v>
+        <v>42.27745341651104</v>
       </c>
       <c r="B363">
         <v>41.282219</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>28.93821145183152</v>
+        <v>29.67383853690662</v>
       </c>
       <c r="B364">
         <v>41.341389</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>43.65038068307545</v>
+        <v>44.62817140452647</v>
       </c>
       <c r="B365">
         <v>41.1875</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>28.77186594040079</v>
+        <v>29.40233769747994</v>
       </c>
       <c r="B366">
         <v>41.38306</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367">
-        <v>28.31009765760091</v>
+        <v>29.24301456814313</v>
       </c>
       <c r="B367">
         <v>41.259171</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368">
-        <v>28.30525294166746</v>
+        <v>29.28583589341534</v>
       </c>
       <c r="B368">
         <v>41.150002</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369">
-        <v>31.59310196658356</v>
+        <v>31.65103076664989</v>
       </c>
       <c r="B369">
         <v>41.306938</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370">
-        <v>29.31230760987974</v>
+        <v>30.06744871763732</v>
       </c>
       <c r="B370">
         <v>41.109718</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371">
-        <v>40.68172213426135</v>
+        <v>41.17883809240525</v>
       </c>
       <c r="B371">
         <v>41.073059</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372">
-        <v>29.46066499574138</v>
+        <v>30.49700422836205</v>
       </c>
       <c r="B372">
         <v>41.100559</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373">
-        <v>45.84371563483739</v>
+        <v>46.27547217099597</v>
       </c>
       <c r="B373">
         <v>37.2231</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374">
-        <v>34.51808744333982</v>
+        <v>34.29283655190655</v>
       </c>
       <c r="B374">
         <v>38.654171</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375">
-        <v>31.18736032750805</v>
+        <v>31.40238043608419</v>
       </c>
       <c r="B375">
         <v>37.933333</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376">
-        <v>33.60789863776696</v>
+        <v>33.85236462812962</v>
       </c>
       <c r="B376">
         <v>38.63333</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377">
-        <v>33.40033837486851</v>
+        <v>33.13701523193723</v>
       </c>
       <c r="B377">
         <v>35.35</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378">
-        <v>29.78306758693691</v>
+        <v>30.08429850083125</v>
       </c>
       <c r="B378">
         <v>40.876389</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379">
-        <v>37.63585775761624</v>
+        <v>37.86199679486664</v>
       </c>
       <c r="B379">
         <v>41.362782</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380">
-        <v>29.79587027789066</v>
+        <v>29.72202613142034</v>
       </c>
       <c r="B380">
         <v>41.160278</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381">
-        <v>31.37890084213842</v>
+        <v>31.87646723698656</v>
       </c>
       <c r="B381">
         <v>41.118889</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382">
-        <v>35.60340471228355</v>
+        <v>35.53483340325143</v>
       </c>
       <c r="B382">
         <v>41.116669</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383">
-        <v>58.37653865319604</v>
+        <v>59.25157397523544</v>
       </c>
       <c r="B383">
         <v>41.1253</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384">
-        <v>32.10685311767095</v>
+        <v>32.56080632495213</v>
       </c>
       <c r="B384">
         <v>41.33083</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385">
-        <v>39.67504034173992</v>
+        <v>39.8865244919746</v>
       </c>
       <c r="B385">
         <v>37.133333</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386">
-        <v>30.81272645675521</v>
+        <v>31.57412844578681</v>
       </c>
       <c r="B386">
         <v>41.28833</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387">
-        <v>32.7861516500289</v>
+        <v>33.0534576172315</v>
       </c>
       <c r="B387">
         <v>41.058331</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388">
-        <v>33.28585102567156</v>
+        <v>33.49023834908974</v>
       </c>
       <c r="B388">
         <v>41.133888</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389">
-        <v>44.78969027447884</v>
+        <v>45.68688610934243</v>
       </c>
       <c r="B389">
         <v>40.967136</v>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390">
-        <v>34.04573997847631</v>
+        <v>34.56795764041319</v>
       </c>
       <c r="B390">
         <v>41.107498</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391">
-        <v>33.8154654423913</v>
+        <v>34.37395604027654</v>
       </c>
       <c r="B391">
         <v>41.14444</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392">
-        <v>32.1187023758204</v>
+        <v>32.20031961914785</v>
       </c>
       <c r="B392">
         <v>37.4</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393">
-        <v>43.71636627570405</v>
+        <v>44.31704772698821</v>
       </c>
       <c r="B393">
         <v>40.969719</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394">
-        <v>53.53243321566995</v>
+        <v>53.52871744661593</v>
       </c>
       <c r="B394">
         <v>37.7433</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395">
-        <v>30.94563551475734</v>
+        <v>31.14457816241101</v>
       </c>
       <c r="B395">
         <v>37.45</v>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396">
-        <v>32.46501267237826</v>
+        <v>32.56746144686349</v>
       </c>
       <c r="B396">
         <v>37.116667</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397">
-        <v>47.2789508741626</v>
+        <v>47.62566409393419</v>
       </c>
       <c r="B397">
         <v>41.17083</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398">
-        <v>37.28845389383894</v>
+        <v>37.55704071159002</v>
       </c>
       <c r="B398">
         <v>41.133333</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399">
-        <v>26.81945147079455</v>
+        <v>26.96199140240201</v>
       </c>
       <c r="B399">
         <v>35.15</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400">
-        <v>44.37732567108338</v>
+        <v>44.48326467149793</v>
       </c>
       <c r="B400">
         <v>41.016667</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401">
-        <v>34.79255907306701</v>
+        <v>35.00178081102788</v>
       </c>
       <c r="B401">
         <v>41.1</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402">
-        <v>40.31391237228146</v>
+        <v>40.15270822412158</v>
       </c>
       <c r="B402">
         <v>42.04556</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403">
-        <v>33.44165734497994</v>
+        <v>34.03797515487711</v>
       </c>
       <c r="B403">
         <v>42.66972</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404">
-        <v>30.46535592033412</v>
+        <v>30.2485588472236</v>
       </c>
       <c r="B404">
         <v>38.35</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405">
-        <v>37.05548643035572</v>
+        <v>37.76972701076058</v>
       </c>
       <c r="B405">
         <v>44.02356</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406">
-        <v>38.23427218909362</v>
+        <v>38.59588287260131</v>
       </c>
       <c r="B406">
         <v>44.11356</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407">
-        <v>39.55404904866069</v>
+        <v>39.54343698382218</v>
       </c>
       <c r="B407">
         <v>44.38359</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408">
-        <v>38.14224466224657</v>
+        <v>38.9752527925508</v>
       </c>
       <c r="B408">
         <v>44.29258</v>
@@ -4876,7 +4876,7 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409">
-        <v>41.46836680058441</v>
+        <v>41.82399750930801</v>
       </c>
       <c r="B409">
         <v>44.74008</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410">
-        <v>42.50815824739346</v>
+        <v>42.4768520939047</v>
       </c>
       <c r="B410">
         <v>44.566667</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411">
-        <v>48.54302878904011</v>
+        <v>48.52867440915533</v>
       </c>
       <c r="B411">
         <v>37.311944</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412">
-        <v>42.22916058368241</v>
+        <v>42.24587535730841</v>
       </c>
       <c r="B412">
         <v>44.466667</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413">
-        <v>43.98023149712275</v>
+        <v>43.39520228100237</v>
       </c>
       <c r="B413">
         <v>44.433333</v>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414">
-        <v>45.43186926163283</v>
+        <v>45.24587323814818</v>
       </c>
       <c r="B414">
         <v>44.75</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415">
-        <v>41.88450005573246</v>
+        <v>41.75001194111321</v>
       </c>
       <c r="B415">
         <v>44.820921</v>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416">
-        <v>41.95791968227083</v>
+        <v>41.95573286713254</v>
       </c>
       <c r="B416">
         <v>44.823856</v>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417">
-        <v>41.95791968227083</v>
+        <v>41.95573286713254</v>
       </c>
       <c r="B417">
         <v>44.844858</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418">
-        <v>44.67277524945286</v>
+        <v>44.53541800594193</v>
       </c>
       <c r="B418">
         <v>44.8494</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419">
-        <v>44.67277524945286</v>
+        <v>44.53541800594193</v>
       </c>
       <c r="B419">
         <v>44.854971</v>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420">
-        <v>42.0095609817697</v>
+        <v>42.26611979247366</v>
       </c>
       <c r="B420">
         <v>44.927407</v>
@@ -5008,7 +5008,7 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421">
-        <v>67.55429722422556</v>
+        <v>67.9633804363496</v>
       </c>
       <c r="B421">
         <v>41.4333</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422">
-        <v>41.74147256923994</v>
+        <v>42.05792943576617</v>
       </c>
       <c r="B422">
         <v>44.857177</v>
@@ -5030,7 +5030,7 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423">
-        <v>41.74147256923994</v>
+        <v>42.05792943576617</v>
       </c>
       <c r="B423">
         <v>44.866667</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424">
-        <v>41.3293211852868</v>
+        <v>41.26753170789704</v>
       </c>
       <c r="B424">
         <v>44.950282</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425">
-        <v>43.7690698340851</v>
+        <v>43.53986732821553</v>
       </c>
       <c r="B425">
         <v>44.903794</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426">
-        <v>43.7690698340851</v>
+        <v>43.53986732821553</v>
       </c>
       <c r="B426">
         <v>44.916667</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427">
-        <v>43.3693528381288</v>
+        <v>43.22050424560699</v>
       </c>
       <c r="B427">
         <v>44.926883</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428">
-        <v>41.57636565479442</v>
+        <v>41.33020770827409</v>
       </c>
       <c r="B428">
         <v>44.924946</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429">
-        <v>43.09175437397282</v>
+        <v>43.35749890195172</v>
       </c>
       <c r="B429">
         <v>44.932841</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430">
-        <v>62.73478943408865</v>
+        <v>62.81438914534689</v>
       </c>
       <c r="B430">
         <v>41.0328</v>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431">
-        <v>45.64297354218562</v>
+        <v>45.42883813730128</v>
       </c>
       <c r="B431">
         <v>44.75888</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432">
-        <v>44.30741764960061</v>
+        <v>44.08689548058886</v>
       </c>
       <c r="B432">
         <v>44.703669</v>
@@ -5140,7 +5140,7 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433">
-        <v>40.18826179247573</v>
+        <v>38.70690192615758</v>
       </c>
       <c r="B433">
         <v>37.4</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434">
-        <v>48.16869148295993</v>
+        <v>48.42064595599015</v>
       </c>
       <c r="B434">
         <v>37.05</v>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435">
-        <v>48.13630172917733</v>
+        <v>48.42064595599015</v>
       </c>
       <c r="B435">
         <v>37.016667</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436">
-        <v>32.69529205455561</v>
+        <v>32.31546660915248</v>
       </c>
       <c r="B436">
         <v>44.37758</v>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437">
-        <v>30.62542336212817</v>
+        <v>31.04297068037334</v>
       </c>
       <c r="B437">
         <v>44.46759</v>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438">
-        <v>29.65118876352458</v>
+        <v>29.89560709199641</v>
       </c>
       <c r="B438">
         <v>44.10616</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439">
-        <v>24.25005724002298</v>
+        <v>24.25851145127674</v>
       </c>
       <c r="B439">
         <v>44.37615</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440">
-        <v>66.87364647480068</v>
+        <v>67.32100021675146</v>
       </c>
       <c r="B440">
         <v>40.3167</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441">
-        <v>30.27592164347286</v>
+        <v>30.62291854919855</v>
       </c>
       <c r="B441">
         <v>44.46616</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442">
-        <v>32.28100912338016</v>
+        <v>32.3464188443286</v>
       </c>
       <c r="B442">
         <v>44.55617</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443">
-        <v>30.99266634941242</v>
+        <v>31.19078031266213</v>
       </c>
       <c r="B443">
         <v>44.53347</v>
@@ -5261,7 +5261,7 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444">
-        <v>29.77134236828501</v>
+        <v>30.36775649356268</v>
       </c>
       <c r="B444">
         <v>44.19458</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445">
-        <v>23.35339703633694</v>
+        <v>23.71535922626204</v>
       </c>
       <c r="B445">
         <v>44.28458</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446">
-        <v>30.24728527185992</v>
+        <v>30.69776468687983</v>
       </c>
       <c r="B446">
         <v>44.37458</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447">
-        <v>31.54116521001119</v>
+        <v>31.76619028197227</v>
       </c>
       <c r="B447">
         <v>44.46458</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448">
-        <v>31.33896191330291</v>
+        <v>31.51845393133511</v>
       </c>
       <c r="B448">
         <v>44.55459</v>
@@ -5316,7 +5316,7 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449">
-        <v>31.24124711028305</v>
+        <v>31.45821901191788</v>
       </c>
       <c r="B449">
         <v>44.51728</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450">
-        <v>30.14652777836519</v>
+        <v>30.83387756416127</v>
       </c>
       <c r="B450">
         <v>44.37286</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451">
-        <v>22.23778981747744</v>
+        <v>22.57628655685412</v>
       </c>
       <c r="B451">
         <v>43.916667</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452">
-        <v>29.73199700259579</v>
+        <v>30.19203357250082</v>
       </c>
       <c r="B452">
         <v>44.46286</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453">
-        <v>23.63433505345292</v>
+        <v>23.93415657467159</v>
       </c>
       <c r="B453">
         <v>44.369</v>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454">
-        <v>28.05504309034703</v>
+        <v>28.46254879412658</v>
       </c>
       <c r="B454">
         <v>44.45899</v>
@@ -5382,7 +5382,7 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455">
-        <v>26.69528992063347</v>
+        <v>26.5157645067147</v>
       </c>
       <c r="B455">
         <v>44.63899</v>
@@ -5393,7 +5393,7 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456">
-        <v>23.42696783086743</v>
+        <v>23.41840120628547</v>
       </c>
       <c r="B456">
         <v>44.45684</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457">
-        <v>40.66548055691415</v>
+        <v>40.1669702826636</v>
       </c>
       <c r="B457">
         <v>43.82472</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458">
-        <v>42.25048770033415</v>
+        <v>41.48123255644941</v>
       </c>
       <c r="B458">
         <v>44.00465</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459">
-        <v>29.22579586195593</v>
+        <v>29.55794971159002</v>
       </c>
       <c r="B459">
         <v>44.17912</v>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460">
-        <v>29.22579586195593</v>
+        <v>29.55794971159002</v>
       </c>
       <c r="B460">
         <v>44.1846</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461">
-        <v>66.19507761724518</v>
+        <v>66.60733517355359</v>
       </c>
       <c r="B461">
         <v>40.2756</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462">
-        <v>27.11515778523189</v>
+        <v>26.94428843825012</v>
       </c>
       <c r="B462">
         <v>44.36456</v>
@@ -5470,7 +5470,7 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463">
-        <v>25.8146939283943</v>
+        <v>25.9607807292734</v>
       </c>
       <c r="B463">
         <v>44.45455</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464">
-        <v>33.84467300123278</v>
+        <v>33.36653510462443</v>
       </c>
       <c r="B464">
         <v>43.70359</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465">
-        <v>30.83825786141875</v>
+        <v>30.34785954680794</v>
       </c>
       <c r="B465">
         <v>43.82232</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="466" spans="1:3">
       <c r="A466">
-        <v>23.60160270050655</v>
+        <v>23.92663944458425</v>
       </c>
       <c r="B466">
         <v>43.91227</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467">
-        <v>24.51977181749582</v>
+        <v>24.93587617100276</v>
       </c>
       <c r="B467">
         <v>44.00224</v>
@@ -5525,7 +5525,7 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468">
-        <v>23.06247666858422</v>
+        <v>22.92751912296695</v>
       </c>
       <c r="B468">
         <v>44.18218</v>
@@ -5536,7 +5536,7 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469">
-        <v>24.67430437085626</v>
+        <v>24.58950751202104</v>
       </c>
       <c r="B469">
         <v>44.27215</v>
@@ -5547,7 +5547,7 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470">
-        <v>23.55788062967895</v>
+        <v>23.61747956240695</v>
       </c>
       <c r="B470">
         <v>44.36213</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471">
-        <v>31.20928566048548</v>
+        <v>30.54566039459652</v>
       </c>
       <c r="B471">
         <v>44.72208</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472">
-        <v>36.80953536197751</v>
+        <v>36.88780159673995</v>
       </c>
       <c r="B472">
         <v>43.46</v>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473">
-        <v>29.18860948238382</v>
+        <v>28.89969991650942</v>
       </c>
       <c r="B473">
         <v>43.63988</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474">
-        <v>19.70010458329428</v>
+        <v>19.68377173165163</v>
       </c>
       <c r="B474">
         <v>43.81977</v>
@@ -5602,7 +5602,7 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475">
-        <v>21.42897116367106</v>
+        <v>21.45701812031403</v>
       </c>
       <c r="B475">
         <v>43.99968</v>
@@ -5613,7 +5613,7 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476">
-        <v>26.10907407149902</v>
+        <v>25.92946210285504</v>
       </c>
       <c r="B476">
         <v>44.08964</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477">
-        <v>26.10966277389176</v>
+        <v>25.15829345420971</v>
       </c>
       <c r="B477">
         <v>44.26958</v>
@@ -5635,7 +5635,7 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478">
-        <v>25.20303791984059</v>
+        <v>24.99296226398541</v>
       </c>
       <c r="B478">
         <v>44.35956</v>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479">
-        <v>25.80327871714612</v>
+        <v>24.85454716756914</v>
       </c>
       <c r="B479">
         <v>44.44953</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480">
-        <v>21.51240918400691</v>
+        <v>21.37299494999382</v>
       </c>
       <c r="B480">
         <v>43.82001</v>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481">
-        <v>31.75855866078985</v>
+        <v>31.50024480065846</v>
       </c>
       <c r="B481">
         <v>43.81708</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482">
-        <v>40.36891752896241</v>
+        <v>40.74303576876639</v>
       </c>
       <c r="B482">
         <v>36.644722</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483">
-        <v>27.62588908544536</v>
+        <v>27.31779641662181</v>
       </c>
       <c r="B483">
         <v>43.76632</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484">
-        <v>23.45902351960579</v>
+        <v>23.22658621655705</v>
       </c>
       <c r="B484">
         <v>43.99698</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485">
-        <v>27.23372370361245</v>
+        <v>26.39119320910998</v>
       </c>
       <c r="B485">
         <v>44.1769</v>
@@ -5723,7 +5723,7 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486">
-        <v>28.02935606559046</v>
+        <v>27.61110986383978</v>
       </c>
       <c r="B486">
         <v>44.26687</v>
@@ -5734,7 +5734,7 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487">
-        <v>21.1615175721665</v>
+        <v>20.99876429247345</v>
       </c>
       <c r="B487">
         <v>43.90419</v>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488">
-        <v>21.7436577758951</v>
+        <v>22.04878319791772</v>
       </c>
       <c r="B488">
         <v>43.99414</v>
@@ -5756,7 +5756,7 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489">
-        <v>28.080289188207</v>
+        <v>27.7295869116794</v>
       </c>
       <c r="B489">
         <v>44.08409</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490">
-        <v>27.11830362031883</v>
+        <v>26.34115035777082</v>
       </c>
       <c r="B490">
         <v>44.17405</v>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491">
-        <v>24.66163122822056</v>
+        <v>24.53792896688274</v>
       </c>
       <c r="B491">
         <v>44.00367</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492">
-        <v>22.59303694389789</v>
+        <v>22.35032120259413</v>
       </c>
       <c r="B492">
         <v>43.93059</v>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493">
-        <v>44.23345736366078</v>
+        <v>44.52929585329727</v>
       </c>
       <c r="B493">
         <v>36.9667</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494">
-        <v>31.24739032032298</v>
+        <v>31.06273413332789</v>
       </c>
       <c r="B494">
         <v>43.80678</v>
@@ -5822,7 +5822,7 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495">
-        <v>26.91625278752872</v>
+        <v>26.43195262207249</v>
       </c>
       <c r="B495">
         <v>44.09836</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496">
-        <v>33.42457528192125</v>
+        <v>33.3917757866399</v>
       </c>
       <c r="B496">
         <v>43.36165</v>
@@ -5844,7 +5844,7 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497">
-        <v>32.47839478579229</v>
+        <v>32.36251256054994</v>
       </c>
       <c r="B497">
         <v>43.54148</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498">
-        <v>27.6414609862388</v>
+        <v>27.39347058166054</v>
       </c>
       <c r="B498">
         <v>43.6314</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499">
-        <v>31.45971298582344</v>
+        <v>30.93773238144379</v>
       </c>
       <c r="B499">
         <v>43.72133</v>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500">
-        <v>23.0405555929105</v>
+        <v>22.90718921240672</v>
       </c>
       <c r="B500">
         <v>43.90121</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501">
-        <v>23.49761612840855</v>
+        <v>23.73161874004616</v>
       </c>
       <c r="B501">
         <v>43.99115</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502">
-        <v>28.90450405348948</v>
+        <v>28.76198423485631</v>
       </c>
       <c r="B502">
         <v>44.0811</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503">
-        <v>26.42925035925239</v>
+        <v>25.23006622015157</v>
       </c>
       <c r="B503">
         <v>44.17106</v>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504">
-        <v>26.82880466469499</v>
+        <v>26.1208065237166</v>
       </c>
       <c r="B504">
         <v>44.26101</v>
@@ -5932,7 +5932,7 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505">
-        <v>27.15531032500186</v>
+        <v>26.57159172455936</v>
       </c>
       <c r="B505">
         <v>44.35097</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506">
-        <v>28.05047153493525</v>
+        <v>27.40699209621221</v>
       </c>
       <c r="B506">
         <v>44.44094</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="507" spans="1:3">
       <c r="A507">
-        <v>31.65354989163858</v>
+        <v>31.82340633794329</v>
       </c>
       <c r="B507">
         <v>43.26866</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508">
-        <v>32.70091002758804</v>
+        <v>32.57267898216492</v>
       </c>
       <c r="B508">
         <v>43.35856</v>
@@ -5976,7 +5976,7 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509">
-        <v>33.07178630149119</v>
+        <v>32.77223550498911</v>
       </c>
       <c r="B509">
         <v>43.53838</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510">
-        <v>27.69102191969782</v>
+        <v>27.68060344662586</v>
       </c>
       <c r="B510">
         <v>43.6283</v>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511">
-        <v>35.9522885750643</v>
+        <v>35.42030316641242</v>
       </c>
       <c r="B511">
         <v>43.71822</v>
@@ -6009,7 +6009,7 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512">
-        <v>31.31993687969543</v>
+        <v>31.01052875831203</v>
       </c>
       <c r="B512">
         <v>43.80815</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="513" spans="1:3">
       <c r="A513">
-        <v>28.5336721949557</v>
+        <v>28.36046812354488</v>
       </c>
       <c r="B513">
         <v>43.89809</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514">
-        <v>43.36306988367645</v>
+        <v>43.55591013027951</v>
       </c>
       <c r="B514">
         <v>37.0833</v>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="515" spans="1:3">
       <c r="A515">
-        <v>24.79581090516518</v>
+        <v>24.86248363898458</v>
       </c>
       <c r="B515">
         <v>43.98803</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516">
-        <v>25.4058450548402</v>
+        <v>25.09863527283949</v>
       </c>
       <c r="B516">
         <v>44.16792</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517">
-        <v>24.51860359251072</v>
+        <v>24.32754156999742</v>
       </c>
       <c r="B517">
         <v>44.25787</v>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="518" spans="1:3">
       <c r="A518">
-        <v>24.86562529306891</v>
+        <v>24.05130513012437</v>
       </c>
       <c r="B518">
         <v>44.34783</v>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519">
-        <v>28.62459307449718</v>
+        <v>28.19909418907848</v>
       </c>
       <c r="B519">
         <v>44.43779</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520">
-        <v>31.15273080894944</v>
+        <v>30.94467128555022</v>
       </c>
       <c r="B520">
         <v>46.4</v>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521">
-        <v>31.49620209235084</v>
+        <v>31.60268190221348</v>
       </c>
       <c r="B521">
         <v>43.26543</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522">
-        <v>33.08580196314845</v>
+        <v>32.91840554946909</v>
       </c>
       <c r="B522">
         <v>43.35533</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="523" spans="1:3">
       <c r="A523">
-        <v>32.29072233151018</v>
+        <v>32.47697415384186</v>
       </c>
       <c r="B523">
         <v>43.149998</v>
@@ -6141,7 +6141,7 @@
     </row>
     <row r="524" spans="1:3">
       <c r="A524">
-        <v>33.54362484964317</v>
+        <v>32.9538788496172</v>
       </c>
       <c r="B524">
         <v>43.8049</v>
@@ -6152,7 +6152,7 @@
     </row>
     <row r="525" spans="1:3">
       <c r="A525">
-        <v>39.63842320909583</v>
+        <v>39.35093158957687</v>
       </c>
       <c r="B525">
         <v>43.98476</v>
@@ -6163,7 +6163,7 @@
     </row>
     <row r="526" spans="1:3">
       <c r="A526">
-        <v>27.06686045286918</v>
+        <v>27.01981141092384</v>
       </c>
       <c r="B526">
         <v>44.0747</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="527" spans="1:3">
       <c r="A527">
-        <v>24.26776618622144</v>
+        <v>23.73712454670805</v>
       </c>
       <c r="B527">
         <v>44.16464</v>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="528" spans="1:3">
       <c r="A528">
-        <v>37.27657325740171</v>
+        <v>36.96226243207681</v>
       </c>
       <c r="B528">
         <v>44.61441</v>
@@ -6196,7 +6196,7 @@
     </row>
     <row r="529" spans="1:3">
       <c r="A529">
-        <v>26.03549264805598</v>
+        <v>25.5911251529922</v>
       </c>
       <c r="B529">
         <v>43.44185</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="530" spans="1:3">
       <c r="A530">
-        <v>34.95051651155674</v>
+        <v>34.17540919455695</v>
       </c>
       <c r="B530">
         <v>43.71158</v>
@@ -6218,7 +6218,7 @@
     </row>
     <row r="531" spans="1:3">
       <c r="A531">
-        <v>26.10079330524112</v>
+        <v>25.32858828624447</v>
       </c>
       <c r="B531">
         <v>44.25116</v>
@@ -6229,7 +6229,7 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532">
-        <v>30.07090518428738</v>
+        <v>30.1159521937399</v>
       </c>
       <c r="B532">
         <v>43.70805</v>
@@ -6240,7 +6240,7 @@
     </row>
     <row r="533" spans="1:3">
       <c r="A533">
-        <v>30.34965535891618</v>
+        <v>29.84661242582593</v>
       </c>
       <c r="B533">
         <v>44.19649</v>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="534" spans="1:3">
       <c r="A534">
-        <v>30.52535569101342</v>
+        <v>30.19151133808983</v>
       </c>
       <c r="B534">
         <v>44.06773</v>
@@ -6262,7 +6262,7 @@
     </row>
     <row r="535" spans="1:3">
       <c r="A535">
-        <v>32.82451581896861</v>
+        <v>32.47423642709911</v>
       </c>
       <c r="B535">
         <v>44.15766</v>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="536" spans="1:3">
       <c r="A536">
-        <v>29.76269002775532</v>
+        <v>29.47702303389353</v>
       </c>
       <c r="B536">
         <v>44.24759</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="537" spans="1:3">
       <c r="A537">
-        <v>28.18048018251177</v>
+        <v>27.50391702468524</v>
       </c>
       <c r="B537">
         <v>44.19206</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="538" spans="1:3">
       <c r="A538">
-        <v>27.55339863076041</v>
+        <v>27.50754865928234</v>
       </c>
       <c r="B538">
         <v>43.61447</v>
@@ -6306,7 +6306,7 @@
     </row>
     <row r="539" spans="1:3">
       <c r="A539">
-        <v>31.57920656524576</v>
+        <v>31.16271571057992</v>
       </c>
       <c r="B539">
         <v>43.70437</v>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="540" spans="1:3">
       <c r="A540">
-        <v>25.11973567104398</v>
+        <v>24.33814657992641</v>
       </c>
       <c r="B540">
         <v>43.97411</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="541" spans="1:3">
       <c r="A541">
-        <v>31.76506507468313</v>
+        <v>31.23341694868657</v>
       </c>
       <c r="B541">
         <v>44.24388</v>
@@ -6339,7 +6339,7 @@
     </row>
     <row r="542" spans="1:3">
       <c r="A542">
-        <v>28.26729593921078</v>
+        <v>28.02280234429375</v>
       </c>
       <c r="B542">
         <v>43.61066</v>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="543" spans="1:3">
       <c r="A543">
-        <v>29.41059877794063</v>
+        <v>28.82473068821088</v>
       </c>
       <c r="B543">
         <v>43.70055</v>
@@ -6361,7 +6361,7 @@
     </row>
     <row r="544" spans="1:3">
       <c r="A544">
-        <v>29.86274105315593</v>
+        <v>29.50877595268643</v>
       </c>
       <c r="B544">
         <v>43.79046</v>
@@ -6372,7 +6372,7 @@
     </row>
     <row r="545" spans="1:3">
       <c r="A545">
-        <v>32.71835299927252</v>
+        <v>32.55349245698829</v>
       </c>
       <c r="B545">
         <v>40.2658</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="546" spans="1:3">
       <c r="A546">
-        <v>32.01569595532654</v>
+        <v>31.60801161083378</v>
       </c>
       <c r="B546">
         <v>43.87639</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="547" spans="1:3">
       <c r="A547">
-        <v>22.67752094250201</v>
+        <v>22.46972726824387</v>
       </c>
       <c r="B547">
         <v>43.60262</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="548" spans="1:3">
       <c r="A548">
-        <v>28.63494442706802</v>
+        <v>28.9836643671375</v>
       </c>
       <c r="B548">
         <v>43.6925</v>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="549" spans="1:3">
       <c r="A549">
-        <v>29.24905054761581</v>
+        <v>28.60983977017095</v>
       </c>
       <c r="B549">
         <v>43.78239</v>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="550" spans="1:3">
       <c r="A550">
-        <v>27.7556582802795</v>
+        <v>27.1687358030753</v>
       </c>
       <c r="B550">
         <v>43.87228</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="551" spans="1:3">
       <c r="A551">
-        <v>27.56009738284232</v>
+        <v>27.72763443975071</v>
       </c>
       <c r="B551">
         <v>43.68826</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="552" spans="1:3">
       <c r="A552">
-        <v>27.42351515961925</v>
+        <v>26.94392889936862</v>
       </c>
       <c r="B552">
         <v>43.77814</v>
@@ -6460,7 +6460,7 @@
     </row>
     <row r="553" spans="1:3">
       <c r="A553">
-        <v>25.9099181249617</v>
+        <v>25.22905719847937</v>
       </c>
       <c r="B553">
         <v>43.86803</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="554" spans="1:3">
       <c r="A554">
-        <v>28.49956761907073</v>
+        <v>28.20052685352002</v>
       </c>
       <c r="B554">
         <v>43.86363</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="555" spans="1:3">
       <c r="A555">
-        <v>27.34725472225266</v>
+        <v>27.25095736403807</v>
       </c>
       <c r="B555">
         <v>43.95351</v>
@@ -6493,7 +6493,7 @@
     </row>
     <row r="556" spans="1:3">
       <c r="A556">
-        <v>57.37552516301821</v>
+        <v>57.78803076946767</v>
       </c>
       <c r="B556">
         <v>38.7667</v>
@@ -6504,7 +6504,7 @@
     </row>
     <row r="557" spans="1:3">
       <c r="A557">
-        <v>26.29195162259726</v>
+        <v>25.78164533115903</v>
       </c>
       <c r="B557">
         <v>39.7533</v>
@@ -6515,7 +6515,7 @@
     </row>
     <row r="558" spans="1:3">
       <c r="A558">
-        <v>38.85441326511439</v>
+        <v>39.08462048547895</v>
       </c>
       <c r="B558">
         <v>45.13333</v>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="559" spans="1:3">
       <c r="A559">
-        <v>36.66811589019429</v>
+        <v>36.37736480985293</v>
       </c>
       <c r="B559">
         <v>44.21862</v>
@@ -6537,7 +6537,7 @@
     </row>
     <row r="560" spans="1:3">
       <c r="A560">
-        <v>26.94449246645834</v>
+        <v>26.6368538199361</v>
       </c>
       <c r="B560">
         <v>44.01923</v>
@@ -6548,7 +6548,7 @@
     </row>
     <row r="561" spans="1:3">
       <c r="A561">
-        <v>31.84195694501541</v>
+        <v>31.49909592552031</v>
       </c>
       <c r="B561">
         <v>44.10908</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="562" spans="1:3">
       <c r="A562">
-        <v>30.73631613765914</v>
+        <v>30.38580351018464</v>
       </c>
       <c r="B562">
         <v>44.083333</v>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="563" spans="1:3">
       <c r="A563">
-        <v>32.80347839064744</v>
+        <v>31.74626182842503</v>
       </c>
       <c r="B563">
         <v>42.59456</v>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="564" spans="1:3">
       <c r="A564">
-        <v>32.81933782510538</v>
+        <v>31.74626182842503</v>
       </c>
       <c r="B564">
         <v>42.58333</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="565" spans="1:3">
       <c r="A565">
-        <v>35.37033458868349</v>
+        <v>34.35980484681079</v>
       </c>
       <c r="B565">
         <v>42.26667</v>
@@ -6603,7 +6603,7 @@
     </row>
     <row r="566" spans="1:3">
       <c r="A566">
-        <v>28.63037013887337</v>
+        <v>28.31305325569073</v>
       </c>
       <c r="B566">
         <v>38.5833</v>
@@ -6614,7 +6614,7 @@
     </row>
     <row r="567" spans="1:3">
       <c r="A567">
-        <v>30.2703063154185</v>
+        <v>29.97955012346338</v>
       </c>
       <c r="B567">
         <v>38.3667</v>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="568" spans="1:3">
       <c r="A568">
-        <v>31.31951241867633</v>
+        <v>31.00054958339629</v>
       </c>
       <c r="B568">
         <v>38.3333</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="569" spans="1:3">
       <c r="A569">
-        <v>35.64198295513103</v>
+        <v>35.34355573296563</v>
       </c>
       <c r="B569">
         <v>38.3667</v>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="570" spans="1:3">
       <c r="A570">
-        <v>30.74127705280767</v>
+        <v>30.32118934142595</v>
       </c>
       <c r="B570">
         <v>38.25</v>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="571" spans="1:3">
       <c r="A571">
-        <v>34.32241066578502</v>
+        <v>33.75805629377389</v>
       </c>
       <c r="B571">
         <v>38.3833</v>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="572" spans="1:3">
       <c r="A572">
-        <v>32.29403011709812</v>
+        <v>31.80419106652162</v>
       </c>
       <c r="B572">
         <v>38.4</v>
@@ -6680,7 +6680,7 @@
     </row>
     <row r="573" spans="1:3">
       <c r="A573">
-        <v>33.92421891522096</v>
+        <v>33.8663434646338</v>
       </c>
       <c r="B573">
         <v>37.6333</v>
@@ -6691,7 +6691,7 @@
     </row>
     <row r="574" spans="1:3">
       <c r="A574">
-        <v>55.5242339864887</v>
+        <v>56.06890470084937</v>
       </c>
       <c r="B574">
         <v>40.03</v>
@@ -6702,7 +6702,7 @@
     </row>
     <row r="575" spans="1:3">
       <c r="A575">
-        <v>43.44514274396856</v>
+        <v>43.72969911041586</v>
       </c>
       <c r="B575">
         <v>39.5</v>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="576" spans="1:3">
       <c r="A576">
-        <v>42.30738635719012</v>
+        <v>42.4902758552922</v>
       </c>
       <c r="B576">
         <v>39.4833</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="577" spans="1:3">
       <c r="A577">
-        <v>43.34572562340828</v>
+        <v>43.63490066895868</v>
       </c>
       <c r="B577">
         <v>38.25</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="578" spans="1:3">
       <c r="A578">
-        <v>42.2591764336622</v>
+        <v>42.41663959925937</v>
       </c>
       <c r="B578">
         <v>38.2</v>
@@ -6746,7 +6746,7 @@
     </row>
     <row r="579" spans="1:3">
       <c r="A579">
-        <v>44.20768505124177</v>
+        <v>44.87868996462365</v>
       </c>
       <c r="B579">
         <v>38.1833</v>
@@ -6757,7 +6757,7 @@
     </row>
     <row r="580" spans="1:3">
       <c r="A580">
-        <v>37.61490300946033</v>
+        <v>37.96106637732429</v>
       </c>
       <c r="B580">
         <v>38.2</v>
@@ -6768,7 +6768,7 @@
     </row>
     <row r="581" spans="1:3">
       <c r="A581">
-        <v>37.61490300946033</v>
+        <v>37.96106637732429</v>
       </c>
       <c r="B581">
         <v>38.18</v>
@@ -6779,7 +6779,7 @@
     </row>
     <row r="582" spans="1:3">
       <c r="A582">
-        <v>34.3098648489552</v>
+        <v>34.27102556425483</v>
       </c>
       <c r="B582">
         <v>37.6667</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="583" spans="1:3">
       <c r="A583">
-        <v>44.9219301528079</v>
+        <v>45.37282744420462</v>
       </c>
       <c r="B583">
         <v>37.9167</v>
@@ -6801,7 +6801,7 @@
     </row>
     <row r="584" spans="1:3">
       <c r="A584">
-        <v>45.73499368121246</v>
+        <v>46.09903161216671</v>
       </c>
       <c r="B584">
         <v>37.8167</v>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="585" spans="1:3">
       <c r="A585">
-        <v>55.5242339864887</v>
+        <v>56.06890470084937</v>
       </c>
       <c r="B585">
         <v>40.02889</v>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="586" spans="1:3">
       <c r="A586">
-        <v>42.62546281742969</v>
+        <v>43.07600193689642</v>
       </c>
       <c r="B586">
         <v>37.5</v>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="587" spans="1:3">
       <c r="A587">
-        <v>30.7925532739519</v>
+        <v>31.52993222708776</v>
       </c>
       <c r="B587">
         <v>36.95</v>
@@ -6845,7 +6845,7 @@
     </row>
     <row r="588" spans="1:3">
       <c r="A588">
-        <v>31.52873814027556</v>
+        <v>31.51461935379731</v>
       </c>
       <c r="B588">
         <v>34.9643</v>
@@ -6856,7 +6856,7 @@
     </row>
     <row r="589" spans="1:3">
       <c r="A589">
-        <v>29.09396139792575</v>
+        <v>29.30089795088933</v>
       </c>
       <c r="B589">
         <v>34.99333</v>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="590" spans="1:3">
       <c r="A590">
-        <v>30.02719123466545</v>
+        <v>29.43440618721078</v>
       </c>
       <c r="B590">
         <v>35.01306</v>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="591" spans="1:3">
       <c r="A591">
-        <v>29.76503504755134</v>
+        <v>29.53979868145201</v>
       </c>
       <c r="B591">
         <v>34.9194</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="592" spans="1:3">
       <c r="A592">
-        <v>30.12439077853089</v>
+        <v>29.67025732177017</v>
       </c>
       <c r="B592">
         <v>34.8755</v>
@@ -6900,7 +6900,7 @@
     </row>
     <row r="593" spans="1:3">
       <c r="A593">
-        <v>34.60095249428008</v>
+        <v>34.77887627812825</v>
       </c>
       <c r="B593">
         <v>37.8667</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="594" spans="1:3">
       <c r="A594">
-        <v>32.6740518416851</v>
+        <v>32.66719424273581</v>
       </c>
       <c r="B594">
         <v>37.8833</v>
@@ -6922,7 +6922,7 @@
     </row>
     <row r="595" spans="1:3">
       <c r="A595">
-        <v>56.74554818646064</v>
+        <v>57.43138165554212</v>
       </c>
       <c r="B595">
         <v>38.7833</v>
@@ -6933,7 +6933,7 @@
     </row>
     <row r="596" spans="1:3">
       <c r="A596">
-        <v>26.45719375984091</v>
+        <v>26.67990749985682</v>
       </c>
       <c r="B596">
         <v>34.91028</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="597" spans="1:3">
       <c r="A597">
-        <v>28.80678870589662</v>
+        <v>28.69991706805995</v>
       </c>
       <c r="B597">
         <v>38.9</v>
@@ -6955,7 +6955,7 @@
     </row>
     <row r="598" spans="1:3">
       <c r="A598">
-        <v>55.31793241880313</v>
+        <v>55.44010839747042</v>
       </c>
       <c r="B598">
         <v>38.66</v>
@@ -6966,7 +6966,7 @@
     </row>
     <row r="599" spans="1:3">
       <c r="A599">
-        <v>56.37035040622577</v>
+        <v>56.63216434619937</v>
       </c>
       <c r="B599">
         <v>38.77</v>
@@ -6977,7 +6977,7 @@
     </row>
     <row r="600" spans="1:3">
       <c r="A600">
-        <v>54.87894435983741</v>
+        <v>55.53038636494122</v>
       </c>
       <c r="B600">
         <v>38.77</v>
@@ -6988,7 +6988,7 @@
     </row>
     <row r="601" spans="1:3">
       <c r="A601">
-        <v>57.05636196134277</v>
+        <v>57.70066098252946</v>
       </c>
       <c r="B601">
         <v>38.7243</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="602" spans="1:3">
       <c r="A602">
-        <v>55.543893291329</v>
+        <v>56.25269483093696</v>
       </c>
       <c r="B602">
         <v>40.58</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="603" spans="1:3">
       <c r="A603">
-        <v>57.05636196134277</v>
+        <v>57.70066098252946</v>
       </c>
       <c r="B603">
         <v>38.74</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="604" spans="1:3">
       <c r="A604">
-        <v>54.89233500756684</v>
+        <v>55.8065476141723</v>
       </c>
       <c r="B604">
         <v>38.77</v>
@@ -7032,7 +7032,7 @@
     </row>
     <row r="605" spans="1:3">
       <c r="A605">
-        <v>57.18136433935243</v>
+        <v>57.68242564458498</v>
       </c>
       <c r="B605">
         <v>38.61</v>
@@ -7043,7 +7043,7 @@
     </row>
     <row r="606" spans="1:3">
       <c r="A606">
-        <v>55.20154718710275</v>
+        <v>55.86055963919058</v>
       </c>
       <c r="B606">
         <v>39.91556</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="607" spans="1:3">
       <c r="A607">
-        <v>59.76718685404156</v>
+        <v>60.35200619449769</v>
       </c>
       <c r="B607">
         <v>38.983337</v>
@@ -7065,7 +7065,7 @@
     </row>
     <row r="608" spans="1:3">
       <c r="A608">
-        <v>57.41735063857389</v>
+        <v>57.9854112510678</v>
       </c>
       <c r="B608">
         <v>38.78</v>
@@ -7076,7 +7076,7 @@
     </row>
     <row r="609" spans="1:3">
       <c r="A609">
-        <v>54.99694782937515</v>
+        <v>55.13283791218907</v>
       </c>
       <c r="B609">
         <v>40.02</v>
@@ -7087,7 +7087,7 @@
     </row>
     <row r="610" spans="1:3">
       <c r="A610">
-        <v>54.99694782937515</v>
+        <v>55.09989384859112</v>
       </c>
       <c r="B610">
         <v>40.03</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="611" spans="1:3">
       <c r="A611">
-        <v>54.96588707863543</v>
+        <v>55.07291709059402</v>
       </c>
       <c r="B611">
         <v>40.04</v>
@@ -7109,7 +7109,7 @@
     </row>
     <row r="612" spans="1:3">
       <c r="A612">
-        <v>55.5242339864887</v>
+        <v>56.04702438104206</v>
       </c>
       <c r="B612">
         <v>40.02</v>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="613" spans="1:3">
       <c r="A613">
-        <v>55.5242339864887</v>
+        <v>56.06890470084937</v>
       </c>
       <c r="B613">
         <v>40.03</v>
@@ -7131,7 +7131,7 @@
     </row>
     <row r="614" spans="1:3">
       <c r="A614">
-        <v>55.5242339864887</v>
+        <v>56.03988567545002</v>
       </c>
       <c r="B614">
         <v>40.037</v>

--- a/Futuro/results/Silvestres_Presente_avg_RF.xlsx
+++ b/Futuro/results/Silvestres_Presente_avg_RF.xlsx
@@ -399,7 +399,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>34.14934972896776</v>
+        <v>33.5379228716451</v>
       </c>
       <c r="B2">
         <v>38.523891</v>
@@ -410,7 +410,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>43.59291544798613</v>
+        <v>43.48075803371972</v>
       </c>
       <c r="B3">
         <v>44.65</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>44.4466667963275</v>
+        <v>44.52096326037271</v>
       </c>
       <c r="B4">
         <v>44.483333</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>36.84670779063659</v>
+        <v>36.89163403349799</v>
       </c>
       <c r="B5">
         <v>41.72472</v>
@@ -443,7 +443,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>34.75575328595747</v>
+        <v>34.83316170203095</v>
       </c>
       <c r="B6">
         <v>37.1</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>35.31863542198219</v>
+        <v>35.81354680451222</v>
       </c>
       <c r="B7">
         <v>37.483333</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>31.86792380906148</v>
+        <v>31.99122734336834</v>
       </c>
       <c r="B8">
         <v>37.266667</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>43.30566012780761</v>
+        <v>43.06736822535522</v>
       </c>
       <c r="B9">
         <v>39.8239</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>28.62941508062559</v>
+        <v>28.81857850713403</v>
       </c>
       <c r="B10">
         <v>38.5</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>30.76897873319127</v>
+        <v>30.96666229296162</v>
       </c>
       <c r="B11">
         <v>38.90583</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>31.53239302487134</v>
+        <v>31.66139470991171</v>
       </c>
       <c r="B12">
         <v>38.61417</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>30.36867444183773</v>
+        <v>30.49305471539659</v>
       </c>
       <c r="B13">
         <v>38.59444</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>29.00500771335781</v>
+        <v>29.38146607093948</v>
       </c>
       <c r="B14">
         <v>38.984718</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>30.11570742926193</v>
+        <v>30.25693955907307</v>
       </c>
       <c r="B15">
         <v>38.595001</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>31.49571173732316</v>
+        <v>30.94754135489558</v>
       </c>
       <c r="B16">
         <v>38.840279</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>30.44567963788807</v>
+        <v>30.58389450384724</v>
       </c>
       <c r="B17">
         <v>38.686668</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>31.45788295907408</v>
+        <v>31.93816446479716</v>
       </c>
       <c r="B18">
         <v>38.9</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>29.79362120393738</v>
+        <v>29.59419462003746</v>
       </c>
       <c r="B19">
         <v>38.4333</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>33.03288919739239</v>
+        <v>33.34938630951551</v>
       </c>
       <c r="B20">
         <v>38.424999</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>34.06663566575511</v>
+        <v>34.40446377066888</v>
       </c>
       <c r="B21">
         <v>37.866667</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>31.77508075103055</v>
+        <v>32.63839600647041</v>
       </c>
       <c r="B22">
         <v>38.423889</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>33.17596312898828</v>
+        <v>32.94335841160785</v>
       </c>
       <c r="B23">
         <v>38.005562</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>30.71510715085003</v>
+        <v>30.68711496016266</v>
       </c>
       <c r="B24">
         <v>38.91917</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>28.86077517502494</v>
+        <v>29.40075147148792</v>
       </c>
       <c r="B25">
         <v>40.19611</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>32.9590714589263</v>
+        <v>32.50893491408424</v>
       </c>
       <c r="B26">
         <v>38.633333</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>33.06523035260145</v>
+        <v>32.68440894881445</v>
       </c>
       <c r="B27">
         <v>38.508888</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>26.94384196605218</v>
+        <v>26.77908553000933</v>
       </c>
       <c r="B28">
         <v>38.873611</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>29.91711669966324</v>
+        <v>30.28092013031653</v>
       </c>
       <c r="B29">
         <v>38.3333</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>31.09708552005077</v>
+        <v>30.33563463328958</v>
       </c>
       <c r="B30">
         <v>37.65</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>27.81216674208557</v>
+        <v>27.60136719094029</v>
       </c>
       <c r="B31">
         <v>37.666667</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>30.47003902847884</v>
+        <v>29.40624149273892</v>
       </c>
       <c r="B32">
         <v>38.85722</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>30.36575515032159</v>
+        <v>30.23760831574141</v>
       </c>
       <c r="B33">
         <v>38.996109</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>42.33877308100786</v>
+        <v>41.71997648393416</v>
       </c>
       <c r="B34">
         <v>38.752499</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>32.4351764567101</v>
+        <v>32.32525991015481</v>
       </c>
       <c r="B35">
         <v>40.95</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>33.96290670689102</v>
+        <v>33.85191849385166</v>
       </c>
       <c r="B36">
         <v>41.355831</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>35.24028796710373</v>
+        <v>35.08303929363285</v>
       </c>
       <c r="B37">
         <v>41.145828</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>43.39380955806016</v>
+        <v>43.38868445034422</v>
       </c>
       <c r="B38">
         <v>37.083333</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>40.28809131268086</v>
+        <v>40.36926555357705</v>
       </c>
       <c r="B39">
         <v>36.916667</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>29.55571507987586</v>
+        <v>29.59131382513369</v>
       </c>
       <c r="B40">
         <v>38.45</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>33.63755015858106</v>
+        <v>35.35256127288589</v>
       </c>
       <c r="B41">
         <v>37.766667</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>29.94013193849774</v>
+        <v>29.70841337991096</v>
       </c>
       <c r="B42">
         <v>35.55</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>28.40674291302523</v>
+        <v>28.78285193434453</v>
       </c>
       <c r="B43">
         <v>36.2</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>28.40674291302523</v>
+        <v>28.78285193434453</v>
       </c>
       <c r="B44">
         <v>36.216667</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>29.95698072276979</v>
+        <v>30.34955063800631</v>
       </c>
       <c r="B45">
         <v>38.35</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>36.8854652488906</v>
+        <v>36.24528057428111</v>
       </c>
       <c r="B46">
         <v>37.016667</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>26.80886229496868</v>
+        <v>27.50849325047864</v>
       </c>
       <c r="B47">
         <v>34.886389</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>43.62841702636565</v>
+        <v>43.71005490526304</v>
       </c>
       <c r="B48">
         <v>44.4</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>43.59348210149838</v>
+        <v>43.71723778173012</v>
       </c>
       <c r="B49">
         <v>44.416667</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>40.74410968626309</v>
+        <v>40.83986676982398</v>
       </c>
       <c r="B50">
         <v>44.583333</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>42.64945992669918</v>
+        <v>42.25642964821817</v>
       </c>
       <c r="B51">
         <v>44.857451</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>29.97955012346338</v>
+        <v>30.34955063800631</v>
       </c>
       <c r="B52">
         <v>38.3833</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>32.09321699782672</v>
+        <v>31.80889114589512</v>
       </c>
       <c r="B53">
         <v>36.9</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>36.39502876774019</v>
+        <v>36.17115014885157</v>
       </c>
       <c r="B54">
         <v>36.866667</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>39.11839531901342</v>
+        <v>39.88762897744345</v>
       </c>
       <c r="B55">
         <v>37.75</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>34.23207000858453</v>
+        <v>34.58969899204369</v>
       </c>
       <c r="B56">
         <v>36.9</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>32.12324062491493</v>
+        <v>32.90220559179998</v>
       </c>
       <c r="B57">
         <v>42.31878</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>38.97401554413655</v>
+        <v>39.92259554618612</v>
       </c>
       <c r="B58">
         <v>41.41623</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>32.77784900945659</v>
+        <v>33.0257442758428</v>
       </c>
       <c r="B59">
         <v>38.3167</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>31.82130883763186</v>
+        <v>32.62528992896173</v>
       </c>
       <c r="B60">
         <v>42.23333</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>43.81585324629486</v>
+        <v>44.40253364948451</v>
       </c>
       <c r="B61">
         <v>41.41667</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>35.43636462373583</v>
+        <v>36.04463418705711</v>
       </c>
       <c r="B62">
         <v>42.31667</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>35.11667631910193</v>
+        <v>35.47721360006641</v>
       </c>
       <c r="B63">
         <v>42.38333</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>35.43636462373583</v>
+        <v>36.04463418705711</v>
       </c>
       <c r="B64">
         <v>42.31176</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>35.11667631910193</v>
+        <v>35.47721360006641</v>
       </c>
       <c r="B65">
         <v>42.38333</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>34.20425627713308</v>
+        <v>35.05084946429599</v>
       </c>
       <c r="B66">
         <v>42.40135</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>35.45591860577427</v>
+        <v>36.36774433097139</v>
       </c>
       <c r="B67">
         <v>41.76724</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>37.44895715907641</v>
+        <v>38.24125064457267</v>
       </c>
       <c r="B68">
         <v>41.71667</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>35.04738855558196</v>
+        <v>35.97963429976635</v>
       </c>
       <c r="B69">
         <v>41.71667</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>33.02141315138158</v>
+        <v>33.39024923701743</v>
       </c>
       <c r="B70">
         <v>38.4167</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>34.00634392641852</v>
+        <v>35.5448875487746</v>
       </c>
       <c r="B71">
         <v>41.83333</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>31.13228504438756</v>
+        <v>32.02103758359095</v>
       </c>
       <c r="B72">
         <v>38.0833</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>35.824253851655</v>
+        <v>35.9795612809146</v>
       </c>
       <c r="B73">
         <v>37.55</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>26.0397759020753</v>
+        <v>26.11959048444406</v>
       </c>
       <c r="B74">
         <v>36.75</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>22.24607006801261</v>
+        <v>22.39818085461081</v>
       </c>
       <c r="B75">
         <v>36.45</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>25.78755859639834</v>
+        <v>25.74225110005948</v>
       </c>
       <c r="B76">
         <v>36.25</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>26.25066068537526</v>
+        <v>26.38005958905075</v>
       </c>
       <c r="B77">
         <v>36.2833</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>23.14496429533401</v>
+        <v>23.22112135398395</v>
       </c>
       <c r="B78">
         <v>36.3</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>31.08656118444981</v>
+        <v>31.02495918976772</v>
       </c>
       <c r="B79">
         <v>36.45</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>44.55871224264035</v>
+        <v>44.57216401205912</v>
       </c>
       <c r="B80">
         <v>37.71666667</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>30.41943867232663</v>
+        <v>30.36619242769854</v>
       </c>
       <c r="B81">
         <v>37.05</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>27.40927015823877</v>
+        <v>27.69340759193333</v>
       </c>
       <c r="B82">
         <v>36.85</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>35.36027115679387</v>
+        <v>35.54047165268172</v>
       </c>
       <c r="B83">
         <v>45.9167</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>30.25364192574084</v>
+        <v>30.42919916945433</v>
       </c>
       <c r="B84">
         <v>34.9018</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>28.2655019755338</v>
+        <v>28.39387479853601</v>
       </c>
       <c r="B85">
         <v>34.9056</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>30.37259302645546</v>
+        <v>30.35843197895089</v>
       </c>
       <c r="B86">
         <v>35.01944</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>28.29285916456787</v>
+        <v>29.09424901908699</v>
       </c>
       <c r="B87">
         <v>36.1</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>31.51461935379731</v>
+        <v>31.23121053106739</v>
       </c>
       <c r="B88">
         <v>34.96417</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>28.29285916456787</v>
+        <v>29.11557378711769</v>
       </c>
       <c r="B89">
         <v>36.1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>28.07700956174016</v>
+        <v>28.44243411204313</v>
       </c>
       <c r="B90">
         <v>34.90528</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>32.54213563355977</v>
+        <v>32.70684454788373</v>
       </c>
       <c r="B91">
         <v>45.5</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>29.48780967730118</v>
+        <v>29.49239925150068</v>
       </c>
       <c r="B92">
         <v>34.8925</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>29.67025732177017</v>
+        <v>30.02036742420466</v>
       </c>
       <c r="B93">
         <v>34.87556</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>27.42335244504758</v>
+        <v>27.66750449692729</v>
       </c>
       <c r="B94">
         <v>36.3</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>44.46991746228441</v>
+        <v>44.73146660932719</v>
       </c>
       <c r="B95">
         <v>44.40416667</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>32.59515053333892</v>
+        <v>32.22674501488528</v>
       </c>
       <c r="B96">
         <v>37.5833</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>35.97327632275544</v>
+        <v>36.32055608453588</v>
       </c>
       <c r="B97">
         <v>37.7</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>38.28095861837865</v>
+        <v>38.81901091277183</v>
       </c>
       <c r="B98">
         <v>37.9333</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>36.61423095611575</v>
+        <v>36.30185611954299</v>
       </c>
       <c r="B99">
         <v>36.1</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>33.24280372550586</v>
+        <v>33.02371901867902</v>
       </c>
       <c r="B100">
         <v>36.1333</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>28.41555163664329</v>
+        <v>28.40790513470012</v>
       </c>
       <c r="B101">
         <v>40.6</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>32.98879415904526</v>
+        <v>33.55297163112076</v>
       </c>
       <c r="B102">
         <v>37.4333</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>28.54658515334415</v>
+        <v>28.27067664872555</v>
       </c>
       <c r="B103">
         <v>36.9167</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>30.30283565755205</v>
+        <v>29.67970001088907</v>
       </c>
       <c r="B104">
         <v>37.0667</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>30.30283565755205</v>
+        <v>29.68066170476938</v>
       </c>
       <c r="B105">
         <v>37.0833</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>33.99945407154743</v>
+        <v>33.84664837687363</v>
       </c>
       <c r="B106">
         <v>37.6</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>36.37271383527725</v>
+        <v>36.22893973665472</v>
       </c>
       <c r="B107">
         <v>37.6</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>43.88965711017308</v>
+        <v>43.98011971627682</v>
       </c>
       <c r="B108">
         <v>36.85</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>47.69607892431814</v>
+        <v>47.81860493229307</v>
       </c>
       <c r="B109">
         <v>37.5</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>37.81130501738336</v>
+        <v>38.40041753055908</v>
       </c>
       <c r="B110">
         <v>37.1667</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>47.88542628227813</v>
+        <v>48.37813749655646</v>
       </c>
       <c r="B111">
         <v>37.0444</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>28.45424503734859</v>
+        <v>28.81279876659251</v>
       </c>
       <c r="B112">
         <v>43.3333</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>57.81000511914608</v>
+        <v>58.27263614996248</v>
       </c>
       <c r="B113">
         <v>36.823</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>24.75207186434218</v>
+        <v>24.5529891974608</v>
       </c>
       <c r="B114">
         <v>43.44861</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>34.91652905518517</v>
+        <v>35.01977027269105</v>
       </c>
       <c r="B115">
         <v>40.850177</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>31.62239227620315</v>
+        <v>31.52564701838601</v>
       </c>
       <c r="B116">
         <v>43.392945</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>29.72545594480986</v>
+        <v>29.5299432251106</v>
       </c>
       <c r="B117">
         <v>43.758997</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>30.11606135996193</v>
+        <v>30.15958754961409</v>
       </c>
       <c r="B118">
         <v>43.433342</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>25.22923484256984</v>
+        <v>24.30458972621921</v>
       </c>
       <c r="B119">
         <v>43.323891</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>30.77575998851958</v>
+        <v>30.26164135658672</v>
       </c>
       <c r="B120">
         <v>43.164774</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>34.59460017592227</v>
+        <v>34.09847811777619</v>
       </c>
       <c r="B121">
         <v>42.514999</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>35.70085210695117</v>
+        <v>35.78326182347359</v>
       </c>
       <c r="B122">
         <v>42.514999</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>30.45936631739774</v>
+        <v>30.7205145306776</v>
       </c>
       <c r="B123">
         <v>42.5833</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>22.50558707623093</v>
+        <v>22.59036115935935</v>
       </c>
       <c r="B124">
         <v>39.53056</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>27.78850600716671</v>
+        <v>27.49567600683315</v>
       </c>
       <c r="B125">
         <v>38.701672</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>38.40217333728869</v>
+        <v>37.96902997161077</v>
       </c>
       <c r="B126">
         <v>37.82258</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>26.20941292646848</v>
+        <v>25.82740567407947</v>
       </c>
       <c r="B127">
         <v>38.779442</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>23.11897341726836</v>
+        <v>23.05077928027374</v>
       </c>
       <c r="B128">
         <v>39.15</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>38.44407070074547</v>
+        <v>38.46677238874818</v>
       </c>
       <c r="B129">
         <v>38.32688</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>28.62818511333385</v>
+        <v>27.38695208015645</v>
       </c>
       <c r="B130">
         <v>39.640282</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>26.64636617129668</v>
+        <v>26.34156455388656</v>
       </c>
       <c r="B131">
         <v>39.256672</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>40.81021484331801</v>
+        <v>41.15729520444231</v>
       </c>
       <c r="B132">
         <v>40.063611</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>31.176162261244</v>
+        <v>31.23633842610311</v>
       </c>
       <c r="B133">
         <v>39.758888</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>26.96913317115849</v>
+        <v>27.23055157202927</v>
       </c>
       <c r="B134">
         <v>39.339722</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>29.03892421289985</v>
+        <v>29.07535602536144</v>
       </c>
       <c r="B135">
         <v>39.35944</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>26.93465081906902</v>
+        <v>25.99443202218173</v>
       </c>
       <c r="B136">
         <v>39.10083</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>27.38075332026549</v>
+        <v>27.81278558572188</v>
       </c>
       <c r="B137">
         <v>39.301941</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>29.22171611091631</v>
+        <v>29.10047865586667</v>
       </c>
       <c r="B138">
         <v>39.212502</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>28.86398561154823</v>
+        <v>28.82233210952657</v>
       </c>
       <c r="B139">
         <v>39.312778</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>27.94118084827697</v>
+        <v>28.23555450052015</v>
       </c>
       <c r="B140">
         <v>39.321941</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>27.94118084827697</v>
+        <v>28.23555450052015</v>
       </c>
       <c r="B141">
         <v>39.326111</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>34.5137999666</v>
+        <v>34.11345869572481</v>
       </c>
       <c r="B142">
         <v>42.5147</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>28.81626324862455</v>
+        <v>29.07329808539688</v>
       </c>
       <c r="B143">
         <v>39.294998</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>31.29700810899902</v>
+        <v>31.33207762823351</v>
       </c>
       <c r="B144">
         <v>39.372219</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>29.6777838515126</v>
+        <v>29.62684579320609</v>
       </c>
       <c r="B145">
         <v>39.331108</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>28.00052546740965</v>
+        <v>28.29848153746345</v>
       </c>
       <c r="B146">
         <v>38.808331</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>28.38996152646212</v>
+        <v>28.71249706836579</v>
       </c>
       <c r="B147">
         <v>38.786942</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>27.63875706329099</v>
+        <v>28.14240869269458</v>
       </c>
       <c r="B148">
         <v>38.665001</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>28.70733665160859</v>
+        <v>28.75261365031463</v>
       </c>
       <c r="B149">
         <v>38.728329</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>35.85021042075387</v>
+        <v>36.49794113175899</v>
       </c>
       <c r="B150">
         <v>39.362221</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>32.55349245698829</v>
+        <v>31.9661501656895</v>
       </c>
       <c r="B151">
         <v>40.283333</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>30.59824726533861</v>
+        <v>30.61787731617052</v>
       </c>
       <c r="B152">
         <v>38.965832</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>59.63863971723016</v>
+        <v>59.59794505826785</v>
       </c>
       <c r="B153">
         <v>38.7775</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>45.22078486841045</v>
+        <v>45.3583463339295</v>
       </c>
       <c r="B154">
         <v>36.74167</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>53.45686313670804</v>
+        <v>53.19833943367554</v>
       </c>
       <c r="B155">
         <v>37.4744</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>46.54411690931273</v>
+        <v>46.23093930386079</v>
       </c>
       <c r="B156">
         <v>37.1167</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>39.89882238010429</v>
+        <v>39.78220621781345</v>
       </c>
       <c r="B157">
         <v>36.75</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>39.4280352607072</v>
+        <v>39.26234890544615</v>
       </c>
       <c r="B158">
         <v>36.70222</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>43.55591013027951</v>
+        <v>43.41528659951587</v>
       </c>
       <c r="B159">
         <v>37.083333</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>30.28434912626682</v>
+        <v>30.97338324389634</v>
       </c>
       <c r="B160">
         <v>39.15</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>55.53038636494122</v>
+        <v>55.50315335644954</v>
       </c>
       <c r="B161">
         <v>38.8</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>55.7264347018131</v>
+        <v>55.92128375934168</v>
       </c>
       <c r="B162">
         <v>38.77</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>55.7264347018131</v>
+        <v>55.92128375934168</v>
       </c>
       <c r="B163">
         <v>38.776</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>57.99394895086419</v>
+        <v>58.32374250610965</v>
       </c>
       <c r="B164">
         <v>38.78</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>45.22078486841045</v>
+        <v>45.3583463339295</v>
       </c>
       <c r="B165">
         <v>36.746</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>39.1124257308155</v>
+        <v>38.81980093062324</v>
       </c>
       <c r="B166">
         <v>36.625</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>57.76896934504678</v>
+        <v>57.68279216018529</v>
       </c>
       <c r="B167">
         <v>38.74</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>57.92787451922482</v>
+        <v>57.97176697232776</v>
       </c>
       <c r="B168">
         <v>38.75583</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>43.53762129842125</v>
+        <v>43.93092618063706</v>
       </c>
       <c r="B169">
         <v>42.76369</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>45.45664234629287</v>
+        <v>45.19084735616347</v>
       </c>
       <c r="B170">
         <v>42.85431</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>45.51991277525617</v>
+        <v>45.44488818635149</v>
       </c>
       <c r="B171">
         <v>42.94437</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>45.45565849697519</v>
+        <v>45.57897847816594</v>
       </c>
       <c r="B172">
         <v>42.85445</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>47.91290057596386</v>
+        <v>48.28193564478244</v>
       </c>
       <c r="B173">
         <v>42.89858</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>44.5103358567895</v>
+        <v>44.82647351059716</v>
       </c>
       <c r="B174">
         <v>42.96808</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>33.86891430008941</v>
+        <v>34.1410687752165</v>
       </c>
       <c r="B175">
         <v>43.46493</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>33.65508805117989</v>
+        <v>34.03068187250634</v>
       </c>
       <c r="B176">
         <v>43.17554</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>34.87856634470387</v>
+        <v>34.95880992471981</v>
       </c>
       <c r="B177">
         <v>43.17218</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>57.63014191068866</v>
+        <v>57.97423327790283</v>
       </c>
       <c r="B178">
         <v>38.74028</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>58.4559848324559</v>
+        <v>58.55084579328508</v>
       </c>
       <c r="B179">
         <v>38.7333</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>60.35200619449769</v>
+        <v>60.52436781430515</v>
       </c>
       <c r="B180">
         <v>38.983333</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>55.91824994784997</v>
+        <v>55.7571968738995</v>
       </c>
       <c r="B181">
         <v>37.4167</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>49.34013885518128</v>
+        <v>49.07322831495202</v>
       </c>
       <c r="B182">
         <v>40.8767</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>57.05729126170171</v>
+        <v>56.92650110811255</v>
       </c>
       <c r="B183">
         <v>38.51</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>58.20565877181455</v>
+        <v>58.24898953426588</v>
       </c>
       <c r="B184">
         <v>39.95</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>58.92119055664744</v>
+        <v>59.04683871257317</v>
       </c>
       <c r="B185">
         <v>38.78</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>57.81321582797726</v>
+        <v>57.85155845836041</v>
       </c>
       <c r="B186">
         <v>39.95</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>57.78699661471078</v>
+        <v>57.78498357780932</v>
       </c>
       <c r="B187">
         <v>39.96</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>57.78699661471078</v>
+        <v>57.78498357780932</v>
       </c>
       <c r="B188">
         <v>39.96</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>47.75849578899701</v>
+        <v>47.85569091914054</v>
       </c>
       <c r="B189">
         <v>39.95</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>47.74227426529369</v>
+        <v>47.85569091914054</v>
       </c>
       <c r="B190">
         <v>39.96</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>57.99578452573949</v>
+        <v>58.09461814676594</v>
       </c>
       <c r="B191">
         <v>39.924</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>57.10788414357171</v>
+        <v>57.25402724201905</v>
       </c>
       <c r="B192">
         <v>41.0386</v>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>51.27985145035178</v>
+        <v>51.06389044368311</v>
       </c>
       <c r="B193">
         <v>40.05</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>59.99400944749753</v>
+        <v>60.22930249184391</v>
       </c>
       <c r="B194">
         <v>41.04</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>55.15198091769592</v>
+        <v>54.89620557626977</v>
       </c>
       <c r="B195">
         <v>40.9936</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>48.88021407567382</v>
+        <v>49.02138031537321</v>
       </c>
       <c r="B196">
         <v>40.06</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>58.39952375595396</v>
+        <v>58.86216969877272</v>
       </c>
       <c r="B197">
         <v>40.05</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>60.63627985640053</v>
+        <v>60.94261693726508</v>
       </c>
       <c r="B198">
         <v>40.05</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>48.74023839707399</v>
+        <v>49.33862453293783</v>
       </c>
       <c r="B199">
         <v>40.431</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>48.77060455246583</v>
+        <v>49.34665664731423</v>
       </c>
       <c r="B200">
         <v>40.404</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>60.50949684257537</v>
+        <v>60.70407204251777</v>
       </c>
       <c r="B201">
         <v>38.3333</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>51.64450864903952</v>
+        <v>52.18703483347669</v>
       </c>
       <c r="B202">
         <v>41.7148</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>49.87447750079266</v>
+        <v>50.20616014210215</v>
       </c>
       <c r="B203">
         <v>40.5264</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>47.45820378886887</v>
+        <v>47.38851042235424</v>
       </c>
       <c r="B204">
         <v>42.61</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>47.45820378886887</v>
+        <v>47.38851042235424</v>
       </c>
       <c r="B205">
         <v>42.616005</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>45.36366555428326</v>
+        <v>45.73234932840717</v>
       </c>
       <c r="B206">
         <v>37.249</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>61.4525238315466</v>
+        <v>61.1258616946397</v>
       </c>
       <c r="B207">
         <v>39.9786</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>51.66413000597153</v>
+        <v>51.46622254089697</v>
       </c>
       <c r="B208">
         <v>38.2337</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>56.7632463571736</v>
+        <v>56.74649540692677</v>
       </c>
       <c r="B209">
         <v>36.861</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>56.7632463571736</v>
+        <v>56.74649540692677</v>
       </c>
       <c r="B210">
         <v>36.87</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>42.5083000330567</v>
+        <v>42.84816796409566</v>
       </c>
       <c r="B211">
         <v>37.24</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>40.43696825741272</v>
+        <v>39.36984029684181</v>
       </c>
       <c r="B212">
         <v>36.88</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>56.76334275213894</v>
+        <v>56.21121762582082</v>
       </c>
       <c r="B213">
         <v>37.9007</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>56.8319435612271</v>
+        <v>56.31296160357019</v>
       </c>
       <c r="B214">
         <v>37.9007</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>57.69446009454503</v>
+        <v>57.8030339736884</v>
       </c>
       <c r="B215">
         <v>36.807657</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>51.4188464927344</v>
+        <v>51.09236634543205</v>
       </c>
       <c r="B216">
         <v>37.68</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>47.65517613802632</v>
+        <v>47.53452942949949</v>
       </c>
       <c r="B217">
         <v>37.26659</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>59.25157397523544</v>
+        <v>58.23531521120668</v>
       </c>
       <c r="B218">
         <v>41.1144</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>53.52871744661593</v>
+        <v>53.3928427301391</v>
       </c>
       <c r="B219">
         <v>37.751</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>50.48557538844738</v>
+        <v>50.04594737656596</v>
       </c>
       <c r="B220">
         <v>37.2667</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>42.52101870588793</v>
+        <v>42.14131781289434</v>
       </c>
       <c r="B221">
         <v>36.894</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>44.17387299600918</v>
+        <v>43.24070372603585</v>
       </c>
       <c r="B222">
         <v>36.876</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>62.79831540092452</v>
+        <v>62.9204629183884</v>
       </c>
       <c r="B223">
         <v>41.0222</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>62.79831540092452</v>
+        <v>62.9204629183884</v>
       </c>
       <c r="B224">
         <v>41.0313</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>53.76954000340257</v>
+        <v>53.24101728989406</v>
       </c>
       <c r="B225">
         <v>37.72</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>51.71136582816195</v>
+        <v>51.86026339729558</v>
       </c>
       <c r="B226">
         <v>37.53</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>62.40533584152055</v>
+        <v>62.41396799997503</v>
       </c>
       <c r="B227">
         <v>37.3333</v>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>53.31282234963428</v>
+        <v>53.2289624612569</v>
       </c>
       <c r="B228">
         <v>37.44</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>48.82009352704932</v>
+        <v>48.6875871962292</v>
       </c>
       <c r="B229">
         <v>36.9674</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>67.19748636654889</v>
+        <v>66.96397618721258</v>
       </c>
       <c r="B230">
         <v>40.2551</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>49.53429141095127</v>
+        <v>49.94295776239059</v>
       </c>
       <c r="B231">
         <v>42.808</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>40.74303576876639</v>
+        <v>40.50060938216036</v>
       </c>
       <c r="B232">
         <v>36.663</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>52.52253782593785</v>
+        <v>52.569078872574</v>
       </c>
       <c r="B233">
         <v>42.825</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>41.7999689403069</v>
+        <v>41.37331751899453</v>
       </c>
       <c r="B234">
         <v>36.741</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>39.13616835965563</v>
+        <v>38.8653808919113</v>
       </c>
       <c r="B235">
         <v>36.632</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>49.33594796367843</v>
+        <v>49.26103130177221</v>
       </c>
       <c r="B236">
         <v>37.19472</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>39.4556334569025</v>
+        <v>39.35198420955504</v>
       </c>
       <c r="B237">
         <v>36.705</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>49.80593881450662</v>
+        <v>49.88800880927599</v>
       </c>
       <c r="B238">
         <v>41.306</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>47.80780170669122</v>
+        <v>47.55525341748583</v>
       </c>
       <c r="B239">
         <v>41.53</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>46.01467447709848</v>
+        <v>45.80824925513079</v>
       </c>
       <c r="B240">
         <v>41.5336</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>48.12479428495986</v>
+        <v>47.88467036286514</v>
       </c>
       <c r="B241">
         <v>41.84289</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>48.52783585872702</v>
+        <v>48.54107686570597</v>
       </c>
       <c r="B242">
         <v>41.8167</v>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>49.31491107213166</v>
+        <v>49.31329767647979</v>
       </c>
       <c r="B243">
         <v>41.759909</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>45.61098580940468</v>
+        <v>45.36720666847711</v>
       </c>
       <c r="B244">
         <v>40.4112</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>42.59950139804433</v>
+        <v>42.52995548622901</v>
       </c>
       <c r="B245">
         <v>39.3167</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>43.02726238750603</v>
+        <v>43.35366183642313</v>
       </c>
       <c r="B246">
         <v>37.15</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>48.89215888161327</v>
+        <v>48.76572833159629</v>
       </c>
       <c r="B247">
         <v>40.61</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>49.28463779793672</v>
+        <v>49.01830588307406</v>
       </c>
       <c r="B248">
         <v>40.85</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>52.28638436796754</v>
+        <v>52.13979325704425</v>
       </c>
       <c r="B249">
         <v>40.94</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>50.59902651916343</v>
+        <v>50.44075236217063</v>
       </c>
       <c r="B250">
         <v>42.58</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>46.61155097316184</v>
+        <v>47.36040829193919</v>
       </c>
       <c r="B251">
         <v>47.4894</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>47.83455773741807</v>
+        <v>47.72535234587417</v>
       </c>
       <c r="B252">
         <v>41.31</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>46.66822644668297</v>
+        <v>46.5942709786319</v>
       </c>
       <c r="B253">
         <v>41.31</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>53.63982575419689</v>
+        <v>53.24288772173215</v>
       </c>
       <c r="B254">
         <v>37.9667</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>44.66772838343422</v>
+        <v>44.34491502135141</v>
       </c>
       <c r="B255">
         <v>44.5576</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>45.41656574217731</v>
+        <v>45.59319535509462</v>
       </c>
       <c r="B256">
         <v>45.72929</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>38.32522030852594</v>
+        <v>38.93192576442173</v>
       </c>
       <c r="B257">
         <v>42.411119</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>34.86525407372529</v>
+        <v>34.69537826526091</v>
       </c>
       <c r="B258">
         <v>43.148646</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>34.25214374585705</v>
+        <v>33.5853261470976</v>
       </c>
       <c r="B259">
         <v>43.120632</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>34.55839600145039</v>
+        <v>35.00219046091104</v>
       </c>
       <c r="B260">
         <v>42.9473</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>39.23486113753631</v>
+        <v>39.56524125759666</v>
       </c>
       <c r="B261">
         <v>36.771932</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>41.53998409377658</v>
+        <v>41.76632396741674</v>
       </c>
       <c r="B262">
         <v>38.106939</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>47.99606212292398</v>
+        <v>47.94858870094805</v>
       </c>
       <c r="B263">
         <v>42.5261</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>51.66413000597153</v>
+        <v>51.46622254089697</v>
       </c>
       <c r="B264">
         <v>38.2461</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>27.86824670229825</v>
+        <v>27.58190586003874</v>
       </c>
       <c r="B265">
         <v>43.957236</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>35.2840230144144</v>
+        <v>35.16060231840744</v>
       </c>
       <c r="B266">
         <v>40.666577</v>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>32.88599378708194</v>
+        <v>32.81305530327442</v>
       </c>
       <c r="B267">
         <v>40.783333</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>45.64070611320574</v>
+        <v>45.87245129281034</v>
       </c>
       <c r="B268">
         <v>45.73047</v>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>47.21095930534233</v>
+        <v>47.20798657478647</v>
       </c>
       <c r="B269">
         <v>47.4275</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>45.39583939439457</v>
+        <v>45.65697507372231</v>
       </c>
       <c r="B270">
         <v>46.7911</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>45.88025741056038</v>
+        <v>46.97660511594269</v>
       </c>
       <c r="B271">
         <v>46.6307</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>46.45028918409705</v>
+        <v>46.33087154951538</v>
       </c>
       <c r="B272">
         <v>47.3929</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>56.8319435612271</v>
+        <v>56.2872122273227</v>
       </c>
       <c r="B273">
         <v>37.9083</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>47.36484433476488</v>
+        <v>47.30529944163112</v>
       </c>
       <c r="B274">
         <v>42.58263</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>43.59055916026944</v>
+        <v>43.5867417445757</v>
       </c>
       <c r="B275">
         <v>42.651132</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>47.68462677426662</v>
+        <v>48.27188478413559</v>
       </c>
       <c r="B276">
         <v>46.6907</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277">
-        <v>47.34057703937702</v>
+        <v>47.36135219320187</v>
       </c>
       <c r="B277">
         <v>42.65</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>47.89566140595052</v>
+        <v>49.1361866796222</v>
       </c>
       <c r="B278">
         <v>42.6742</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>47.33950613194247</v>
+        <v>47.76568280337692</v>
       </c>
       <c r="B279">
         <v>47.4353</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280">
-        <v>47.38452197795344</v>
+        <v>47.69921543246419</v>
       </c>
       <c r="B280">
         <v>47.3976</v>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>43.75865012276427</v>
+        <v>44.14076754172422</v>
       </c>
       <c r="B281">
         <v>42.94423</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>48.21169476217366</v>
+        <v>48.74580601978614</v>
       </c>
       <c r="B282">
         <v>47.1748</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283">
-        <v>28.30031852365319</v>
+        <v>27.77448738655647</v>
       </c>
       <c r="B283">
         <v>38.33713</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>28.43896655117014</v>
+        <v>27.77542409058969</v>
       </c>
       <c r="B284">
         <v>39.5</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>32.76187228431852</v>
+        <v>33.00118838566046</v>
       </c>
       <c r="B285">
         <v>40.233333</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
-        <v>28.0066306644638</v>
+        <v>27.39246598359104</v>
       </c>
       <c r="B286">
         <v>39.707218</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>29.06033719138076</v>
+        <v>28.90930348351894</v>
       </c>
       <c r="B287">
         <v>39.165829</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>33.59003856131822</v>
+        <v>33.730491181083</v>
       </c>
       <c r="B288">
         <v>40.114719</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289">
-        <v>32.01715929002409</v>
+        <v>31.54486585015744</v>
       </c>
       <c r="B289">
         <v>40.299999</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
-        <v>31.50533464048731</v>
+        <v>31.51762383693769</v>
       </c>
       <c r="B290">
         <v>40.103889</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>31.18809760209041</v>
+        <v>30.7183842692197</v>
       </c>
       <c r="B291">
         <v>40.193329</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>32.60257928531733</v>
+        <v>32.73474959680304</v>
       </c>
       <c r="B292">
         <v>39.852219</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>51.77436921209798</v>
+        <v>51.73278704887877</v>
       </c>
       <c r="B293">
         <v>37.3</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>31.01844980829704</v>
+        <v>30.23888869854684</v>
       </c>
       <c r="B294">
         <v>40.28611</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295">
-        <v>31.08823954213139</v>
+        <v>30.5353256903899</v>
       </c>
       <c r="B295">
         <v>40.177502</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>43.52423452667696</v>
+        <v>43.48468510939891</v>
       </c>
       <c r="B296">
         <v>40.07917</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>30.58088245395727</v>
+        <v>29.94644273832362</v>
       </c>
       <c r="B297">
         <v>40.130001</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
-        <v>45.11055980231335</v>
+        <v>45.30274598352052</v>
       </c>
       <c r="B298">
         <v>40.283329</v>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>45.65880757652856</v>
+        <v>45.85752014260406</v>
       </c>
       <c r="B299">
         <v>40.291111</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>43.43893647381124</v>
+        <v>43.62263544920431</v>
       </c>
       <c r="B300">
         <v>40.18417</v>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>33.75935755839053</v>
+        <v>33.80416755065782</v>
       </c>
       <c r="B301">
         <v>40.442219</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>28.27654771713697</v>
+        <v>28.88166536281186</v>
       </c>
       <c r="B302">
         <v>38.625</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>31.15066201583706</v>
+        <v>30.21570996148901</v>
       </c>
       <c r="B303">
         <v>40.223888</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>57.2093652509451</v>
+        <v>57.7261681183291</v>
       </c>
       <c r="B304">
         <v>36.9833</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>32.55349245698829</v>
+        <v>31.9661501656895</v>
       </c>
       <c r="B305">
         <v>40.29361</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>47.94880764254624</v>
+        <v>47.90568470363991</v>
       </c>
       <c r="B306">
         <v>40.483891</v>
@@ -3754,7 +3754,7 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307">
-        <v>41.12594790554321</v>
+        <v>41.53026301234115</v>
       </c>
       <c r="B307">
         <v>39.708611</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>34.28744739280245</v>
+        <v>33.68738833927164</v>
       </c>
       <c r="B308">
         <v>40.298328</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>34.93284497093115</v>
+        <v>34.17361898651559</v>
       </c>
       <c r="B309">
         <v>40.633333</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310">
-        <v>33.49102640135501</v>
+        <v>33.74813796651216</v>
       </c>
       <c r="B310">
         <v>38.944439</v>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311">
-        <v>32.71208483585845</v>
+        <v>32.45876215987502</v>
       </c>
       <c r="B311">
         <v>38.85194</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312">
-        <v>42.16035101356786</v>
+        <v>42.18441968729404</v>
       </c>
       <c r="B312">
         <v>40.735001</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313">
-        <v>41.23378782335936</v>
+        <v>41.19796562043403</v>
       </c>
       <c r="B313">
         <v>36.95</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314">
-        <v>32.48315890954304</v>
+        <v>32.29027299230506</v>
       </c>
       <c r="B314">
         <v>38.919441</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315">
-        <v>32.47864883174759</v>
+        <v>32.28675327657513</v>
       </c>
       <c r="B315">
         <v>38.923061</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316">
-        <v>32.38733707842437</v>
+        <v>32.08462369254529</v>
       </c>
       <c r="B316">
         <v>40.816667</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317">
-        <v>32.47960934598957</v>
+        <v>32.46978497677948</v>
       </c>
       <c r="B317">
         <v>39.665562</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
-        <v>34.71854024971054</v>
+        <v>34.53374481046449</v>
       </c>
       <c r="B318">
         <v>40.60194</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319">
-        <v>32.27488518429573</v>
+        <v>32.23871329423892</v>
       </c>
       <c r="B319">
         <v>38.9</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320">
-        <v>33.76034914858762</v>
+        <v>33.2386330113276</v>
       </c>
       <c r="B320">
         <v>40.493889</v>
@@ -3908,7 +3908,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>49.79328275097532</v>
+        <v>49.60704647071971</v>
       </c>
       <c r="B321">
         <v>37.2333</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
-        <v>31.37414469883288</v>
+        <v>31.42748153976541</v>
       </c>
       <c r="B322">
         <v>38.728062</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
-        <v>32.91331799005692</v>
+        <v>32.62112802650417</v>
       </c>
       <c r="B323">
         <v>38.56694</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
-        <v>36.59677421342381</v>
+        <v>36.40206455991179</v>
       </c>
       <c r="B324">
         <v>40.083333</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325">
-        <v>31.48479160641999</v>
+        <v>31.27771309412107</v>
       </c>
       <c r="B325">
         <v>39.798889</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326">
-        <v>29.95422631922778</v>
+        <v>29.93349132545207</v>
       </c>
       <c r="B326">
         <v>38.50528</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327">
-        <v>32.37558203289838</v>
+        <v>32.27134936712768</v>
       </c>
       <c r="B327">
         <v>39.900002</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
-        <v>33.42378165035917</v>
+        <v>33.10887273451998</v>
       </c>
       <c r="B328">
         <v>39.71944</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329">
-        <v>29.85230727184765</v>
+        <v>28.96515710946083</v>
       </c>
       <c r="B329">
         <v>38.419998</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>29.58487777630482</v>
+        <v>29.3085217671665</v>
       </c>
       <c r="B330">
         <v>37.96944</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
-        <v>31.27673104385282</v>
+        <v>31.50662766395293</v>
       </c>
       <c r="B331">
         <v>39.92889</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332">
-        <v>27.07853302762069</v>
+        <v>28.33660266253856</v>
       </c>
       <c r="B332">
         <v>40.03083</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333">
-        <v>31.15294464164893</v>
+        <v>31.6554732046782</v>
       </c>
       <c r="B333">
         <v>38.683333</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334">
-        <v>33.44355993654635</v>
+        <v>33.19564460807584</v>
       </c>
       <c r="B334">
         <v>40.093609</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335">
-        <v>36.13313717543919</v>
+        <v>35.90777296840973</v>
       </c>
       <c r="B335">
         <v>39.910278</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336">
-        <v>32.63664313655264</v>
+        <v>32.81410973012666</v>
       </c>
       <c r="B336">
         <v>38.059441</v>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>32.92351354593433</v>
+        <v>33.03984955926818</v>
       </c>
       <c r="B337">
         <v>38.03611</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>35.886019389073</v>
+        <v>35.49107526506624</v>
       </c>
       <c r="B338">
         <v>39.98056</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>33.09522075742584</v>
+        <v>33.31510137715365</v>
       </c>
       <c r="B339">
         <v>37.980831</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>35.03406974590261</v>
+        <v>34.87990780988589</v>
       </c>
       <c r="B340">
         <v>39.92944</v>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>47.06483689188235</v>
+        <v>46.98016090281688</v>
       </c>
       <c r="B341">
         <v>37.25917</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>31.19864150024109</v>
+        <v>31.514658012937</v>
       </c>
       <c r="B342">
         <v>39.895561</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
-        <v>41.85313736069047</v>
+        <v>41.83063574362151</v>
       </c>
       <c r="B343">
         <v>38.484169</v>
@@ -4161,7 +4161,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>30.64222810638956</v>
+        <v>30.9579534030701</v>
       </c>
       <c r="B344">
         <v>37.281391</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>33.5759114327379</v>
+        <v>33.79831588902462</v>
       </c>
       <c r="B345">
         <v>37.235561</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346">
-        <v>33.91704414934974</v>
+        <v>34.57742768390474</v>
       </c>
       <c r="B346">
         <v>38.95528</v>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>30.99482808957143</v>
+        <v>30.93904722464291</v>
       </c>
       <c r="B347">
         <v>39.762779</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>31.09321809222305</v>
+        <v>31.72549440781028</v>
       </c>
       <c r="B348">
         <v>37.288609</v>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349">
-        <v>35.41483143283249</v>
+        <v>35.45782506824993</v>
       </c>
       <c r="B349">
         <v>37.155281</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350">
-        <v>29.43934246897076</v>
+        <v>29.98370868401341</v>
       </c>
       <c r="B350">
         <v>38.478611</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
-        <v>43.80335009952744</v>
+        <v>43.8900623280143</v>
       </c>
       <c r="B351">
         <v>39.567501</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
-        <v>33.37780267473423</v>
+        <v>33.21797340618302</v>
       </c>
       <c r="B352">
         <v>38.3825</v>
@@ -4260,7 +4260,7 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>26.07935858438359</v>
+        <v>26.78016441004758</v>
       </c>
       <c r="B353">
         <v>41.22361</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354">
-        <v>29.95136729402972</v>
+        <v>30.54378945777746</v>
       </c>
       <c r="B354">
         <v>40.733333</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>41.10340330857369</v>
+        <v>41.49804136189051</v>
       </c>
       <c r="B355">
         <v>41.285561</v>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>48.39511508155486</v>
+        <v>48.56624989130009</v>
       </c>
       <c r="B356">
         <v>38.512218</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>25.85129642160798</v>
+        <v>26.58293292672762</v>
       </c>
       <c r="B357">
         <v>40.51556</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>27.03215301181329</v>
+        <v>27.56073307741454</v>
       </c>
       <c r="B358">
         <v>40.983333</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>48.34631353917247</v>
+        <v>48.31151218208016</v>
       </c>
       <c r="B359">
         <v>42.3358</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>46.26727176270597</v>
+        <v>46.258512804937</v>
       </c>
       <c r="B360">
         <v>37.26472</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>27.50958641425949</v>
+        <v>28.52342622400776</v>
       </c>
       <c r="B361">
         <v>41.037498</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>36.65655423580175</v>
+        <v>36.16531555063941</v>
       </c>
       <c r="B362">
         <v>38.208328</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>42.27745341651104</v>
+        <v>42.14323324709951</v>
       </c>
       <c r="B363">
         <v>41.282219</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>29.67383853690662</v>
+        <v>30.64281455071681</v>
       </c>
       <c r="B364">
         <v>41.341389</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>44.62817140452647</v>
+        <v>44.36264572184317</v>
       </c>
       <c r="B365">
         <v>41.1875</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>29.40233769747994</v>
+        <v>30.06482960307603</v>
       </c>
       <c r="B366">
         <v>41.38306</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367">
-        <v>29.24301456814313</v>
+        <v>28.84431962109354</v>
       </c>
       <c r="B367">
         <v>41.259171</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368">
-        <v>29.28583589341534</v>
+        <v>28.83327686834099</v>
       </c>
       <c r="B368">
         <v>41.150002</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369">
-        <v>31.65103076664989</v>
+        <v>31.8795589756111</v>
       </c>
       <c r="B369">
         <v>41.306938</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370">
-        <v>30.06744871763732</v>
+        <v>30.0503034104085</v>
       </c>
       <c r="B370">
         <v>41.109718</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371">
-        <v>41.17883809240525</v>
+        <v>41.01486058760351</v>
       </c>
       <c r="B371">
         <v>41.073059</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372">
-        <v>30.49700422836205</v>
+        <v>29.83150242830625</v>
       </c>
       <c r="B372">
         <v>41.100559</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373">
-        <v>46.27547217099597</v>
+        <v>46.14032412939854</v>
       </c>
       <c r="B373">
         <v>37.2231</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374">
-        <v>34.29283655190655</v>
+        <v>34.35305521572639</v>
       </c>
       <c r="B374">
         <v>38.654171</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375">
-        <v>31.40238043608419</v>
+        <v>31.65372741670899</v>
       </c>
       <c r="B375">
         <v>37.933333</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376">
-        <v>33.85236462812962</v>
+        <v>34.1643001150603</v>
       </c>
       <c r="B376">
         <v>38.63333</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377">
-        <v>33.13701523193723</v>
+        <v>32.94478526973261</v>
       </c>
       <c r="B377">
         <v>35.35</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378">
-        <v>30.08429850083125</v>
+        <v>29.73763201046302</v>
       </c>
       <c r="B378">
         <v>40.876389</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379">
-        <v>37.86199679486664</v>
+        <v>37.99020031381205</v>
       </c>
       <c r="B379">
         <v>41.362782</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380">
-        <v>29.72202613142034</v>
+        <v>30.45942707199848</v>
       </c>
       <c r="B380">
         <v>41.160278</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381">
-        <v>31.87646723698656</v>
+        <v>31.79110218615579</v>
       </c>
       <c r="B381">
         <v>41.118889</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382">
-        <v>35.53483340325143</v>
+        <v>35.49196364321537</v>
       </c>
       <c r="B382">
         <v>41.116669</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383">
-        <v>59.25157397523544</v>
+        <v>58.23531521120668</v>
       </c>
       <c r="B383">
         <v>41.1253</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384">
-        <v>32.56080632495213</v>
+        <v>32.9415383662992</v>
       </c>
       <c r="B384">
         <v>41.33083</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385">
-        <v>39.8865244919746</v>
+        <v>39.54665646630346</v>
       </c>
       <c r="B385">
         <v>37.133333</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386">
-        <v>31.57412844578681</v>
+        <v>31.85799727564979</v>
       </c>
       <c r="B386">
         <v>41.28833</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387">
-        <v>33.0534576172315</v>
+        <v>32.91348031783082</v>
       </c>
       <c r="B387">
         <v>41.058331</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388">
-        <v>33.49023834908974</v>
+        <v>33.46608311954387</v>
       </c>
       <c r="B388">
         <v>41.133888</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389">
-        <v>45.68688610934243</v>
+        <v>45.11404192242493</v>
       </c>
       <c r="B389">
         <v>40.967136</v>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390">
-        <v>34.56795764041319</v>
+        <v>34.59123671675516</v>
       </c>
       <c r="B390">
         <v>41.107498</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391">
-        <v>34.37395604027654</v>
+        <v>34.36346428178162</v>
       </c>
       <c r="B391">
         <v>41.14444</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392">
-        <v>32.20031961914785</v>
+        <v>32.16538473548377</v>
       </c>
       <c r="B392">
         <v>37.4</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393">
-        <v>44.31704772698821</v>
+        <v>43.89344388321047</v>
       </c>
       <c r="B393">
         <v>40.969719</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394">
-        <v>53.52871744661593</v>
+        <v>53.3928427301391</v>
       </c>
       <c r="B394">
         <v>37.7433</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395">
-        <v>31.14457816241101</v>
+        <v>31.02099990515256</v>
       </c>
       <c r="B395">
         <v>37.45</v>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396">
-        <v>32.56746144686349</v>
+        <v>33.42022001627963</v>
       </c>
       <c r="B396">
         <v>37.116667</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397">
-        <v>47.62566409393419</v>
+        <v>47.68080767274858</v>
       </c>
       <c r="B397">
         <v>41.17083</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398">
-        <v>37.55704071159002</v>
+        <v>38.23815347556634</v>
       </c>
       <c r="B398">
         <v>41.133333</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399">
-        <v>26.96199140240201</v>
+        <v>26.69230917495661</v>
       </c>
       <c r="B399">
         <v>35.15</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400">
-        <v>44.48326467149793</v>
+        <v>43.98405219431567</v>
       </c>
       <c r="B400">
         <v>41.016667</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401">
-        <v>35.00178081102788</v>
+        <v>35.58178337225947</v>
       </c>
       <c r="B401">
         <v>41.1</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402">
-        <v>40.15270822412158</v>
+        <v>40.93202529853647</v>
       </c>
       <c r="B402">
         <v>42.04556</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403">
-        <v>34.03797515487711</v>
+        <v>34.26453794435329</v>
       </c>
       <c r="B403">
         <v>42.66972</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404">
-        <v>30.2485588472236</v>
+        <v>30.59209165883818</v>
       </c>
       <c r="B404">
         <v>38.35</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405">
-        <v>37.76972701076058</v>
+        <v>37.3380733596892</v>
       </c>
       <c r="B405">
         <v>44.02356</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406">
-        <v>38.59588287260131</v>
+        <v>38.42010123954876</v>
       </c>
       <c r="B406">
         <v>44.11356</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407">
-        <v>39.54343698382218</v>
+        <v>39.65794861637855</v>
       </c>
       <c r="B407">
         <v>44.38359</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408">
-        <v>38.9752527925508</v>
+        <v>38.43484053882803</v>
       </c>
       <c r="B408">
         <v>44.29258</v>
@@ -4876,7 +4876,7 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409">
-        <v>41.82399750930801</v>
+        <v>41.78600573302077</v>
       </c>
       <c r="B409">
         <v>44.74008</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410">
-        <v>42.4768520939047</v>
+        <v>42.56324600437841</v>
       </c>
       <c r="B410">
         <v>44.566667</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411">
-        <v>48.52867440915533</v>
+        <v>48.40793832013752</v>
       </c>
       <c r="B411">
         <v>37.311944</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412">
-        <v>42.24587535730841</v>
+        <v>42.51590970684809</v>
       </c>
       <c r="B412">
         <v>44.466667</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413">
-        <v>43.39520228100237</v>
+        <v>43.72326931447164</v>
       </c>
       <c r="B413">
         <v>44.433333</v>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414">
-        <v>45.24587323814818</v>
+        <v>45.74906222905757</v>
       </c>
       <c r="B414">
         <v>44.75</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415">
-        <v>41.75001194111321</v>
+        <v>42.01714663639983</v>
       </c>
       <c r="B415">
         <v>44.820921</v>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416">
-        <v>41.95573286713254</v>
+        <v>42.10409013665942</v>
       </c>
       <c r="B416">
         <v>44.823856</v>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417">
-        <v>41.95573286713254</v>
+        <v>42.10409013665942</v>
       </c>
       <c r="B417">
         <v>44.844858</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418">
-        <v>44.53541800594193</v>
+        <v>44.10396820555155</v>
       </c>
       <c r="B418">
         <v>44.8494</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419">
-        <v>44.53541800594193</v>
+        <v>44.10396820555155</v>
       </c>
       <c r="B419">
         <v>44.854971</v>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420">
-        <v>42.26611979247366</v>
+        <v>42.02439513653837</v>
       </c>
       <c r="B420">
         <v>44.927407</v>
@@ -5008,7 +5008,7 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421">
-        <v>67.9633804363496</v>
+        <v>68.07281595748123</v>
       </c>
       <c r="B421">
         <v>41.4333</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422">
-        <v>42.05792943576617</v>
+        <v>41.70202006034934</v>
       </c>
       <c r="B422">
         <v>44.857177</v>
@@ -5030,7 +5030,7 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423">
-        <v>42.05792943576617</v>
+        <v>41.70202006034934</v>
       </c>
       <c r="B423">
         <v>44.866667</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424">
-        <v>41.26753170789704</v>
+        <v>41.04600959556883</v>
       </c>
       <c r="B424">
         <v>44.950282</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425">
-        <v>43.53986732821553</v>
+        <v>43.1053600338641</v>
       </c>
       <c r="B425">
         <v>44.903794</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426">
-        <v>43.53986732821553</v>
+        <v>43.1053600338641</v>
       </c>
       <c r="B426">
         <v>44.916667</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427">
-        <v>43.22050424560699</v>
+        <v>43.10785634610788</v>
       </c>
       <c r="B427">
         <v>44.926883</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428">
-        <v>41.33020770827409</v>
+        <v>41.71519650776406</v>
       </c>
       <c r="B428">
         <v>44.924946</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429">
-        <v>43.35749890195172</v>
+        <v>42.64058848246606</v>
       </c>
       <c r="B429">
         <v>44.932841</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430">
-        <v>62.81438914534689</v>
+        <v>62.9204629183884</v>
       </c>
       <c r="B430">
         <v>41.0328</v>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431">
-        <v>45.42883813730128</v>
+        <v>45.81279133284684</v>
       </c>
       <c r="B431">
         <v>44.75888</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432">
-        <v>44.08689548058886</v>
+        <v>44.35968204658079</v>
       </c>
       <c r="B432">
         <v>44.703669</v>
@@ -5140,7 +5140,7 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433">
-        <v>38.70690192615758</v>
+        <v>39.98413619595769</v>
       </c>
       <c r="B433">
         <v>37.4</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434">
-        <v>48.42064595599015</v>
+        <v>47.57103592514009</v>
       </c>
       <c r="B434">
         <v>37.05</v>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435">
-        <v>48.42064595599015</v>
+        <v>47.57103592514009</v>
       </c>
       <c r="B435">
         <v>37.016667</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436">
-        <v>32.31546660915248</v>
+        <v>32.85378788876435</v>
       </c>
       <c r="B436">
         <v>44.37758</v>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437">
-        <v>31.04297068037334</v>
+        <v>31.17561241303002</v>
       </c>
       <c r="B437">
         <v>44.46759</v>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438">
-        <v>29.89560709199641</v>
+        <v>29.84038828970031</v>
       </c>
       <c r="B438">
         <v>44.10616</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439">
-        <v>24.25851145127674</v>
+        <v>24.1392792027514</v>
       </c>
       <c r="B439">
         <v>44.37615</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440">
-        <v>67.32100021675146</v>
+        <v>66.92265622583554</v>
       </c>
       <c r="B440">
         <v>40.3167</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441">
-        <v>30.62291854919855</v>
+        <v>30.91089739245795</v>
       </c>
       <c r="B441">
         <v>44.46616</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442">
-        <v>32.3464188443286</v>
+        <v>32.96496449581902</v>
       </c>
       <c r="B442">
         <v>44.55617</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443">
-        <v>31.19078031266213</v>
+        <v>31.4649997835806</v>
       </c>
       <c r="B443">
         <v>44.53347</v>
@@ -5261,7 +5261,7 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444">
-        <v>30.36775649356268</v>
+        <v>30.45290250754425</v>
       </c>
       <c r="B444">
         <v>44.19458</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445">
-        <v>23.71535922626204</v>
+        <v>23.46940402735098</v>
       </c>
       <c r="B445">
         <v>44.28458</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446">
-        <v>30.69776468687983</v>
+        <v>31.03383051234873</v>
       </c>
       <c r="B446">
         <v>44.37458</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447">
-        <v>31.76619028197227</v>
+        <v>31.98839475160095</v>
       </c>
       <c r="B447">
         <v>44.46458</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448">
-        <v>31.51845393133511</v>
+        <v>31.78402703720176</v>
       </c>
       <c r="B448">
         <v>44.55459</v>
@@ -5316,7 +5316,7 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449">
-        <v>31.45821901191788</v>
+        <v>31.44896093157754</v>
       </c>
       <c r="B449">
         <v>44.51728</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450">
-        <v>30.83387756416127</v>
+        <v>30.7360019282597</v>
       </c>
       <c r="B450">
         <v>44.37286</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451">
-        <v>22.57628655685412</v>
+        <v>22.39152979490553</v>
       </c>
       <c r="B451">
         <v>43.916667</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452">
-        <v>30.19203357250082</v>
+        <v>30.61949646165634</v>
       </c>
       <c r="B452">
         <v>44.46286</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453">
-        <v>23.93415657467159</v>
+        <v>23.883243448977</v>
       </c>
       <c r="B453">
         <v>44.369</v>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454">
-        <v>28.46254879412658</v>
+        <v>28.57109196948468</v>
       </c>
       <c r="B454">
         <v>44.45899</v>
@@ -5382,7 +5382,7 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455">
-        <v>26.5157645067147</v>
+        <v>26.69221767600573</v>
       </c>
       <c r="B455">
         <v>44.63899</v>
@@ -5393,7 +5393,7 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456">
-        <v>23.41840120628547</v>
+        <v>23.60020516104287</v>
       </c>
       <c r="B456">
         <v>44.45684</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457">
-        <v>40.1669702826636</v>
+        <v>40.62103559554534</v>
       </c>
       <c r="B457">
         <v>43.82472</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458">
-        <v>41.48123255644941</v>
+        <v>41.91399606009522</v>
       </c>
       <c r="B458">
         <v>44.00465</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459">
-        <v>29.55794971159002</v>
+        <v>29.46841006349223</v>
       </c>
       <c r="B459">
         <v>44.17912</v>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460">
-        <v>29.55794971159002</v>
+        <v>29.46841006349223</v>
       </c>
       <c r="B460">
         <v>44.1846</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461">
-        <v>66.60733517355359</v>
+        <v>65.99390062109551</v>
       </c>
       <c r="B461">
         <v>40.2756</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462">
-        <v>26.94428843825012</v>
+        <v>27.44042299961106</v>
       </c>
       <c r="B462">
         <v>44.36456</v>
@@ -5470,7 +5470,7 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463">
-        <v>25.9607807292734</v>
+        <v>25.68023642651383</v>
       </c>
       <c r="B463">
         <v>44.45455</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464">
-        <v>33.36653510462443</v>
+        <v>34.01003824782738</v>
       </c>
       <c r="B464">
         <v>43.70359</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465">
-        <v>30.34785954680794</v>
+        <v>30.97608741475317</v>
       </c>
       <c r="B465">
         <v>43.82232</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="466" spans="1:3">
       <c r="A466">
-        <v>23.92663944458425</v>
+        <v>24.13773522427515</v>
       </c>
       <c r="B466">
         <v>43.91227</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467">
-        <v>24.93587617100276</v>
+        <v>24.75428954652666</v>
       </c>
       <c r="B467">
         <v>44.00224</v>
@@ -5525,7 +5525,7 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468">
-        <v>22.92751912296695</v>
+        <v>22.95028062678024</v>
       </c>
       <c r="B468">
         <v>44.18218</v>
@@ -5536,7 +5536,7 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469">
-        <v>24.58950751202104</v>
+        <v>24.68187351924995</v>
       </c>
       <c r="B469">
         <v>44.27215</v>
@@ -5547,7 +5547,7 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470">
-        <v>23.61747956240695</v>
+        <v>23.68718889321627</v>
       </c>
       <c r="B470">
         <v>44.36213</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471">
-        <v>30.54566039459652</v>
+        <v>30.7802013252629</v>
       </c>
       <c r="B471">
         <v>44.72208</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472">
-        <v>36.88780159673995</v>
+        <v>36.87812007143648</v>
       </c>
       <c r="B472">
         <v>43.46</v>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473">
-        <v>28.89969991650942</v>
+        <v>29.11603644905679</v>
       </c>
       <c r="B473">
         <v>43.63988</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474">
-        <v>19.68377173165163</v>
+        <v>19.58567570252743</v>
       </c>
       <c r="B474">
         <v>43.81977</v>
@@ -5602,7 +5602,7 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475">
-        <v>21.45701812031403</v>
+        <v>21.29933387043511</v>
       </c>
       <c r="B475">
         <v>43.99968</v>
@@ -5613,7 +5613,7 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476">
-        <v>25.92946210285504</v>
+        <v>26.26723727508841</v>
       </c>
       <c r="B476">
         <v>44.08964</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477">
-        <v>25.15829345420971</v>
+        <v>25.25443561807634</v>
       </c>
       <c r="B477">
         <v>44.26958</v>
@@ -5635,7 +5635,7 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478">
-        <v>24.99296226398541</v>
+        <v>24.72612020001884</v>
       </c>
       <c r="B478">
         <v>44.35956</v>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479">
-        <v>24.85454716756914</v>
+        <v>24.7864592684783</v>
       </c>
       <c r="B479">
         <v>44.44953</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480">
-        <v>21.37299494999382</v>
+        <v>21.60416328943013</v>
       </c>
       <c r="B480">
         <v>43.82001</v>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481">
-        <v>31.50024480065846</v>
+        <v>31.85825584541377</v>
       </c>
       <c r="B481">
         <v>43.81708</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482">
-        <v>40.74303576876639</v>
+        <v>40.50060938216036</v>
       </c>
       <c r="B482">
         <v>36.644722</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483">
-        <v>27.31779641662181</v>
+        <v>27.61660554224115</v>
       </c>
       <c r="B483">
         <v>43.76632</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484">
-        <v>23.22658621655705</v>
+        <v>23.21990010436424</v>
       </c>
       <c r="B484">
         <v>43.99698</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485">
-        <v>26.39119320910998</v>
+        <v>26.66669591844673</v>
       </c>
       <c r="B485">
         <v>44.1769</v>
@@ -5723,7 +5723,7 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486">
-        <v>27.61110986383978</v>
+        <v>27.58187303165803</v>
       </c>
       <c r="B486">
         <v>44.26687</v>
@@ -5734,7 +5734,7 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487">
-        <v>20.99876429247345</v>
+        <v>21.22219336756849</v>
       </c>
       <c r="B487">
         <v>43.90419</v>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488">
-        <v>22.04878319791772</v>
+        <v>22.3298878942617</v>
       </c>
       <c r="B488">
         <v>43.99414</v>
@@ -5756,7 +5756,7 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489">
-        <v>27.7295869116794</v>
+        <v>28.10766777392284</v>
       </c>
       <c r="B489">
         <v>44.08409</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490">
-        <v>26.34115035777082</v>
+        <v>26.5438321800386</v>
       </c>
       <c r="B490">
         <v>44.17405</v>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491">
-        <v>24.53792896688274</v>
+        <v>24.77467593855744</v>
       </c>
       <c r="B491">
         <v>44.00367</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492">
-        <v>22.35032120259413</v>
+        <v>22.76686820016382</v>
       </c>
       <c r="B492">
         <v>43.93059</v>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493">
-        <v>44.52929585329727</v>
+        <v>44.41535530528485</v>
       </c>
       <c r="B493">
         <v>36.9667</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494">
-        <v>31.06273413332789</v>
+        <v>31.60173762592084</v>
       </c>
       <c r="B494">
         <v>43.80678</v>
@@ -5822,7 +5822,7 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495">
-        <v>26.43195262207249</v>
+        <v>26.7033267940612</v>
       </c>
       <c r="B495">
         <v>44.09836</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496">
-        <v>33.3917757866399</v>
+        <v>33.79922731471164</v>
       </c>
       <c r="B496">
         <v>43.36165</v>
@@ -5844,7 +5844,7 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497">
-        <v>32.36251256054994</v>
+        <v>32.64026165312782</v>
       </c>
       <c r="B497">
         <v>43.54148</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498">
-        <v>27.39347058166054</v>
+        <v>27.48989269535848</v>
       </c>
       <c r="B498">
         <v>43.6314</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499">
-        <v>30.93773238144379</v>
+        <v>30.84635083330393</v>
       </c>
       <c r="B499">
         <v>43.72133</v>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500">
-        <v>22.90718921240672</v>
+        <v>23.39646718811907</v>
       </c>
       <c r="B500">
         <v>43.90121</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501">
-        <v>23.73161874004616</v>
+        <v>23.99099624925676</v>
       </c>
       <c r="B501">
         <v>43.99115</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502">
-        <v>28.76198423485631</v>
+        <v>28.76598082333178</v>
       </c>
       <c r="B502">
         <v>44.0811</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503">
-        <v>25.23006622015157</v>
+        <v>25.36256363115464</v>
       </c>
       <c r="B503">
         <v>44.17106</v>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504">
-        <v>26.1208065237166</v>
+        <v>26.29704578699042</v>
       </c>
       <c r="B504">
         <v>44.26101</v>
@@ -5932,7 +5932,7 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505">
-        <v>26.57159172455936</v>
+        <v>26.9166264534805</v>
       </c>
       <c r="B505">
         <v>44.35097</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506">
-        <v>27.40699209621221</v>
+        <v>27.80874049569411</v>
       </c>
       <c r="B506">
         <v>44.44094</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="507" spans="1:3">
       <c r="A507">
-        <v>31.82340633794329</v>
+        <v>31.76918647512666</v>
       </c>
       <c r="B507">
         <v>43.26866</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508">
-        <v>32.57267898216492</v>
+        <v>32.86081414700335</v>
       </c>
       <c r="B508">
         <v>43.35856</v>
@@ -5976,7 +5976,7 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509">
-        <v>32.77223550498911</v>
+        <v>33.33084339710807</v>
       </c>
       <c r="B509">
         <v>43.53838</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510">
-        <v>27.68060344662586</v>
+        <v>27.83554032550081</v>
       </c>
       <c r="B510">
         <v>43.6283</v>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511">
-        <v>35.42030316641242</v>
+        <v>35.83641532182246</v>
       </c>
       <c r="B511">
         <v>43.71822</v>
@@ -6009,7 +6009,7 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512">
-        <v>31.01052875831203</v>
+        <v>30.85017342424312</v>
       </c>
       <c r="B512">
         <v>43.80815</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="513" spans="1:3">
       <c r="A513">
-        <v>28.36046812354488</v>
+        <v>28.59239712239841</v>
       </c>
       <c r="B513">
         <v>43.89809</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514">
-        <v>43.55591013027951</v>
+        <v>43.41528659951587</v>
       </c>
       <c r="B514">
         <v>37.0833</v>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="515" spans="1:3">
       <c r="A515">
-        <v>24.86248363898458</v>
+        <v>25.03970098081717</v>
       </c>
       <c r="B515">
         <v>43.98803</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516">
-        <v>25.09863527283949</v>
+        <v>24.87022764145529</v>
       </c>
       <c r="B516">
         <v>44.16792</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517">
-        <v>24.32754156999742</v>
+        <v>24.33919525686776</v>
       </c>
       <c r="B517">
         <v>44.25787</v>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="518" spans="1:3">
       <c r="A518">
-        <v>24.05130513012437</v>
+        <v>24.40249155885801</v>
       </c>
       <c r="B518">
         <v>44.34783</v>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519">
-        <v>28.19909418907848</v>
+        <v>28.26737574534741</v>
       </c>
       <c r="B519">
         <v>44.43779</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520">
-        <v>30.94467128555022</v>
+        <v>31.04899926328806</v>
       </c>
       <c r="B520">
         <v>46.4</v>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521">
-        <v>31.60268190221348</v>
+        <v>31.53791420959183</v>
       </c>
       <c r="B521">
         <v>43.26543</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522">
-        <v>32.91840554946909</v>
+        <v>33.14561352099047</v>
       </c>
       <c r="B522">
         <v>43.35533</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="523" spans="1:3">
       <c r="A523">
-        <v>32.47697415384186</v>
+        <v>32.81072017364186</v>
       </c>
       <c r="B523">
         <v>43.149998</v>
@@ -6141,7 +6141,7 @@
     </row>
     <row r="524" spans="1:3">
       <c r="A524">
-        <v>32.9538788496172</v>
+        <v>33.61371531647201</v>
       </c>
       <c r="B524">
         <v>43.8049</v>
@@ -6152,7 +6152,7 @@
     </row>
     <row r="525" spans="1:3">
       <c r="A525">
-        <v>39.35093158957687</v>
+        <v>39.8546046155807</v>
       </c>
       <c r="B525">
         <v>43.98476</v>
@@ -6163,7 +6163,7 @@
     </row>
     <row r="526" spans="1:3">
       <c r="A526">
-        <v>27.01981141092384</v>
+        <v>27.19169201218548</v>
       </c>
       <c r="B526">
         <v>44.0747</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="527" spans="1:3">
       <c r="A527">
-        <v>23.73712454670805</v>
+        <v>24.01164124590986</v>
       </c>
       <c r="B527">
         <v>44.16464</v>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="528" spans="1:3">
       <c r="A528">
-        <v>36.96226243207681</v>
+        <v>37.42042689888572</v>
       </c>
       <c r="B528">
         <v>44.61441</v>
@@ -6196,7 +6196,7 @@
     </row>
     <row r="529" spans="1:3">
       <c r="A529">
-        <v>25.5911251529922</v>
+        <v>25.94786765264062</v>
       </c>
       <c r="B529">
         <v>43.44185</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="530" spans="1:3">
       <c r="A530">
-        <v>34.17540919455695</v>
+        <v>34.76004941741535</v>
       </c>
       <c r="B530">
         <v>43.71158</v>
@@ -6218,7 +6218,7 @@
     </row>
     <row r="531" spans="1:3">
       <c r="A531">
-        <v>25.32858828624447</v>
+        <v>24.80703100001156</v>
       </c>
       <c r="B531">
         <v>44.25116</v>
@@ -6229,7 +6229,7 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532">
-        <v>30.1159521937399</v>
+        <v>30.59283315616475</v>
       </c>
       <c r="B532">
         <v>43.70805</v>
@@ -6240,7 +6240,7 @@
     </row>
     <row r="533" spans="1:3">
       <c r="A533">
-        <v>29.84661242582593</v>
+        <v>29.90012560900092</v>
       </c>
       <c r="B533">
         <v>44.19649</v>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="534" spans="1:3">
       <c r="A534">
-        <v>30.19151133808983</v>
+        <v>30.96267414618072</v>
       </c>
       <c r="B534">
         <v>44.06773</v>
@@ -6262,7 +6262,7 @@
     </row>
     <row r="535" spans="1:3">
       <c r="A535">
-        <v>32.47423642709911</v>
+        <v>32.68094629748791</v>
       </c>
       <c r="B535">
         <v>44.15766</v>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="536" spans="1:3">
       <c r="A536">
-        <v>29.47702303389353</v>
+        <v>29.27140413481531</v>
       </c>
       <c r="B536">
         <v>44.24759</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="537" spans="1:3">
       <c r="A537">
-        <v>27.50391702468524</v>
+        <v>27.80036724454436</v>
       </c>
       <c r="B537">
         <v>44.19206</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="538" spans="1:3">
       <c r="A538">
-        <v>27.50754865928234</v>
+        <v>27.93478566769471</v>
       </c>
       <c r="B538">
         <v>43.61447</v>
@@ -6306,7 +6306,7 @@
     </row>
     <row r="539" spans="1:3">
       <c r="A539">
-        <v>31.16271571057992</v>
+        <v>31.72794688724288</v>
       </c>
       <c r="B539">
         <v>43.70437</v>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="540" spans="1:3">
       <c r="A540">
-        <v>24.33814657992641</v>
+        <v>24.65423977434233</v>
       </c>
       <c r="B540">
         <v>43.97411</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="541" spans="1:3">
       <c r="A541">
-        <v>31.23341694868657</v>
+        <v>31.37616519280552</v>
       </c>
       <c r="B541">
         <v>44.24388</v>
@@ -6339,7 +6339,7 @@
     </row>
     <row r="542" spans="1:3">
       <c r="A542">
-        <v>28.02280234429375</v>
+        <v>28.47813196083049</v>
       </c>
       <c r="B542">
         <v>43.61066</v>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="543" spans="1:3">
       <c r="A543">
-        <v>28.82473068821088</v>
+        <v>29.04626545587698</v>
       </c>
       <c r="B543">
         <v>43.70055</v>
@@ -6361,7 +6361,7 @@
     </row>
     <row r="544" spans="1:3">
       <c r="A544">
-        <v>29.50877595268643</v>
+        <v>29.91016854831095</v>
       </c>
       <c r="B544">
         <v>43.79046</v>
@@ -6372,7 +6372,7 @@
     </row>
     <row r="545" spans="1:3">
       <c r="A545">
-        <v>32.55349245698829</v>
+        <v>31.9661501656895</v>
       </c>
       <c r="B545">
         <v>40.2658</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="546" spans="1:3">
       <c r="A546">
-        <v>31.60801161083378</v>
+        <v>32.08126472139745</v>
       </c>
       <c r="B546">
         <v>43.87639</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="547" spans="1:3">
       <c r="A547">
-        <v>22.46972726824387</v>
+        <v>22.67425929753838</v>
       </c>
       <c r="B547">
         <v>43.60262</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="548" spans="1:3">
       <c r="A548">
-        <v>28.9836643671375</v>
+        <v>29.23603828643317</v>
       </c>
       <c r="B548">
         <v>43.6925</v>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="549" spans="1:3">
       <c r="A549">
-        <v>28.60983977017095</v>
+        <v>29.07001805930862</v>
       </c>
       <c r="B549">
         <v>43.78239</v>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="550" spans="1:3">
       <c r="A550">
-        <v>27.1687358030753</v>
+        <v>27.24983989449837</v>
       </c>
       <c r="B550">
         <v>43.87228</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="551" spans="1:3">
       <c r="A551">
-        <v>27.72763443975071</v>
+        <v>28.17618287160492</v>
       </c>
       <c r="B551">
         <v>43.68826</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="552" spans="1:3">
       <c r="A552">
-        <v>26.94392889936862</v>
+        <v>26.96563565318883</v>
       </c>
       <c r="B552">
         <v>43.77814</v>
@@ -6460,7 +6460,7 @@
     </row>
     <row r="553" spans="1:3">
       <c r="A553">
-        <v>25.22905719847937</v>
+        <v>25.4486278339755</v>
       </c>
       <c r="B553">
         <v>43.86803</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="554" spans="1:3">
       <c r="A554">
-        <v>28.20052685352002</v>
+        <v>28.59881412413969</v>
       </c>
       <c r="B554">
         <v>43.86363</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="555" spans="1:3">
       <c r="A555">
-        <v>27.25095736403807</v>
+        <v>27.46985787039841</v>
       </c>
       <c r="B555">
         <v>43.95351</v>
@@ -6493,7 +6493,7 @@
     </row>
     <row r="556" spans="1:3">
       <c r="A556">
-        <v>57.78803076946767</v>
+        <v>58.27425643951578</v>
       </c>
       <c r="B556">
         <v>38.7667</v>
@@ -6504,7 +6504,7 @@
     </row>
     <row r="557" spans="1:3">
       <c r="A557">
-        <v>25.78164533115903</v>
+        <v>27.32453591896502</v>
       </c>
       <c r="B557">
         <v>39.7533</v>
@@ -6515,7 +6515,7 @@
     </row>
     <row r="558" spans="1:3">
       <c r="A558">
-        <v>39.08462048547895</v>
+        <v>39.21157138455012</v>
       </c>
       <c r="B558">
         <v>45.13333</v>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="559" spans="1:3">
       <c r="A559">
-        <v>36.37736480985293</v>
+        <v>36.40098939127866</v>
       </c>
       <c r="B559">
         <v>44.21862</v>
@@ -6537,7 +6537,7 @@
     </row>
     <row r="560" spans="1:3">
       <c r="A560">
-        <v>26.6368538199361</v>
+        <v>26.9384626338767</v>
       </c>
       <c r="B560">
         <v>44.01923</v>
@@ -6548,7 +6548,7 @@
     </row>
     <row r="561" spans="1:3">
       <c r="A561">
-        <v>31.49909592552031</v>
+        <v>31.63072772122493</v>
       </c>
       <c r="B561">
         <v>44.10908</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="562" spans="1:3">
       <c r="A562">
-        <v>30.38580351018464</v>
+        <v>30.69680489983734</v>
       </c>
       <c r="B562">
         <v>44.083333</v>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="563" spans="1:3">
       <c r="A563">
-        <v>31.74626182842503</v>
+        <v>32.67770970033629</v>
       </c>
       <c r="B563">
         <v>42.59456</v>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="564" spans="1:3">
       <c r="A564">
-        <v>31.74626182842503</v>
+        <v>32.67770970033629</v>
       </c>
       <c r="B564">
         <v>42.58333</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="565" spans="1:3">
       <c r="A565">
-        <v>34.35980484681079</v>
+        <v>35.07435199308034</v>
       </c>
       <c r="B565">
         <v>42.26667</v>
@@ -6603,7 +6603,7 @@
     </row>
     <row r="566" spans="1:3">
       <c r="A566">
-        <v>28.31305325569073</v>
+        <v>28.64515162065185</v>
       </c>
       <c r="B566">
         <v>38.5833</v>
@@ -6614,7 +6614,7 @@
     </row>
     <row r="567" spans="1:3">
       <c r="A567">
-        <v>29.97955012346338</v>
+        <v>30.34955063800631</v>
       </c>
       <c r="B567">
         <v>38.3667</v>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="568" spans="1:3">
       <c r="A568">
-        <v>31.00054958339629</v>
+        <v>31.29062050326807</v>
       </c>
       <c r="B568">
         <v>38.3333</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="569" spans="1:3">
       <c r="A569">
-        <v>35.34355573296563</v>
+        <v>35.62798079910475</v>
       </c>
       <c r="B569">
         <v>38.3667</v>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="570" spans="1:3">
       <c r="A570">
-        <v>30.32118934142595</v>
+        <v>31.14230647138449</v>
       </c>
       <c r="B570">
         <v>38.25</v>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="571" spans="1:3">
       <c r="A571">
-        <v>33.75805629377389</v>
+        <v>34.12165440818455</v>
       </c>
       <c r="B571">
         <v>38.3833</v>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="572" spans="1:3">
       <c r="A572">
-        <v>31.80419106652162</v>
+        <v>32.00541726621434</v>
       </c>
       <c r="B572">
         <v>38.4</v>
@@ -6680,7 +6680,7 @@
     </row>
     <row r="573" spans="1:3">
       <c r="A573">
-        <v>33.8663434646338</v>
+        <v>33.92988219461127</v>
       </c>
       <c r="B573">
         <v>37.6333</v>
@@ -6691,7 +6691,7 @@
     </row>
     <row r="574" spans="1:3">
       <c r="A574">
-        <v>56.06890470084937</v>
+        <v>56.1028378954629</v>
       </c>
       <c r="B574">
         <v>40.03</v>
@@ -6702,7 +6702,7 @@
     </row>
     <row r="575" spans="1:3">
       <c r="A575">
-        <v>43.72969911041586</v>
+        <v>43.75977898775241</v>
       </c>
       <c r="B575">
         <v>39.5</v>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="576" spans="1:3">
       <c r="A576">
-        <v>42.4902758552922</v>
+        <v>42.55334742178161</v>
       </c>
       <c r="B576">
         <v>39.4833</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="577" spans="1:3">
       <c r="A577">
-        <v>43.63490066895868</v>
+        <v>43.24311886129622</v>
       </c>
       <c r="B577">
         <v>38.25</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="578" spans="1:3">
       <c r="A578">
-        <v>42.41663959925937</v>
+        <v>42.25422355286356</v>
       </c>
       <c r="B578">
         <v>38.2</v>
@@ -6746,7 +6746,7 @@
     </row>
     <row r="579" spans="1:3">
       <c r="A579">
-        <v>44.87868996462365</v>
+        <v>44.35137843158353</v>
       </c>
       <c r="B579">
         <v>38.1833</v>
@@ -6757,7 +6757,7 @@
     </row>
     <row r="580" spans="1:3">
       <c r="A580">
-        <v>37.96106637732429</v>
+        <v>37.52578002066799</v>
       </c>
       <c r="B580">
         <v>38.2</v>
@@ -6768,7 +6768,7 @@
     </row>
     <row r="581" spans="1:3">
       <c r="A581">
-        <v>37.96106637732429</v>
+        <v>37.52578002066799</v>
       </c>
       <c r="B581">
         <v>38.18</v>
@@ -6779,7 +6779,7 @@
     </row>
     <row r="582" spans="1:3">
       <c r="A582">
-        <v>34.27102556425483</v>
+        <v>34.45397549156355</v>
       </c>
       <c r="B582">
         <v>37.6667</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="583" spans="1:3">
       <c r="A583">
-        <v>45.37282744420462</v>
+        <v>45.17755724140595</v>
       </c>
       <c r="B583">
         <v>37.9167</v>
@@ -6801,7 +6801,7 @@
     </row>
     <row r="584" spans="1:3">
       <c r="A584">
-        <v>46.09903161216671</v>
+        <v>45.87982110020774</v>
       </c>
       <c r="B584">
         <v>37.8167</v>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="585" spans="1:3">
       <c r="A585">
-        <v>56.06890470084937</v>
+        <v>56.1028378954629</v>
       </c>
       <c r="B585">
         <v>40.02889</v>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="586" spans="1:3">
       <c r="A586">
-        <v>43.07600193689642</v>
+        <v>42.78749783540647</v>
       </c>
       <c r="B586">
         <v>37.5</v>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="587" spans="1:3">
       <c r="A587">
-        <v>31.52993222708776</v>
+        <v>31.00474384691208</v>
       </c>
       <c r="B587">
         <v>36.95</v>
@@ -6845,7 +6845,7 @@
     </row>
     <row r="588" spans="1:3">
       <c r="A588">
-        <v>31.51461935379731</v>
+        <v>31.23121053106739</v>
       </c>
       <c r="B588">
         <v>34.9643</v>
@@ -6856,7 +6856,7 @@
     </row>
     <row r="589" spans="1:3">
       <c r="A589">
-        <v>29.30089795088933</v>
+        <v>29.05443418559395</v>
       </c>
       <c r="B589">
         <v>34.99333</v>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="590" spans="1:3">
       <c r="A590">
-        <v>29.43440618721078</v>
+        <v>30.14241400953247</v>
       </c>
       <c r="B590">
         <v>35.01306</v>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="591" spans="1:3">
       <c r="A591">
-        <v>29.53979868145201</v>
+        <v>29.53554265781007</v>
       </c>
       <c r="B591">
         <v>34.9194</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="592" spans="1:3">
       <c r="A592">
-        <v>29.67025732177017</v>
+        <v>30.02036742420466</v>
       </c>
       <c r="B592">
         <v>34.8755</v>
@@ -6900,7 +6900,7 @@
     </row>
     <row r="593" spans="1:3">
       <c r="A593">
-        <v>34.77887627812825</v>
+        <v>34.41550019893659</v>
       </c>
       <c r="B593">
         <v>37.8667</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="594" spans="1:3">
       <c r="A594">
-        <v>32.66719424273581</v>
+        <v>32.80246239511278</v>
       </c>
       <c r="B594">
         <v>37.8833</v>
@@ -6922,7 +6922,7 @@
     </row>
     <row r="595" spans="1:3">
       <c r="A595">
-        <v>57.43138165554212</v>
+        <v>57.33176802817442</v>
       </c>
       <c r="B595">
         <v>38.7833</v>
@@ -6933,7 +6933,7 @@
     </row>
     <row r="596" spans="1:3">
       <c r="A596">
-        <v>26.67990749985682</v>
+        <v>27.23053147514748</v>
       </c>
       <c r="B596">
         <v>34.91028</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="597" spans="1:3">
       <c r="A597">
-        <v>28.69991706805995</v>
+        <v>28.94617376891457</v>
       </c>
       <c r="B597">
         <v>38.9</v>
@@ -6955,7 +6955,7 @@
     </row>
     <row r="598" spans="1:3">
       <c r="A598">
-        <v>55.44010839747042</v>
+        <v>55.97843760771289</v>
       </c>
       <c r="B598">
         <v>38.66</v>
@@ -6966,7 +6966,7 @@
     </row>
     <row r="599" spans="1:3">
       <c r="A599">
-        <v>56.63216434619937</v>
+        <v>56.90029737592594</v>
       </c>
       <c r="B599">
         <v>38.77</v>
@@ -6977,7 +6977,7 @@
     </row>
     <row r="600" spans="1:3">
       <c r="A600">
-        <v>55.53038636494122</v>
+        <v>55.49163177744007</v>
       </c>
       <c r="B600">
         <v>38.77</v>
@@ -6988,7 +6988,7 @@
     </row>
     <row r="601" spans="1:3">
       <c r="A601">
-        <v>57.70066098252946</v>
+        <v>57.2590593849186</v>
       </c>
       <c r="B601">
         <v>38.7243</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="602" spans="1:3">
       <c r="A602">
-        <v>56.25269483093696</v>
+        <v>56.59189627606536</v>
       </c>
       <c r="B602">
         <v>40.58</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="603" spans="1:3">
       <c r="A603">
-        <v>57.70066098252946</v>
+        <v>57.2590593849186</v>
       </c>
       <c r="B603">
         <v>38.74</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="604" spans="1:3">
       <c r="A604">
-        <v>55.8065476141723</v>
+        <v>56.00283414207629</v>
       </c>
       <c r="B604">
         <v>38.77</v>
@@ -7032,7 +7032,7 @@
     </row>
     <row r="605" spans="1:3">
       <c r="A605">
-        <v>57.68242564458498</v>
+        <v>57.43457263403977</v>
       </c>
       <c r="B605">
         <v>38.61</v>
@@ -7043,7 +7043,7 @@
     </row>
     <row r="606" spans="1:3">
       <c r="A606">
-        <v>55.86055963919058</v>
+        <v>55.85036236013314</v>
       </c>
       <c r="B606">
         <v>39.91556</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="607" spans="1:3">
       <c r="A607">
-        <v>60.35200619449769</v>
+        <v>60.52436781430515</v>
       </c>
       <c r="B607">
         <v>38.983337</v>
@@ -7065,7 +7065,7 @@
     </row>
     <row r="608" spans="1:3">
       <c r="A608">
-        <v>57.9854112510678</v>
+        <v>57.94177583760943</v>
       </c>
       <c r="B608">
         <v>38.78</v>
@@ -7076,7 +7076,7 @@
     </row>
     <row r="609" spans="1:3">
       <c r="A609">
-        <v>55.13283791218907</v>
+        <v>55.61040468055138</v>
       </c>
       <c r="B609">
         <v>40.02</v>
@@ -7087,7 +7087,7 @@
     </row>
     <row r="610" spans="1:3">
       <c r="A610">
-        <v>55.09989384859112</v>
+        <v>55.61040468055138</v>
       </c>
       <c r="B610">
         <v>40.03</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="611" spans="1:3">
       <c r="A611">
-        <v>55.07291709059402</v>
+        <v>55.58376992395326</v>
       </c>
       <c r="B611">
         <v>40.04</v>
@@ -7109,7 +7109,7 @@
     </row>
     <row r="612" spans="1:3">
       <c r="A612">
-        <v>56.04702438104206</v>
+        <v>56.1028378954629</v>
       </c>
       <c r="B612">
         <v>40.02</v>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="613" spans="1:3">
       <c r="A613">
-        <v>56.06890470084937</v>
+        <v>56.1028378954629</v>
       </c>
       <c r="B613">
         <v>40.03</v>
@@ -7131,7 +7131,7 @@
     </row>
     <row r="614" spans="1:3">
       <c r="A614">
-        <v>56.03988567545002</v>
+        <v>56.05578235483785</v>
       </c>
       <c r="B614">
         <v>40.037</v>
